--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="api functions" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
   <si>
     <t>NO.</t>
   </si>
@@ -552,6 +552,56 @@
   </si>
   <si>
     <t>Bạn có muốn xoá store admin này?</t>
+  </si>
+  <si>
+    <t>{"phone_number": "0999888555", "password": "abcxyz"}</t>
+  </si>
+  <si>
+    <t>avatar: name</t>
+  </si>
+  <si>
+    <t>thông báo</t>
+  </si>
+  <si>
+    <t>thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>thoát</t>
+  </si>
+  <si>
+    <t>{
+ "name": "abc xyz"
+ ,"phone_number": "0977777444"
+ ,"gender": 1
+ ,"birthday": "22/12/1990"
+ ,"city_id": 1
+ ,"district_id": 1
+ ,"password": "123456"
+}</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>api/staff/add</t>
+  </si>
+  <si>
+    <t>{
+ "name": "Lù A Phù"
+ ,"phone_number": "0976111444"
+ ,"password": "123456"
+ ,"role_id": 1
+ ,"store_id": 1
+}</t>
+  </si>
+  <si>
+    <t>{"phone_number": "0976111444", "password": "123456"}</t>
   </si>
 </sst>
 </file>
@@ -739,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -751,13 +801,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -778,31 +853,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,10 +1172,11 @@
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1139,10 +1193,13 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1158,8 +1215,14 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1175,8 +1238,14 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1192,8 +1261,14 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1210,7 +1285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1227,7 +1302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1244,7 +1319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1261,7 +1336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1278,7 +1353,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1295,7 +1370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1310,6 +1385,17 @@
       </c>
       <c r="E12" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1322,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="I71" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,6 +1455,9 @@
       <c r="M5" t="s">
         <v>47</v>
       </c>
+      <c r="P5" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="T5" t="s">
         <v>55</v>
       </c>
@@ -1448,10 +1537,10 @@
       <c r="M9" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="22"/>
       <c r="Y9" t="s">
         <v>58</v>
       </c>
@@ -1474,10 +1563,10 @@
       <c r="P11" t="s">
         <v>65</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="Z11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="AA11" s="12"/>
+      <c r="AA11" s="22"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -1491,10 +1580,10 @@
       <c r="M13" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q13" s="12"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -1508,10 +1597,10 @@
       <c r="M15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="12"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
@@ -1561,16 +1650,26 @@
       </c>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" t="s">
+        <v>180</v>
+      </c>
+    </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="E25" s="14" t="s">
+      <c r="C25" s="24"/>
+      <c r="E25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="24"/>
+      <c r="H25" t="s">
+        <v>182</v>
+      </c>
       <c r="L25" t="s">
         <v>86</v>
       </c>
@@ -1579,19 +1678,25 @@
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
       <c r="D26" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="26"/>
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
+      <c r="H27" t="s">
+        <v>184</v>
+      </c>
       <c r="L27" t="s">
         <v>74</v>
       </c>
@@ -1603,10 +1708,10 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
       <c r="L28">
         <v>1</v>
       </c>
@@ -1647,10 +1752,10 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
@@ -1669,18 +1774,18 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
@@ -1706,10 +1811,10 @@
       <c r="G36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="12"/>
+      <c r="J36" s="22"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37">
@@ -1724,10 +1829,10 @@
       <c r="G37" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="12"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
@@ -1779,38 +1884,38 @@
     </row>
     <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="23"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="24"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="17"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="23"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="24"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -1819,10 +1924,10 @@
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="22"/>
       <c r="G57" s="1" t="s">
         <v>103</v>
       </c>
@@ -1842,10 +1947,10 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="22"/>
       <c r="U59" t="s">
         <v>120</v>
       </c>
@@ -1859,10 +1964,10 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="D61" s="22"/>
       <c r="F61" t="s">
         <v>74</v>
       </c>
@@ -1910,10 +2015,10 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="22"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -1946,10 +2051,10 @@
       <c r="N64" t="s">
         <v>114</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="Q64" s="12"/>
+      <c r="Q64" s="22"/>
       <c r="R64" t="s">
         <v>117</v>
       </c>
@@ -2056,10 +2161,10 @@
       <c r="P77" t="s">
         <v>125</v>
       </c>
-      <c r="R77" s="11" t="s">
+      <c r="R77" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="S77" s="12"/>
+      <c r="S77" s="22"/>
       <c r="W77" s="3" t="s">
         <v>122</v>
       </c>
@@ -2214,10 +2319,10 @@
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="11" t="s">
+      <c r="C98" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D98" s="12"/>
+      <c r="D98" s="22"/>
       <c r="F98" s="1" t="s">
         <v>151</v>
       </c>
@@ -2233,10 +2338,10 @@
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D100" s="12"/>
+      <c r="D100" s="22"/>
       <c r="F100" t="s">
         <v>47</v>
       </c>
@@ -2273,10 +2378,10 @@
       <c r="R102" t="s">
         <v>51</v>
       </c>
-      <c r="T102" s="11" t="s">
+      <c r="T102" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="U102" s="12"/>
+      <c r="U102" s="22"/>
       <c r="Z102" t="s">
         <v>165</v>
       </c>
@@ -2335,10 +2440,10 @@
       <c r="R104" t="s">
         <v>52</v>
       </c>
-      <c r="T104" s="11" t="s">
+      <c r="T104" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="U104" s="12"/>
+      <c r="U104" s="22"/>
       <c r="Z104" s="3" t="s">
         <v>122</v>
       </c>
@@ -2496,10 +2601,10 @@
       <c r="R120" t="s">
         <v>175</v>
       </c>
-      <c r="T120" s="11" t="s">
+      <c r="T120" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="U120" s="12"/>
+      <c r="U120" s="22"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2509,16 +2614,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C61:D61"/>
@@ -2530,6 +2625,16 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="T102:U102"/>
     <mergeCell ref="T104:U104"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="E25:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="200">
   <si>
     <t>NO.</t>
   </si>
@@ -77,19 +77,10 @@
     <t>Forget pass</t>
   </si>
   <si>
-    <t>api/account/forget-pass</t>
-  </si>
-  <si>
-    <t>Quên mật khẩu -&gt; confirm code</t>
-  </si>
-  <si>
     <t>Customer confirm code to active account</t>
   </si>
   <si>
     <t>Customer confirm code to update pass</t>
-  </si>
-  <si>
-    <t>api/account/update-pass</t>
   </si>
   <si>
     <t>Quét QR code</t>
@@ -602,6 +593,48 @@
   </si>
   <si>
     <t>{"phone_number": "0976111444", "password": "123456"}</t>
+  </si>
+  <si>
+    <t>{"id": 11,"code": "3080"}</t>
+  </si>
+  <si>
+    <t>api/customer/update-pass</t>
+  </si>
+  <si>
+    <t>api/customer/active-pass</t>
+  </si>
+  <si>
+    <t>{
+ "phone_number": "0977777444"
+ ,"new_pass": "111111"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "phone_number": "0977777444"
+ ,"code": "2604"
+}</t>
+  </si>
+  <si>
+    <t>Staff quên mật khẩu</t>
+  </si>
+  <si>
+    <t>api/staff/update-pass</t>
+  </si>
+  <si>
+    <t>Customer quên mật khẩu -&gt; confirm code</t>
+  </si>
+  <si>
+    <t>Customer quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Staff quên mật khẩu -&gt; confirm code</t>
+  </si>
+  <si>
+    <t>Staff confirm code to update pass</t>
+  </si>
+  <si>
+    <t>api/staff/active-pass</t>
   </si>
 </sst>
 </file>
@@ -802,6 +835,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,9 +888,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1226,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1216,10 +1249,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,10 +1272,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" t="s">
         <v>187</v>
-      </c>
-      <c r="G4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1262,10 +1295,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,7 +1309,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1284,13 +1317,19 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1299,103 +1338,151 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="F9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F14" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>189</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AJ122"/>
   <sheetViews>
-    <sheetView topLeftCell="I71" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1427,130 +1514,130 @@
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AH5" s="3"/>
       <c r="AJ5" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="M9" t="s">
         <v>45</v>
       </c>
-      <c r="M9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q9" s="22"/>
+      <c r="P9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="23"/>
       <c r="Y9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB10" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1558,32 +1645,32 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P11" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA11" s="22"/>
+        <v>62</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11" s="23"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -1592,48 +1679,48 @@
     </row>
     <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q15" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P20" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1643,89 +1730,89 @@
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="E25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="H25" t="s">
+        <v>179</v>
+      </c>
+      <c r="L25" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="E25" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="24"/>
-      <c r="H25" t="s">
-        <v>182</v>
-      </c>
-      <c r="L25" t="s">
-        <v>86</v>
       </c>
       <c r="N25">
         <v>300000</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="D26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+        <v>91</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28">
         <v>3000</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -1736,46 +1823,46 @@
         <v>2</v>
       </c>
       <c r="M29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29">
         <v>4000</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S29" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="22"/>
+      <c r="B30" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1789,13 +1876,13 @@
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1803,46 +1890,46 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>55000</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J36" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E37">
         <v>30000</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J37" s="23"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1869,123 +1956,123 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
+      <c r="C49" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="15"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="15"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="22"/>
+      <c r="C57" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="23"/>
       <c r="G57" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K58" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D59" s="22"/>
+      <c r="C59" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="23"/>
       <c r="U59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>104</v>
-      </c>
       <c r="H61" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="V61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1993,129 +2080,129 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H62">
         <v>30000</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="22"/>
+      <c r="C63" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="23"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H63">
         <v>20000</v>
       </c>
       <c r="I63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N64" t="s">
+        <v>111</v>
+      </c>
+      <c r="P64" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q64" s="23"/>
+      <c r="R64" t="s">
         <v>114</v>
-      </c>
-      <c r="P64" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q64" s="22"/>
-      <c r="R64" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="65" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R65" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P66" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="6:25" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K72" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="V73" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J74" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K74" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
@@ -2125,104 +2212,104 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J75" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K75" s="7">
         <v>43821</v>
       </c>
       <c r="M75" t="s">
+        <v>129</v>
+      </c>
+      <c r="N75" t="s">
+        <v>130</v>
+      </c>
+      <c r="P75" t="s">
+        <v>38</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W75" t="s">
         <v>132</v>
-      </c>
-      <c r="N75" t="s">
-        <v>133</v>
-      </c>
-      <c r="P75" t="s">
-        <v>41</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W75" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="76" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R76" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
-        <v>125</v>
-      </c>
-      <c r="R77" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="S77" s="22"/>
+        <v>122</v>
+      </c>
+      <c r="R77" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="S77" s="23"/>
       <c r="W77" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G81" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K82" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P83" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="V83" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K84" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="S84" s="5"/>
     </row>
@@ -2231,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -2243,170 +2330,170 @@
         <v>43730</v>
       </c>
       <c r="M85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P85" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W85" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R86" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P87" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T87" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="R88" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G90" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K91" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K93" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="D98" s="22"/>
+      <c r="C98" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" s="23"/>
       <c r="F98" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D100" s="22"/>
+      <c r="C100" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="23"/>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G100" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I100" t="s">
+        <v>151</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M100" t="s">
         <v>152</v>
       </c>
-      <c r="I100" t="s">
-        <v>154</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M100" t="s">
-        <v>155</v>
-      </c>
       <c r="N100" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R100" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Y100" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R102" t="s">
-        <v>51</v>
-      </c>
-      <c r="T102" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="U102" s="22"/>
+        <v>48</v>
+      </c>
+      <c r="T102" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="U102" s="23"/>
       <c r="Z102" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F103" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G103" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H103" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K103" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L103" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N103" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2414,16 +2501,16 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
+        <v>154</v>
+      </c>
+      <c r="H104" t="s">
+        <v>155</v>
+      </c>
+      <c r="J104" t="s">
+        <v>156</v>
+      </c>
+      <c r="K104" t="s">
         <v>157</v>
-      </c>
-      <c r="H104" t="s">
-        <v>158</v>
-      </c>
-      <c r="J104" t="s">
-        <v>159</v>
-      </c>
-      <c r="K104" t="s">
-        <v>160</v>
       </c>
       <c r="L104" s="7">
         <v>44187</v>
@@ -2432,130 +2519,130 @@
         <v>43821</v>
       </c>
       <c r="P104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q104" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R104" t="s">
-        <v>52</v>
-      </c>
-      <c r="T104" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="U104" s="22"/>
+        <v>49</v>
+      </c>
+      <c r="T104" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="U104" s="23"/>
       <c r="Z104" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AB104" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R108" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="V108" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T110" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F112" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M114" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="R114" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Y114" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O116" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R116" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Z116" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G117" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J117" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2563,53 +2650,53 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J118" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K118" s="7">
         <v>43821</v>
       </c>
       <c r="M118" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N118" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="R118" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="V118" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Z118" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="AB118" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>175</v>
-      </c>
-      <c r="T120" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="U120" s="22"/>
+        <v>172</v>
+      </c>
+      <c r="T120" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="U120" s="23"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S122" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api functions" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="282">
   <si>
     <t>NO.</t>
   </si>
@@ -86,45 +86,12 @@
     <t>Quét QR code</t>
   </si>
   <si>
-    <t>Quét QR code -&gt; chọn món</t>
-  </si>
-  <si>
     <t>Customer scan QR code -&gt; get menu</t>
   </si>
   <si>
-    <t>api/store/&lt;int: id&gt;/menu</t>
-  </si>
-  <si>
-    <t>Chọn món -&gt; order</t>
-  </si>
-  <si>
-    <t>Customer order</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
-    <t>api/store/&lt;int: id&gt;/send-order</t>
-  </si>
-  <si>
-    <t>Quét QR code -&gt; Gửi yêu cầu</t>
-  </si>
-  <si>
-    <t>Customer scan QR code -&gt; send request</t>
-  </si>
-  <si>
-    <t>api/store/&lt;int:id&gt;/send-request</t>
-  </si>
-  <si>
-    <t>Home: customer</t>
-  </si>
-  <si>
-    <t>Load detail home page when user is customer</t>
-  </si>
-  <si>
-    <t>api/customer/&lt;int:id&gt;</t>
-  </si>
-  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
@@ -134,16 +101,7 @@
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>Bạn là:</t>
-  </si>
-  <si>
     <t>logo (image)</t>
-  </si>
-  <si>
-    <t>Khách hàng</t>
-  </si>
-  <si>
-    <t>Nhân viên</t>
   </si>
   <si>
     <t>Đăng ký tài khoản</t>
@@ -636,12 +594,300 @@
   <si>
     <t>api/staff/active-pass</t>
   </si>
+  <si>
+    <t>Tách màn hình này giữa customer và staff</t>
+  </si>
+  <si>
+    <t>show camera quét QR code -&gt; màn hình chọn món hoặc gửi yêu cầu</t>
+  </si>
+  <si>
+    <t>Chọn món</t>
+  </si>
+  <si>
+    <t>Gửi yêu cầu</t>
+  </si>
+  <si>
+    <t>Chào mừng bạn đến nhà hàng ABC</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>bàn số:</t>
+  </si>
+  <si>
+    <t>selected box</t>
+  </si>
+  <si>
+    <t>đặt món</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup: </t>
+  </si>
+  <si>
+    <t>đặt món thành công</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản để tích điểm và nhận nhiều khuyến mãi từ nhà hàng</t>
+  </si>
+  <si>
+    <t>(Show dòng trên nếu chưa đăng nhập)</t>
+  </si>
+  <si>
+    <t>Yêu cầu của bạn sẽ được gửi tới nhân viên nhà hàng</t>
+  </si>
+  <si>
+    <t>Gửi</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Show quảng cáo theo customer</t>
+  </si>
+  <si>
+    <t>api/customer/&lt;int:id&gt;/adv</t>
+  </si>
+  <si>
+    <t>Get danh sách điểm theo nhà hàng</t>
+  </si>
+  <si>
+    <t>api/customer/&lt;int:id&gt;/point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer </t>
+  </si>
+  <si>
+    <t>Get chi tiết điễm theo nhà hàng</t>
+  </si>
+  <si>
+    <t>api/point/&lt;int:id&gt;/detail</t>
+  </si>
+  <si>
+    <t>Get danh sách khuyến mãi của nhà hàng</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/promotion</t>
+  </si>
+  <si>
+    <t>Get danh sách bàn theo nhà hàng</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/table</t>
+  </si>
+  <si>
+    <t>Đổi điểm</t>
+  </si>
+  <si>
+    <t>api/customer/&lt;int:id&gt;/trade</t>
+  </si>
+  <si>
+    <t>Đặt món</t>
+  </si>
+  <si>
+    <t>api/customer/&lt;int:id&gt;/order</t>
+  </si>
+  <si>
+    <t>api/customer/&lt;int:id&gt;/send-request</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>tên</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>api/staff/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Staff admin</t>
+  </si>
+  <si>
+    <t>Get danh sách menu</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int: id&gt;/menu-cus</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/menu-staff</t>
+  </si>
+  <si>
+    <t>Get menu detail</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/menu/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Add menu</t>
+  </si>
+  <si>
+    <t>api/menu/add</t>
+  </si>
+  <si>
+    <t>Update menu</t>
+  </si>
+  <si>
+    <t>api/menu/update</t>
+  </si>
+  <si>
+    <t>Delete menu</t>
+  </si>
+  <si>
+    <t>api/menu/delete/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Get danh sách staff</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/staff</t>
+  </si>
+  <si>
+    <t>Get staff detail</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/staff/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Add staff</t>
+  </si>
+  <si>
+    <t>Update staff</t>
+  </si>
+  <si>
+    <t>api/staff/update</t>
+  </si>
+  <si>
+    <t>Delete staff</t>
+  </si>
+  <si>
+    <t>api/staff/delete/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>chỉ nhân viên của nhà hàng đó mới dc xoá</t>
+  </si>
+  <si>
+    <t>Get danh sách promotion</t>
+  </si>
+  <si>
+    <t>Get promotion detail</t>
+  </si>
+  <si>
+    <t>Add promotion</t>
+  </si>
+  <si>
+    <t>Update promotion</t>
+  </si>
+  <si>
+    <t>Delete promotion</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/promotion/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>api/promotion/add</t>
+  </si>
+  <si>
+    <t>api/promotion/update</t>
+  </si>
+  <si>
+    <t>api/promotion/delete/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Get system config</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/config</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/config/update</t>
+  </si>
+  <si>
+    <t>Supper admin</t>
+  </si>
+  <si>
+    <t>Update system config</t>
+  </si>
+  <si>
+    <t>Get danh sách store</t>
+  </si>
+  <si>
+    <t>Get store detail</t>
+  </si>
+  <si>
+    <t>Add store</t>
+  </si>
+  <si>
+    <t>Update store</t>
+  </si>
+  <si>
+    <t>Delete store</t>
+  </si>
+  <si>
+    <t>api/store/list</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>api/store/add</t>
+  </si>
+  <si>
+    <t>api/store/update</t>
+  </si>
+  <si>
+    <t>api/store/delete/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Xoá store thì xoá hết nhân viên thuộc nhà hàng đó</t>
+  </si>
+  <si>
+    <t>Get danh sách store admin</t>
+  </si>
+  <si>
+    <t>api/store-admin/list</t>
+  </si>
+  <si>
+    <t>api/store-admin/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>api/store-admin/add</t>
+  </si>
+  <si>
+    <t>api/store-admin/update</t>
+  </si>
+  <si>
+    <t>api/store-admin/delete/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Get store admin detail</t>
+  </si>
+  <si>
+    <t>Add store admin</t>
+  </si>
+  <si>
+    <t>Update store admin</t>
+  </si>
+  <si>
+    <t>Delete store admin</t>
+  </si>
+  <si>
+    <t>nhân viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">màn hình đăng nhập của </t>
+  </si>
+  <si>
+    <t>nhân viên: bỏ đăng ký va quét QR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +926,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -689,7 +942,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -818,11 +1071,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -837,6 +1185,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,12 +1219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -888,6 +1236,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1588,7 @@
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1226,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1249,10 +1633,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1272,10 +1656,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1295,10 +1679,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,10 +1702,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1338,13 +1722,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,7 +1736,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1361,18 +1745,21 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1381,109 +1768,688 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" t="s">
-        <v>198</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>170</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" t="s">
+        <v>247</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B35" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" t="s">
-        <v>184</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>186</v>
-      </c>
+      <c r="B37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s">
+        <v>262</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C45" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1493,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AJ122"/>
+  <dimension ref="B2:AN122"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,137 +2473,149 @@
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C2" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="42" t="s">
+        <v>279</v>
+      </c>
       <c r="N2" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+    </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" t="s">
-        <v>52</v>
       </c>
       <c r="U5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5" t="s">
         <v>38</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>52</v>
       </c>
       <c r="AH5" s="3"/>
       <c r="AJ5" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
       <c r="U6" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="Y9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="23"/>
-      <c r="Y9" t="s">
-        <v>55</v>
-      </c>
       <c r="AB9" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB10" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1645,32 +2623,32 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA11" s="23"/>
+        <v>48</v>
+      </c>
+      <c r="Z11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="14"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -1682,119 +2660,155 @@
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C25" s="25"/>
       <c r="E25" s="24" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F25" s="25"/>
       <c r="H25" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>300000</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="27"/>
       <c r="H26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI26" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
       <c r="E27" s="26"/>
       <c r="F27" s="27"/>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" t="s">
+        <v>70</v>
+      </c>
+      <c r="O27" t="s">
         <v>71</v>
       </c>
-      <c r="M27" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="37"/>
+    </row>
+    <row r="28" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="E28" s="28"/>
@@ -1803,66 +2817,98 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="O28">
         <v>3000</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="38"/>
+    </row>
+    <row r="29" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L29">
         <v>2</v>
       </c>
       <c r="M29" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="O29">
         <v>4000</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="R29" s="8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="S29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="AL29" s="39"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="41"/>
+    </row>
+    <row r="30" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14"/>
+      <c r="V30" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="W30" s="32"/>
+    </row>
+    <row r="31" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE31" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF31" s="32"/>
+      <c r="AM31" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="V32" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="W32" s="32"/>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AE33" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1874,65 +2920,79 @@
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>55000</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="14"/>
+      <c r="AC36" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>30000</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="14"/>
+      <c r="AD37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>1</v>
       </c>
@@ -1943,7 +3003,7 @@
         <v>43821</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>2</v>
       </c>
@@ -1954,125 +3014,138 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>219</v>
+      </c>
+      <c r="J48" t="s">
+        <v>218</v>
+      </c>
+    </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15"/>
+      <c r="C49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="17"/>
+      <c r="J49" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="J50" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="23"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D57" s="23"/>
+      <c r="C57" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" s="14"/>
       <c r="G57" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K58" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="23"/>
+      <c r="C59" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="14"/>
       <c r="U59" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
+        <v>30</v>
+      </c>
+      <c r="P60" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="F61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+      <c r="P61" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" t="s">
-        <v>102</v>
-      </c>
-      <c r="I61" t="s">
-        <v>103</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="V61" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2080,129 +3153,129 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="H62">
         <v>30000</v>
       </c>
       <c r="I62" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L62" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="N62" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="23"/>
+      <c r="C63" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="14"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="H63">
         <v>20000</v>
       </c>
       <c r="I63" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L63" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N64" t="s">
-        <v>111</v>
-      </c>
-      <c r="P64" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q64" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q64" s="14"/>
       <c r="R64" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R65" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P66" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="6:25" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K72" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
+        <v>30</v>
+      </c>
+      <c r="R73" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R73" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="V73" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G74" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K74" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
@@ -2212,104 +3285,104 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J75" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="K75" s="7">
         <v>43821</v>
       </c>
       <c r="M75" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="N75" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="P75" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="R75" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W75" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="76" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R76" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
-        <v>122</v>
-      </c>
-      <c r="R77" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="S77" s="23"/>
+        <v>108</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S77" s="14"/>
       <c r="W77" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G81" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K82" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P83" t="s">
+        <v>30</v>
+      </c>
+      <c r="R83" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="V83" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
+        <v>57</v>
+      </c>
+      <c r="G84" t="s">
+        <v>87</v>
+      </c>
+      <c r="H84" t="s">
         <v>71</v>
       </c>
-      <c r="G84" t="s">
-        <v>101</v>
-      </c>
-      <c r="H84" t="s">
-        <v>85</v>
-      </c>
       <c r="I84" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="K84" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="S84" s="5"/>
     </row>
@@ -2318,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -2330,170 +3403,170 @@
         <v>43730</v>
       </c>
       <c r="M85" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="N85" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="P85" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="W85" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R86" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P87" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="T87" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="R88" s="6" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G90" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K91" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="K93" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="23"/>
+      <c r="C98" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="14"/>
       <c r="F98" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D100" s="23"/>
+      <c r="C100" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="14"/>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I100" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="M100" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="R100" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Y100" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="R102" t="s">
-        <v>48</v>
-      </c>
-      <c r="T102" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="U102" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="T102" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="U102" s="14"/>
       <c r="Z102" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F103" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G103" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H103" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="L103" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="N103" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2501,16 +3574,16 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H104" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J104" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K104" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L104" s="7">
         <v>44187</v>
@@ -2519,130 +3592,130 @@
         <v>43821</v>
       </c>
       <c r="P104" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Q104" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="R104" t="s">
-        <v>49</v>
-      </c>
-      <c r="T104" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="U104" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="T104" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="U104" s="14"/>
       <c r="Z104" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="AB104" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R106" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R108" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="V108" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T110" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F112" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I114" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="M114" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="R114" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Y114" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O116" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="R116" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="Z116" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="G117" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H117" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J117" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="K117" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2650,57 +3723,74 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J118" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="K118" s="7">
         <v>43821</v>
       </c>
       <c r="M118" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="N118" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="R118" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="V118" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="Z118" s="3" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="AB118" s="3" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>172</v>
-      </c>
-      <c r="T120" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="U120" s="23"/>
+        <v>158</v>
+      </c>
+      <c r="T120" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="U120" s="14"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S122" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="28">
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="E25:F28"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V32:W32"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C61:D61"/>
@@ -2712,16 +3802,6 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="T102:U102"/>
     <mergeCell ref="T104:U104"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="305">
   <si>
     <t>NO.</t>
   </si>
@@ -185,9 +185,6 @@
     <t>nhân viên nhà hàng  thông qua quét QR code)</t>
   </si>
   <si>
-    <t>Ưu đãi</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>chi tiết</t>
   </si>
   <si>
-    <t>Đổi điểm lấy quà</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -218,40 +212,16 @@
     <t>Quảng cáo</t>
   </si>
   <si>
-    <t xml:space="preserve">(chỉ enable btn đổi điểm lấy quà của nhà hàng vừa quét QR code </t>
-  </si>
-  <si>
-    <t>và nhà hàng đó đang có chương trình khuyến mãi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng điểm: </t>
-  </si>
-  <si>
-    <t>Tên sản phẩm</t>
-  </si>
-  <si>
     <t>Giá (Điểm)</t>
   </si>
   <si>
-    <t>coca</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>pepsi</t>
-  </si>
-  <si>
-    <t>Đổi</t>
-  </si>
-  <si>
     <t>(slide 20 hình)</t>
-  </si>
-  <si>
-    <t>(Quét QR code của nhà hàng để bật chức năng đổi điểm lấy quà của nhà hàng đó -&gt; show title này nếu chưa quét QR)</t>
   </si>
   <si>
     <t>Home: staff</t>
@@ -881,6 +851,105 @@
   </si>
   <si>
     <t>nhân viên: bỏ đăng ký va quét QR</t>
+  </si>
+  <si>
+    <t>Giảm 10%, tối đa 50k</t>
+  </si>
+  <si>
+    <t>Free coca</t>
+  </si>
+  <si>
+    <t>Giảm giá 50k</t>
+  </si>
+  <si>
+    <t>ưu đãi</t>
+  </si>
+  <si>
+    <t>điểm</t>
+  </si>
+  <si>
+    <t>khuyến mãi</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>Tìm khuyến mãi:</t>
+  </si>
+  <si>
+    <t>Tỉnh/tp</t>
+  </si>
+  <si>
+    <t>Nhà hàng:</t>
+  </si>
+  <si>
+    <t>Tìm</t>
+  </si>
+  <si>
+    <t>Mua</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Xyz</t>
+  </si>
+  <si>
+    <t>Giảm 5% đơn, tối đa 50K</t>
+  </si>
+  <si>
+    <t>Show pupop</t>
+  </si>
+  <si>
+    <t>Giao dịch thành công</t>
+  </si>
+  <si>
+    <t>hoặc</t>
+  </si>
+  <si>
+    <t>Bạn không đủ điểm tại nhà hàng này</t>
+  </si>
+  <si>
+    <t>Khả dụng</t>
+  </si>
+  <si>
+    <t>Đã hết hạn</t>
+  </si>
+  <si>
+    <t>Đã dùng</t>
+  </si>
+  <si>
+    <t>Chi tiết khuyến mãi</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn:</t>
+  </si>
+  <si>
+    <t>Ngày mua:</t>
+  </si>
+  <si>
+    <t>QR code</t>
+  </si>
+  <si>
+    <t>Thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Giống màn hình register, có nút edit bên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cạnh, cho phép edit field tương ứng</t>
+  </si>
+  <si>
+    <t>bỏ field mật khẩu</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Link tới trang quên mật khẩu</t>
+  </si>
+  <si>
+    <t>&lt;&lt; 1 2 &gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1186,10 +1255,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1204,9 +1306,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1217,6 +1316,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1237,41 +1342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1682,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1633,10 +1705,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1656,10 +1728,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1679,10 +1751,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1702,10 +1774,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1713,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1722,13 +1794,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1736,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1745,13 +1817,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1759,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1768,13 +1840,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,22 +1854,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,16 +1877,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1822,16 +1894,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1839,16 +1911,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1856,16 +1928,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,16 +1945,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,7 +1962,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1899,7 +1971,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1907,16 +1979,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
         <v>201</v>
-      </c>
-      <c r="C17" t="s">
-        <v>211</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1924,16 +1996,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1941,16 +2013,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1958,16 +2030,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,16 +2047,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1992,16 +2064,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2009,16 +2081,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2026,16 +2098,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,19 +2115,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" t="s">
         <v>222</v>
-      </c>
-      <c r="C25" t="s">
-        <v>232</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="E25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2063,16 +2135,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,16 +2152,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C27" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2097,22 +2169,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F28" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,16 +2192,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2137,19 +2209,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2157,16 +2229,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2174,16 +2246,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2191,16 +2263,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G33" s="12"/>
     </row>
@@ -2209,16 +2281,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2226,19 +2298,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,16 +2318,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D36" t="s">
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,16 +2335,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,16 +2352,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D38" t="s">
         <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,16 +2369,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,16 +2386,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C40" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G40" s="12"/>
     </row>
@@ -2332,16 +2404,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2349,19 +2421,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,16 +2441,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,16 +2458,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,16 +2475,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G45" s="12"/>
     </row>
@@ -2421,16 +2493,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,16 +2510,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G47" s="5"/>
     </row>
@@ -2459,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AN122"/>
+  <dimension ref="B2:BD122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,17 +2546,19 @@
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.140625" customWidth="1"/>
+    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>279</v>
+      <c r="C2" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>269</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>29</v>
@@ -2505,11 +2579,11 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -2518,11 +2592,11 @@
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="I5" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -2554,9 +2628,9 @@
       <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="U6" s="5" t="s">
         <v>50</v>
       </c>
@@ -2602,10 +2676,10 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="37"/>
       <c r="Y9" t="s">
         <v>41</v>
       </c>
@@ -2628,10 +2702,10 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="Z11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="37"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -2645,10 +2719,10 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="14"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -2662,17 +2736,17 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -2683,12 +2757,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
         <v>36</v>
       </c>
@@ -2696,423 +2770,510 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>62</v>
+      <c r="F23" t="s">
+        <v>276</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="AJ23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="AW23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB23" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>275</v>
+      </c>
+      <c r="G24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+      <c r="O24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="E25" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="H25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>287</v>
+      </c>
+      <c r="O25" t="s">
+        <v>300</v>
+      </c>
+      <c r="V25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="24" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
+      <c r="AQ25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR25" s="11"/>
+      <c r="AS25">
+        <v>85000</v>
+      </c>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AX25" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>292</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>293</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
+      <c r="H26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG26" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="E25" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="H25" t="s">
-        <v>165</v>
-      </c>
-      <c r="L25" t="s">
-        <v>69</v>
-      </c>
-      <c r="N25">
-        <v>300000</v>
-      </c>
-      <c r="V25" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="26" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
-      <c r="D26" t="s">
+      <c r="AH26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
+      <c r="H27" t="s">
+        <v>157</v>
+      </c>
+      <c r="K27" t="s">
+        <v>288</v>
+      </c>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="18"/>
+      <c r="AN27" s="19"/>
+      <c r="AQ27">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT27">
+        <v>55000</v>
+      </c>
+      <c r="AV27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY27" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="H26" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI26" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="H27" t="s">
-        <v>167</v>
-      </c>
-      <c r="L27" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="37"/>
-    </row>
-    <row r="28" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>72</v>
-      </c>
-      <c r="O28">
-        <v>3000</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0</v>
-      </c>
+      <c r="AZ27" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
+      <c r="K28" t="s">
+        <v>289</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
       <c r="V28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="38"/>
-    </row>
-    <row r="29" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L29">
+        <v>180</v>
+      </c>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="22"/>
+      <c r="AQ28">
         <v>2</v>
       </c>
-      <c r="M29" t="s">
-        <v>75</v>
-      </c>
-      <c r="O29">
-        <v>4000</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="41"/>
-    </row>
-    <row r="30" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="13" t="s">
+      <c r="AR28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT28">
+        <v>30000</v>
+      </c>
+      <c r="AV28" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="24"/>
+      <c r="AN29" s="25"/>
+      <c r="BC29" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="BD29" s="44"/>
+    </row>
+    <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="V30" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="W30" s="32"/>
-    </row>
-    <row r="31" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="37"/>
+      <c r="V30" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="W30" s="16"/>
+      <c r="AT30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC30" s="44"/>
+      <c r="BD30" s="44"/>
+    </row>
+    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="3" t="s">
-        <v>76</v>
+      <c r="N31" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="AD31" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE31" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF31" s="32"/>
-      <c r="AM31" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="2:40" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="AE31" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF31" s="16"/>
+      <c r="AM31" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AU31">
+        <v>15000</v>
+      </c>
+      <c r="AV31" s="7">
+        <v>43821</v>
+      </c>
+      <c r="BC31" s="44"/>
+      <c r="BD31" s="44"/>
+    </row>
+    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
-      <c r="V32" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="W32" s="32"/>
+      <c r="N32" t="s">
+        <v>303</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="W32" s="16"/>
+      <c r="AT32">
+        <v>2</v>
+      </c>
+      <c r="AU32">
+        <v>15000</v>
+      </c>
+      <c r="AV32" s="7">
+        <v>43861</v>
+      </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AE33" s="31" t="s">
-        <v>194</v>
+      <c r="AE33" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+        <v>279</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="G35" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AC36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36">
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36">
-        <v>55000</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J36" s="14"/>
-      <c r="AC36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37">
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E38" t="s">
+        <v>273</v>
+      </c>
+      <c r="G38">
+        <v>5000</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37">
+      <c r="C39" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39">
         <v>30000</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J37" s="14"/>
-      <c r="AD37" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AD38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>10000</v>
-      </c>
-      <c r="G40" s="7">
-        <v>43821</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>15000</v>
-      </c>
-      <c r="G41" s="7">
-        <v>43861</v>
+      <c r="I39" s="14" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>68</v>
+      <c r="D43" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="J48" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
+      <c r="C49" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="30"/>
       <c r="J49" t="s">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="L49" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="32"/>
       <c r="J50" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="20"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="32"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="14"/>
+      <c r="C57" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="37"/>
       <c r="G57" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K58" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="14"/>
+      <c r="C59" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="37"/>
       <c r="U59" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3124,28 +3285,28 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="14"/>
+      <c r="C61" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="37"/>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="I61" t="s">
-        <v>89</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="V61" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3153,101 +3314,101 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H62">
         <v>30000</v>
       </c>
       <c r="I62" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L62" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N62" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" s="14"/>
+      <c r="C63" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="37"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H63">
         <v>20000</v>
       </c>
       <c r="I63" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K63" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N64" t="s">
-        <v>97</v>
-      </c>
-      <c r="P64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P64" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="14"/>
+      <c r="Q64" s="37"/>
       <c r="R64" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R65" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P66" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="6:25" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K72" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3258,24 +3419,24 @@
         <v>44</v>
       </c>
       <c r="V73" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K74" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
@@ -3285,22 +3446,22 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J75" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="K75" s="7">
         <v>43821</v>
       </c>
       <c r="M75" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N75" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P75" t="s">
         <v>27</v>
@@ -3309,49 +3470,49 @@
         <v>44</v>
       </c>
       <c r="W75" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R76" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
-        <v>108</v>
-      </c>
-      <c r="R77" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R77" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="S77" s="14"/>
+      <c r="S77" s="37"/>
       <c r="W77" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G81" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K82" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3362,27 +3523,27 @@
         <v>44</v>
       </c>
       <c r="V83" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G84" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I84" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K84" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="S84" s="5"/>
     </row>
@@ -3391,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -3403,170 +3564,182 @@
         <v>43730</v>
       </c>
       <c r="M85" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="N85" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="P85" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>44</v>
       </c>
       <c r="W85" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>273</v>
+      </c>
+      <c r="H86">
+        <v>5000</v>
+      </c>
       <c r="R86" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>274</v>
+      </c>
+      <c r="H87">
+        <v>5000</v>
+      </c>
       <c r="P87" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="R87" s="10" t="s">
         <v>44</v>
       </c>
       <c r="T87" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="2:25" x14ac:dyDescent="0.25">
       <c r="R88" s="6" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G90" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K91" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K93" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" s="14"/>
+      <c r="C98" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" s="37"/>
       <c r="F98" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R98" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N98" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="X98" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D100" s="14"/>
+      <c r="C100" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D100" s="37"/>
       <c r="F100" t="s">
         <v>30</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M100" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="R100" t="s">
         <v>30</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y100" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="R102" t="s">
         <v>34</v>
       </c>
-      <c r="T102" s="13" t="s">
+      <c r="T102" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U102" s="14"/>
+      <c r="U102" s="37"/>
       <c r="Z102" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G103" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J103" t="s">
         <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L103" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N103" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3574,16 +3747,16 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H104" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J104" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K104" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L104" s="7">
         <v>44187</v>
@@ -3592,130 +3765,130 @@
         <v>43821</v>
       </c>
       <c r="P104" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q104" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="R104" t="s">
         <v>35</v>
       </c>
-      <c r="T104" s="13" t="s">
+      <c r="T104" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U104" s="14"/>
+      <c r="U104" s="37"/>
       <c r="Z104" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AB104" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R106" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R108" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="V108" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T110" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F112" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X112" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F114" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I114" t="s">
         <v>25</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M114" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="R114" t="s">
         <v>30</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y114" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O116" s="3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="R116" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Z116" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G117" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H117" t="s">
         <v>25</v>
       </c>
       <c r="J117" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K117" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3723,74 +3896,58 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="J118" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K118" s="7">
         <v>43821</v>
       </c>
       <c r="M118" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N118" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="R118" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="V118" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="Z118" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AB118" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>158</v>
-      </c>
-      <c r="T120" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="T120" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="U120" s="14"/>
+      <c r="U120" s="37"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S122" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="V32:W32"/>
+  <mergeCells count="27">
+    <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C61:D61"/>
@@ -3802,6 +3959,21 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="T102:U102"/>
     <mergeCell ref="T104:U104"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="E25:F28"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="api functions" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="311">
   <si>
     <t>NO.</t>
   </si>
@@ -462,12 +462,6 @@
   </si>
   <si>
     <t>Cửu hàng:</t>
-  </si>
-  <si>
-    <t>Password:</t>
-  </si>
-  <si>
-    <t>(để mặc định)</t>
   </si>
   <si>
     <t>Bạn có muốn xoá store admin này?</t>
@@ -814,24 +808,6 @@
     <t>Xoá store thì xoá hết nhân viên thuộc nhà hàng đó</t>
   </si>
   <si>
-    <t>Get danh sách store admin</t>
-  </si>
-  <si>
-    <t>api/store-admin/list</t>
-  </si>
-  <si>
-    <t>api/store-admin/&lt;int:id&gt;</t>
-  </si>
-  <si>
-    <t>api/store-admin/add</t>
-  </si>
-  <si>
-    <t>api/store-admin/update</t>
-  </si>
-  <si>
-    <t>api/store-admin/delete/&lt;int:id&gt;</t>
-  </si>
-  <si>
     <t>Get store admin detail</t>
   </si>
   <si>
@@ -950,6 +926,60 @@
   </si>
   <si>
     <t>&lt;&lt; 1 2 &gt;&gt;</t>
+  </si>
+  <si>
+    <t>Quyền:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quyền </t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>Search admin store</t>
+  </si>
+  <si>
+    <t>pass in body {
+ "name":"a"
+ ,"phone_number":"65442"
+ ,"role_id":""
+ ,"store_name":"Store 1"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>Staff detail</t>
+  </si>
+  <si>
+    <t>api/admin-store/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>api/admin-store/add</t>
+  </si>
+  <si>
+    <t>api/admin-store/update</t>
+  </si>
+  <si>
+    <t>api/admin-store/delete/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>api/admin-store/search/?limit=10&amp;offset=0</t>
+  </si>
+  <si>
+    <t>{
+ "id": 3
+ ,"name": "abc xyz"
+ ,"phone_number": "0878665442"
+ ,"password": "123456"
+ ,"role_id": 1
+ ,"store_id": 1
+}</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1258,6 +1288,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,9 +1355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1294,57 +1375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1649,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G47"/>
+  <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1705,10 +1736,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1728,10 +1759,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1751,10 +1782,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1774,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1785,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1794,13 +1825,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="F7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1808,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1817,13 +1848,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1840,13 +1871,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,22 +1885,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1877,16 +1908,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1894,16 +1925,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1911,16 +1942,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,16 +1959,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1945,16 +1976,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,7 +1993,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1971,7 +2002,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1979,16 +2010,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,16 +2027,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,16 +2044,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2033,13 +2064,13 @@
         <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2047,16 +2078,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,16 +2095,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2081,16 +2112,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2098,16 +2129,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2115,19 +2146,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,16 +2166,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2152,16 +2183,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,359 +2200,409 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
+        <v>158</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>228</v>
+      </c>
+      <c r="F29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>232</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>233</v>
+        <v>209</v>
+      </c>
+      <c r="F30" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>230</v>
+      </c>
+      <c r="F31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
       <c r="B34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>233</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" t="s">
         <v>246</v>
-      </c>
-      <c r="C39" t="s">
-        <v>249</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" s="12"/>
+        <v>252</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C42" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>257</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>255</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C43" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>261</v>
+        <v>309</v>
+      </c>
+      <c r="F44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
       <c r="B46" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C47" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>264</v>
-      </c>
-      <c r="G47" s="5"/>
+        <v>307</v>
+      </c>
+      <c r="F47" t="s">
+        <v>158</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>308</v>
+      </c>
+      <c r="F48" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,10 +2612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BD122"/>
+  <dimension ref="B2:BD124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="J66" workbookViewId="0">
+      <selection activeCell="R77" sqref="R77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,10 +2636,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>29</v>
@@ -2579,11 +2660,11 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -2592,11 +2673,11 @@
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="I5" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -2628,9 +2709,9 @@
       <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
       <c r="U6" s="5" t="s">
         <v>50</v>
       </c>
@@ -2676,10 +2757,10 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="37"/>
+      <c r="Q9" s="18"/>
       <c r="Y9" t="s">
         <v>41</v>
       </c>
@@ -2702,10 +2783,10 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="36" t="s">
+      <c r="Z11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="37"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -2719,10 +2800,10 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="P13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -2736,10 +2817,10 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="P15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
@@ -2782,7 +2863,7 @@
     </row>
     <row r="22" spans="2:56" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
@@ -2790,72 +2871,72 @@
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AW23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
+        <v>151</v>
+      </c>
+      <c r="O24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="E25" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="H25" t="s">
         <v>153</v>
       </c>
-      <c r="O24" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="E25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="H25" t="s">
-        <v>155</v>
-      </c>
       <c r="K25" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="V25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AD25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AE25" t="s">
         <v>77</v>
@@ -2864,7 +2945,7 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AQ25" t="s">
         <v>58</v>
@@ -2877,34 +2958,34 @@
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
       <c r="AX25" s="14" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AY25" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AZ25" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="BB25" t="s">
         <v>30</v>
       </c>
       <c r="BD25" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O26" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AG26" t="s">
         <v>66</v>
@@ -2925,23 +3006,23 @@
         <v>58</v>
       </c>
       <c r="BB26" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
       <c r="H27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K27" t="s">
-        <v>288</v>
-      </c>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="18"/>
-      <c r="AN27" s="19"/>
+        <v>280</v>
+      </c>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="37"/>
       <c r="AQ27">
         <v>1</v>
       </c>
@@ -2964,16 +3045,16 @@
         <v>63</v>
       </c>
       <c r="BB27" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
       <c r="K28" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>107</v>
@@ -2981,11 +3062,11 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="V28" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL28" s="20"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="22"/>
+        <v>178</v>
+      </c>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="39"/>
       <c r="AQ28">
         <v>2</v>
       </c>
@@ -3001,27 +3082,27 @@
     </row>
     <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="AL29" s="23"/>
-      <c r="AM29" s="24"/>
-      <c r="AN29" s="25"/>
-      <c r="BC29" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="BD29" s="44"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="42"/>
+      <c r="BC29" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD29" s="16"/>
     </row>
     <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="V30" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="W30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="V30" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="W30" s="34"/>
       <c r="AT30" t="s">
         <v>56</v>
       </c>
@@ -3031,25 +3112,25 @@
       <c r="AV30" t="s">
         <v>63</v>
       </c>
-      <c r="BC30" s="44"/>
-      <c r="BD30" s="44"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AD31" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE31" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF31" s="16"/>
+        <v>180</v>
+      </c>
+      <c r="AE31" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF31" s="34"/>
       <c r="AM31" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -3060,20 +3141,20 @@
       <c r="AV31" s="7">
         <v>43821</v>
       </c>
-      <c r="BC31" s="44"/>
-      <c r="BD31" s="44"/>
+      <c r="BC31" s="16"/>
+      <c r="BD31" s="16"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
       <c r="N32" t="s">
-        <v>303</v>
-      </c>
-      <c r="V32" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="W32" s="16"/>
+        <v>295</v>
+      </c>
+      <c r="V32" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="W32" s="34"/>
       <c r="AT32">
         <v>2</v>
       </c>
@@ -3086,12 +3167,12 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AE33" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3101,23 +3182,23 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AC36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AD36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
@@ -3134,7 +3215,7 @@
         <v>65</v>
       </c>
       <c r="AD37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
@@ -3142,19 +3223,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G38">
         <v>5000</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="AD38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -3162,21 +3243,21 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G39">
         <v>30000</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -3184,59 +3265,59 @@
         <v>69</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L49" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="31"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="32"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="31"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="32"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3245,10 +3326,10 @@
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="37"/>
+      <c r="D57" s="18"/>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
@@ -3268,10 +3349,10 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="37"/>
+      <c r="D59" s="18"/>
       <c r="U59" t="s">
         <v>93</v>
       </c>
@@ -3285,10 +3366,10 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="37"/>
+      <c r="D61" s="18"/>
       <c r="F61" t="s">
         <v>56</v>
       </c>
@@ -3336,10 +3417,10 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="37"/>
+      <c r="D63" s="18"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -3372,10 +3453,10 @@
       <c r="N64" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="36" t="s">
+      <c r="P64" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="37"/>
+      <c r="Q64" s="18"/>
       <c r="R64" t="s">
         <v>90</v>
       </c>
@@ -3395,12 +3476,21 @@
         <v>84</v>
       </c>
     </row>
+    <row r="69" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="P69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>103</v>
+      <c r="P71" t="s">
+        <v>30</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="U71" s="1" t="s">
         <v>92</v>
@@ -3410,10 +3500,12 @@
       <c r="K72" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
     </row>
     <row r="73" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>44</v>
@@ -3438,8 +3530,9 @@
       <c r="K74" t="s">
         <v>99</v>
       </c>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
+      <c r="R74" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="75" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F75">
@@ -3464,28 +3557,24 @@
         <v>106</v>
       </c>
       <c r="P75" t="s">
-        <v>27</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="R75" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S75" s="18"/>
       <c r="W75" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R76" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
+    <row r="76" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
-        <v>98</v>
-      </c>
-      <c r="R77" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S77" s="37"/>
+        <v>26</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="W77" s="3" t="s">
         <v>95</v>
       </c>
@@ -3552,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -3581,7 +3670,7 @@
     </row>
     <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H86">
         <v>5000</v>
@@ -3592,7 +3681,7 @@
     </row>
     <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H87">
         <v>5000</v>
@@ -3652,10 +3741,10 @@
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="36" t="s">
+      <c r="C98" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="37"/>
+      <c r="D98" s="18"/>
       <c r="F98" s="1" t="s">
         <v>124</v>
       </c>
@@ -3671,10 +3760,10 @@
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="36" t="s">
+      <c r="C100" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="37"/>
+      <c r="D100" s="18"/>
       <c r="F100" t="s">
         <v>30</v>
       </c>
@@ -3711,10 +3800,10 @@
       <c r="R102" t="s">
         <v>34</v>
       </c>
-      <c r="T102" s="36" t="s">
+      <c r="T102" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U102" s="37"/>
+      <c r="U102" s="18"/>
       <c r="Z102" t="s">
         <v>138</v>
       </c>
@@ -3773,10 +3862,10 @@
       <c r="R104" t="s">
         <v>35</v>
       </c>
-      <c r="T104" s="36" t="s">
+      <c r="T104" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U104" s="37"/>
+      <c r="U104" s="18"/>
       <c r="Z104" s="3" t="s">
         <v>95</v>
       </c>
@@ -3837,11 +3926,17 @@
       <c r="G114" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I114" t="s">
+      <c r="H114" t="s">
         <v>25</v>
       </c>
-      <c r="K114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="L114" s="45" t="s">
+        <v>299</v>
       </c>
       <c r="M114" t="s">
         <v>141</v>
@@ -3871,7 +3966,7 @@
         <v>125</v>
       </c>
       <c r="Z116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3884,6 +3979,9 @@
       <c r="H117" t="s">
         <v>25</v>
       </c>
+      <c r="I117" t="s">
+        <v>98</v>
+      </c>
       <c r="J117" t="s">
         <v>143</v>
       </c>
@@ -3901,6 +3999,9 @@
       <c r="H118" s="8" t="s">
         <v>144</v>
       </c>
+      <c r="I118" t="s">
+        <v>300</v>
+      </c>
       <c r="J118" t="s">
         <v>145</v>
       </c>
@@ -3914,14 +4015,12 @@
         <v>106</v>
       </c>
       <c r="R118" t="s">
-        <v>149</v>
-      </c>
-      <c r="T118" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V118" t="s">
-        <v>150</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="T118" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U118" s="18"/>
       <c r="Z118" s="3" t="s">
         <v>95</v>
       </c>
@@ -3934,32 +4033,36 @@
       <c r="R120" t="s">
         <v>148</v>
       </c>
-      <c r="T120" s="36" t="s">
+      <c r="T120" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U120" s="37"/>
+      <c r="U120" s="18"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S122" s="3" t="s">
+      <c r="I122" t="s">
+        <v>296</v>
+      </c>
+      <c r="R122" t="s">
+        <v>26</v>
+      </c>
+      <c r="T122" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S124" s="3" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="BC29:BD31"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="C49:H52"/>
+  <mergeCells count="28">
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="R75:S75"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P15:Q15"/>
@@ -3968,12 +4071,21 @@
     <mergeCell ref="B25:C28"/>
     <mergeCell ref="E25:F28"/>
     <mergeCell ref="V30:W30"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="BC29:BD31"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C49:H52"/>
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="318">
   <si>
     <t>NO.</t>
   </si>
@@ -766,9 +766,6 @@
     <t>api/store/&lt;int:id&gt;/config</t>
   </si>
   <si>
-    <t>api/store/&lt;int:id&gt;/config/update</t>
-  </si>
-  <si>
     <t>Supper admin</t>
   </si>
   <si>
@@ -788,9 +785,6 @@
   </si>
   <si>
     <t>Delete store</t>
-  </si>
-  <si>
-    <t>api/store/list</t>
   </si>
   <si>
     <t>api/store/&lt;int:id&gt;</t>
@@ -967,9 +961,6 @@
   </si>
   <si>
     <t>api/admin-store/delete/&lt;int:id&gt;</t>
-  </si>
-  <si>
-    <t>api/admin-store/search/?limit=10&amp;offset=0</t>
   </si>
   <si>
     <t>{
@@ -980,6 +971,53 @@
  ,"role_id": 1
  ,"store_id": 1
 }</t>
+  </si>
+  <si>
+    <t>api/store/&lt;int:id&gt;/config/update?limit=10&amp;offset=0</t>
+  </si>
+  <si>
+    <t>api/admin-store/search-admin/?limit=10&amp;offset=0</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected </t>
+  </si>
+  <si>
+    <t>api/store/search/?limit=10&amp;offset=0</t>
+  </si>
+  <si>
+    <t>{
+ "name": ""
+ ,"city_id": "1"
+ ,"district_id": ""
+}</t>
+  </si>
+  <si>
+    <t>hidden when edit</t>
+  </si>
+  <si>
+    <t>{
+ "id": 4
+ ,"name": "Store 5"
+ ,"address": "440 Cộng Hoà"
+  ,"city_id": "2"
+  ,"district_id": 2
+  ,"expired_at": 7
+}</t>
+  </si>
+  <si>
+    <t>{
+ "name": "Store 5"
+ ,"address": "440 Cộng Hoà"
+  ,"city_id": "2"
+  ,"district_id": 2
+  ,"expired_at": 7
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1288,14 +1326,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1324,27 +1390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1369,13 +1414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1682,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,7 +2273,7 @@
         <v>158</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,7 +2284,7 @@
         <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2396,30 +2434,39 @@
         <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>312</v>
+      </c>
+      <c r="F39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2427,51 +2474,65 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="F41" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="F42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2479,19 +2540,19 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2499,10 +2560,10 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
@@ -2514,7 +2575,7 @@
         <v>158</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2522,19 +2583,19 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F45" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2542,16 +2603,16 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F46" t="s">
         <v>158</v>
@@ -2565,22 +2626,22 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F47" t="s">
         <v>158</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2588,16 +2649,16 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
         <v>158</v>
@@ -2614,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BD124"/>
   <sheetViews>
-    <sheetView topLeftCell="J66" workbookViewId="0">
-      <selection activeCell="R77" sqref="R77"/>
+    <sheetView topLeftCell="I96" workbookViewId="0">
+      <selection activeCell="M107" sqref="M107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,7 +2700,7 @@
         <v>174</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>29</v>
@@ -2660,11 +2721,11 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -2673,11 +2734,11 @@
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="I5" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -2709,9 +2770,9 @@
       <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
       <c r="U6" s="5" t="s">
         <v>50</v>
       </c>
@@ -2757,10 +2818,10 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="20"/>
       <c r="Y9" t="s">
         <v>41</v>
       </c>
@@ -2783,10 +2844,10 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="18"/>
+      <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -2800,10 +2861,10 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -2817,10 +2878,10 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
@@ -2863,7 +2924,7 @@
     </row>
     <row r="22" spans="2:56" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
@@ -2871,14 +2932,14 @@
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>22</v>
@@ -2891,18 +2952,18 @@
         <v>177</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AW23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G24" t="s">
         <v>152</v>
@@ -2911,26 +2972,26 @@
         <v>151</v>
       </c>
       <c r="O24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="E25" s="28" t="s">
+      <c r="C25" s="22"/>
+      <c r="E25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="22"/>
       <c r="H25" t="s">
         <v>153</v>
       </c>
       <c r="K25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="V25" t="s">
         <v>175</v>
@@ -2958,34 +3019,34 @@
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
       <c r="AX25" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>282</v>
+      </c>
+      <c r="AZ25" t="s">
         <v>283</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>284</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>285</v>
       </c>
       <c r="BB25" t="s">
         <v>30</v>
       </c>
       <c r="BD25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
       <c r="H26" t="s">
         <v>154</v>
       </c>
       <c r="O26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s">
         <v>66</v>
@@ -3006,23 +3067,23 @@
         <v>58</v>
       </c>
       <c r="BB26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
       <c r="H27" t="s">
         <v>155</v>
       </c>
       <c r="K27" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="37"/>
+        <v>278</v>
+      </c>
+      <c r="AL27" s="38"/>
+      <c r="AM27" s="39"/>
+      <c r="AN27" s="40"/>
       <c r="AQ27">
         <v>1</v>
       </c>
@@ -3045,16 +3106,16 @@
         <v>63</v>
       </c>
       <c r="BB27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
       <c r="K28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>107</v>
@@ -3064,9 +3125,9 @@
       <c r="V28" t="s">
         <v>178</v>
       </c>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="39"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="42"/>
       <c r="AQ28">
         <v>2</v>
       </c>
@@ -3082,27 +3143,27 @@
     </row>
     <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="42"/>
-      <c r="BC29" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="BD29" s="16"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="44"/>
+      <c r="AN29" s="45"/>
+      <c r="BC29" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="BD29" s="28"/>
     </row>
     <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="V30" s="34" t="s">
+      <c r="C30" s="20"/>
+      <c r="V30" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="W30" s="34"/>
+      <c r="W30" s="27"/>
       <c r="AT30" t="s">
         <v>56</v>
       </c>
@@ -3112,23 +3173,23 @@
       <c r="AV30" t="s">
         <v>63</v>
       </c>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
+      <c r="BC30" s="28"/>
+      <c r="BD30" s="28"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AD31" t="s">
         <v>180</v>
       </c>
-      <c r="AE31" s="34" t="s">
+      <c r="AE31" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="AF31" s="34"/>
+      <c r="AF31" s="27"/>
       <c r="AM31" s="14" t="s">
         <v>188</v>
       </c>
@@ -3141,20 +3202,20 @@
       <c r="AV31" s="7">
         <v>43821</v>
       </c>
-      <c r="BC31" s="16"/>
-      <c r="BD31" s="16"/>
+      <c r="BC31" s="28"/>
+      <c r="BD31" s="28"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
       <c r="N32" t="s">
-        <v>295</v>
-      </c>
-      <c r="V32" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="V32" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="W32" s="34"/>
+      <c r="W32" s="27"/>
       <c r="AT32">
         <v>2</v>
       </c>
@@ -3172,7 +3233,7 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3182,15 +3243,15 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
@@ -3223,16 +3284,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G38">
         <v>5000</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AD38" t="s">
         <v>186</v>
@@ -3243,21 +3304,21 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G39">
         <v>30000</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -3265,7 +3326,7 @@
         <v>69</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3277,47 +3338,47 @@
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
       <c r="J49" t="s">
         <v>154</v>
       </c>
       <c r="L49" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
       <c r="J50" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3326,10 +3387,10 @@
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="18"/>
+      <c r="D57" s="20"/>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
@@ -3349,10 +3410,10 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="18"/>
+      <c r="D59" s="20"/>
       <c r="U59" t="s">
         <v>93</v>
       </c>
@@ -3366,10 +3427,10 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="18"/>
+      <c r="D61" s="20"/>
       <c r="F61" t="s">
         <v>56</v>
       </c>
@@ -3417,10 +3478,10 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="18"/>
+      <c r="D63" s="20"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -3453,10 +3514,10 @@
       <c r="N64" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="17" t="s">
+      <c r="P64" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="18"/>
+      <c r="Q64" s="20"/>
       <c r="R64" t="s">
         <v>90</v>
       </c>
@@ -3559,10 +3620,10 @@
       <c r="P75" t="s">
         <v>98</v>
       </c>
-      <c r="R75" s="17" t="s">
+      <c r="R75" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="S75" s="18"/>
+      <c r="S75" s="20"/>
       <c r="W75" t="s">
         <v>108</v>
       </c>
@@ -3575,6 +3636,9 @@
       <c r="R77" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="S77" t="s">
+        <v>314</v>
+      </c>
       <c r="W77" s="3" t="s">
         <v>95</v>
       </c>
@@ -3641,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -3670,7 +3734,7 @@
     </row>
     <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H86">
         <v>5000</v>
@@ -3681,7 +3745,7 @@
     </row>
     <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H87">
         <v>5000</v>
@@ -3741,10 +3805,10 @@
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="18"/>
+      <c r="D98" s="20"/>
       <c r="F98" s="1" t="s">
         <v>124</v>
       </c>
@@ -3760,10 +3824,10 @@
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="20"/>
       <c r="F100" t="s">
         <v>30</v>
       </c>
@@ -3774,13 +3838,13 @@
         <v>127</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="M100" t="s">
         <v>128</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>125</v>
+        <v>311</v>
       </c>
       <c r="R100" t="s">
         <v>30</v>
@@ -3800,10 +3864,10 @@
       <c r="R102" t="s">
         <v>34</v>
       </c>
-      <c r="T102" s="17" t="s">
+      <c r="T102" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="U102" s="18"/>
+      <c r="U102" s="20"/>
       <c r="Z102" t="s">
         <v>138</v>
       </c>
@@ -3862,10 +3926,10 @@
       <c r="R104" t="s">
         <v>35</v>
       </c>
-      <c r="T104" s="17" t="s">
+      <c r="T104" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="U104" s="18"/>
+      <c r="U104" s="20"/>
       <c r="Z104" s="3" t="s">
         <v>95</v>
       </c>
@@ -3933,10 +3997,10 @@
         <v>125</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="L114" s="45" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="L114" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="M114" t="s">
         <v>141</v>
@@ -4000,7 +4064,7 @@
         <v>144</v>
       </c>
       <c r="I118" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J118" t="s">
         <v>145</v>
@@ -4015,12 +4079,12 @@
         <v>106</v>
       </c>
       <c r="R118" t="s">
-        <v>297</v>
-      </c>
-      <c r="T118" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="T118" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="U118" s="18"/>
+      <c r="U118" s="20"/>
       <c r="Z118" s="3" t="s">
         <v>95</v>
       </c>
@@ -4033,21 +4097,24 @@
       <c r="R120" t="s">
         <v>148</v>
       </c>
-      <c r="T120" s="17" t="s">
+      <c r="T120" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="U120" s="18"/>
+      <c r="U120" s="20"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I122" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="R122" t="s">
         <v>26</v>
       </c>
       <c r="T122" s="3" t="s">
         <v>125</v>
+      </c>
+      <c r="U122" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4058,25 +4125,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="T118:U118"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T104:U104"/>
     <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
@@ -4086,6 +4134,25 @@
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="E25:F28"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="319">
   <si>
     <t>NO.</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>Ngày tạo</t>
-  </si>
-  <si>
-    <t>Hết hạn vào</t>
   </si>
   <si>
     <t xml:space="preserve">Sửa </t>
@@ -733,12 +730,6 @@
     <t>chỉ nhân viên của nhà hàng đó mới dc xoá</t>
   </si>
   <si>
-    <t>Get danh sách promotion</t>
-  </si>
-  <si>
-    <t>Get promotion detail</t>
-  </si>
-  <si>
     <t>Add promotion</t>
   </si>
   <si>
@@ -748,9 +739,6 @@
     <t>Delete promotion</t>
   </si>
   <si>
-    <t>api/store/&lt;int:id&gt;/promotion/&lt;int:id&gt;</t>
-  </si>
-  <si>
     <t>api/promotion/add</t>
   </si>
   <si>
@@ -797,9 +785,6 @@
   </si>
   <si>
     <t>api/store/delete/&lt;int:id&gt;</t>
-  </si>
-  <si>
-    <t>Xoá store thì xoá hết nhân viên thuộc nhà hàng đó</t>
   </si>
   <si>
     <t>Get store admin detail</t>
@@ -1018,6 +1003,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Get danh sách promotion by staff</t>
+  </si>
+  <si>
+    <t>api/promotion/store/&lt;int:id&gt;/staff</t>
+  </si>
+  <si>
+    <t>api/promotion/&lt;int:id&gt;/staff</t>
+  </si>
+  <si>
+    <t>Get promotion detail by staff</t>
+  </si>
+  <si>
+    <t>{
+ "id": 4
+ ,"name": "pepsi update 4"
+ ,"cost": 500
+  ,"expired_at": 30
+}</t>
+  </si>
+  <si>
+    <t>{
+ "name": "7 up"
+ ,"cost": 500
+  ,"expired_at": 30
+}</t>
   </si>
 </sst>
 </file>
@@ -1328,40 +1340,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1390,6 +1375,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1412,6 +1400,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1720,8 +1732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1774,10 +1786,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1797,10 +1809,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1820,10 +1832,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1843,10 +1855,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,7 +1866,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1863,13 +1875,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1877,7 +1889,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1886,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1900,7 +1912,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1909,13 +1921,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,22 +1935,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1946,16 +1958,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
-      </c>
-      <c r="C11" t="s">
-        <v>190</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1963,16 +1975,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1980,16 +1992,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" t="s">
         <v>194</v>
-      </c>
-      <c r="C13" t="s">
-        <v>195</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1997,16 +2009,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2014,16 +2026,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2031,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -2040,7 +2052,7 @@
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2048,16 +2060,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,16 +2077,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2082,16 +2094,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2102,13 +2114,13 @@
         <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,16 +2128,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
         <v>210</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2133,16 +2145,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2150,16 +2162,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2167,16 +2179,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2184,19 +2196,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2204,16 +2216,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2221,16 +2233,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,42 +2250,42 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="F28" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,19 +2293,19 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2301,39 +2313,37 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F31" t="s">
-        <v>158</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>231</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>29</v>
-      </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>314</v>
+      </c>
+      <c r="F32" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2341,16 +2351,19 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>315</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,72 +2371,83 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="12"/>
+        <v>234</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>239</v>
-      </c>
-      <c r="G35" s="12"/>
+        <v>235</v>
+      </c>
+      <c r="F35" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>231</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
         <v>24</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2431,19 +2455,19 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2451,22 +2475,22 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D39" t="s">
         <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2474,19 +2498,19 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,22 +2518,22 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C41" t="s">
         <v>243</v>
-      </c>
-      <c r="C41" t="s">
-        <v>247</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,22 +2541,22 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2540,42 +2564,43 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>253</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2583,19 +2608,19 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2603,22 +2628,22 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2626,22 +2651,22 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2649,19 +2674,19 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G48" s="5"/>
     </row>
@@ -2675,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BD124"/>
   <sheetViews>
-    <sheetView topLeftCell="I96" workbookViewId="0">
-      <selection activeCell="M107" sqref="M107"/>
+    <sheetView topLeftCell="G81" workbookViewId="0">
+      <selection activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,10 +2722,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>29</v>
@@ -2721,11 +2746,11 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="I4" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -2734,11 +2759,11 @@
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="I5" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -2770,9 +2795,9 @@
       <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
       <c r="U6" s="5" t="s">
         <v>50</v>
       </c>
@@ -2818,10 +2843,10 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="19"/>
       <c r="Y9" t="s">
         <v>41</v>
       </c>
@@ -2844,10 +2869,10 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="19" t="s">
+      <c r="Z11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="20"/>
+      <c r="AA11" s="19"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -2861,10 +2886,10 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -2878,10 +2903,10 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
@@ -2924,7 +2949,7 @@
     </row>
     <row r="22" spans="2:56" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
@@ -2932,72 +2957,72 @@
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V23" s="1"/>
       <c r="AC23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AJ23" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="AQ23" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AW23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" t="s">
+        <v>150</v>
+      </c>
+      <c r="O24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B25" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="E25" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="H25" t="s">
         <v>152</v>
       </c>
-      <c r="H24" t="s">
-        <v>151</v>
-      </c>
-      <c r="O24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="E25" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="H25" t="s">
-        <v>153</v>
-      </c>
       <c r="K25" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="O25" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="V25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AE25" t="s">
         <v>77</v>
@@ -3006,7 +3031,7 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ25" t="s">
         <v>58</v>
@@ -3019,34 +3044,34 @@
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
       <c r="AX25" s="14" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AY25" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AZ25" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="BB25" t="s">
         <v>30</v>
       </c>
       <c r="BD25" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="41"/>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O26" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG26" t="s">
         <v>66</v>
@@ -3067,23 +3092,23 @@
         <v>58</v>
       </c>
       <c r="BB26" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="41"/>
       <c r="H27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K27" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="40"/>
+        <v>273</v>
+      </c>
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="32"/>
       <c r="AQ27">
         <v>1</v>
       </c>
@@ -3106,16 +3131,16 @@
         <v>63</v>
       </c>
       <c r="BB27" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="26"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="43"/>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>107</v>
@@ -3123,11 +3148,11 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="V28" t="s">
-        <v>178</v>
-      </c>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="42"/>
+        <v>177</v>
+      </c>
+      <c r="AL28" s="33"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="34"/>
       <c r="AQ28">
         <v>2</v>
       </c>
@@ -3143,27 +3168,27 @@
     </row>
     <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="45"/>
-      <c r="BC29" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="BD29" s="28"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="37"/>
+      <c r="BC29" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="BD29" s="17"/>
     </row>
     <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="V30" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="W30" s="27"/>
+      <c r="C30" s="19"/>
+      <c r="V30" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="W30" s="29"/>
       <c r="AT30" t="s">
         <v>56</v>
       </c>
@@ -3173,25 +3198,25 @@
       <c r="AV30" t="s">
         <v>63</v>
       </c>
-      <c r="BC30" s="28"/>
-      <c r="BD30" s="28"/>
+      <c r="BC30" s="17"/>
+      <c r="BD30" s="17"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AD31" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE31" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="AE31" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF31" s="27"/>
+      <c r="AF31" s="29"/>
       <c r="AM31" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -3202,20 +3227,20 @@
       <c r="AV31" s="7">
         <v>43821</v>
       </c>
-      <c r="BC31" s="28"/>
-      <c r="BD31" s="28"/>
+      <c r="BC31" s="17"/>
+      <c r="BD31" s="17"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
       <c r="N32" t="s">
-        <v>293</v>
-      </c>
-      <c r="V32" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="W32" s="27"/>
+        <v>288</v>
+      </c>
+      <c r="V32" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="W32" s="29"/>
       <c r="AT32">
         <v>2</v>
       </c>
@@ -3228,12 +3253,12 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AE33" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3243,23 +3268,23 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AC36" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD36" t="s">
         <v>183</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
@@ -3276,7 +3301,7 @@
         <v>65</v>
       </c>
       <c r="AD37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
@@ -3284,19 +3309,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G38">
         <v>5000</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="AD38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -3304,21 +3329,21 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G39">
         <v>30000</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -3326,59 +3351,59 @@
         <v>69</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="22"/>
       <c r="J49" t="s">
+        <v>153</v>
+      </c>
+      <c r="L49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25"/>
+      <c r="J50" t="s">
         <v>154</v>
       </c>
-      <c r="L49" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34"/>
-      <c r="J50" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="34"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="25"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="35"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="28"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3387,10 +3412,10 @@
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="19"/>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
@@ -3410,10 +3435,10 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="20"/>
+      <c r="D59" s="19"/>
       <c r="U59" t="s">
         <v>93</v>
       </c>
@@ -3427,10 +3452,10 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="20"/>
+      <c r="D61" s="19"/>
       <c r="F61" t="s">
         <v>56</v>
       </c>
@@ -3478,10 +3503,10 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="20"/>
+      <c r="D63" s="19"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -3514,10 +3539,10 @@
       <c r="N64" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="19" t="s">
+      <c r="P64" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="20"/>
+      <c r="Q64" s="19"/>
       <c r="R64" t="s">
         <v>90</v>
       </c>
@@ -3620,10 +3645,10 @@
       <c r="P75" t="s">
         <v>98</v>
       </c>
-      <c r="R75" s="19" t="s">
+      <c r="R75" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="S75" s="20"/>
+      <c r="S75" s="19"/>
       <c r="W75" t="s">
         <v>108</v>
       </c>
@@ -3637,7 +3662,7 @@
         <v>44</v>
       </c>
       <c r="S77" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="W77" s="3" t="s">
         <v>95</v>
@@ -3657,7 +3682,7 @@
         <v>109</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>92</v>
@@ -3690,10 +3715,10 @@
         <v>65</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K84" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="R84" s="5" t="s">
         <v>88</v>
@@ -3705,7 +3730,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -3717,7 +3742,7 @@
         <v>43730</v>
       </c>
       <c r="M85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N85" t="s">
         <v>106</v>
@@ -3729,12 +3754,12 @@
         <v>44</v>
       </c>
       <c r="W85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H86">
         <v>5000</v>
@@ -3745,19 +3770,19 @@
     </row>
     <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H87">
         <v>5000</v>
       </c>
       <c r="P87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R87" s="10" t="s">
         <v>44</v>
       </c>
       <c r="T87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="W87" s="3" t="s">
         <v>95</v>
@@ -3774,7 +3799,7 @@
     <row r="89" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G90" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>107</v>
@@ -3788,35 +3813,35 @@
     <row r="92" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
+        <v>117</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" t="s">
         <v>119</v>
-      </c>
-      <c r="K93" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D98" s="20"/>
+      <c r="C98" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="19"/>
       <c r="F98" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N98" s="3" t="s">
         <v>104</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="X98" s="1" t="s">
         <v>92</v>
@@ -3824,33 +3849,33 @@
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D100" s="20"/>
+      <c r="C100" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D100" s="19"/>
       <c r="F100" t="s">
         <v>30</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I100" t="s">
+        <v>126</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="M100" t="s">
         <v>127</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="M100" t="s">
-        <v>128</v>
-      </c>
       <c r="N100" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="R100" t="s">
         <v>30</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y100" t="s">
         <v>93</v>
@@ -3859,17 +3884,17 @@
     <row r="101" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R102" t="s">
         <v>34</v>
       </c>
-      <c r="T102" s="19" t="s">
+      <c r="T102" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="U102" s="20"/>
+      <c r="U102" s="19"/>
       <c r="Z102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3880,13 +3905,13 @@
         <v>77</v>
       </c>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J103" t="s">
         <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L103" t="s">
         <v>63</v>
@@ -3900,16 +3925,16 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
+        <v>129</v>
+      </c>
+      <c r="H104" t="s">
         <v>130</v>
       </c>
-      <c r="H104" t="s">
+      <c r="J104" t="s">
         <v>131</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>132</v>
-      </c>
-      <c r="K104" t="s">
-        <v>133</v>
       </c>
       <c r="L104" s="7">
         <v>44187</v>
@@ -3926,10 +3951,10 @@
       <c r="R104" t="s">
         <v>35</v>
       </c>
-      <c r="T104" s="19" t="s">
+      <c r="T104" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="U104" s="20"/>
+      <c r="U104" s="19"/>
       <c r="Z104" s="3" t="s">
         <v>95</v>
       </c>
@@ -3940,25 +3965,25 @@
     <row r="105" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R108" t="s">
+        <v>135</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V108" t="s">
         <v>136</v>
-      </c>
-      <c r="T108" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V108" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="109" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3970,13 +3995,13 @@
     <row r="111" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F112" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>104</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X112" s="1" t="s">
         <v>92</v>
@@ -3988,31 +4013,31 @@
         <v>77</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H114" t="s">
         <v>25</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L114" s="16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R114" t="s">
         <v>30</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y114" t="s">
         <v>93</v>
@@ -4021,16 +4046,16 @@
     <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O116" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4038,7 +4063,7 @@
         <v>56</v>
       </c>
       <c r="G117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H117" t="s">
         <v>25</v>
@@ -4047,7 +4072,7 @@
         <v>98</v>
       </c>
       <c r="J117" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K117" t="s">
         <v>110</v>
@@ -4061,13 +4086,13 @@
         <v>100</v>
       </c>
       <c r="H118" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I118" t="s">
+        <v>293</v>
+      </c>
+      <c r="J118" t="s">
         <v>144</v>
-      </c>
-      <c r="I118" t="s">
-        <v>298</v>
-      </c>
-      <c r="J118" t="s">
-        <v>145</v>
       </c>
       <c r="K118" s="7">
         <v>43821</v>
@@ -4079,12 +4104,12 @@
         <v>106</v>
       </c>
       <c r="R118" t="s">
-        <v>295</v>
-      </c>
-      <c r="T118" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="T118" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="U118" s="20"/>
+      <c r="U118" s="19"/>
       <c r="Z118" s="3" t="s">
         <v>95</v>
       </c>
@@ -4095,26 +4120,26 @@
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>148</v>
-      </c>
-      <c r="T120" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="T120" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="U120" s="20"/>
+      <c r="U120" s="19"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I122" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="R122" t="s">
         <v>26</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U122" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4125,6 +4150,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="E25:F28"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="T104:U104"/>
     <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
@@ -4134,25 +4178,6 @@
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T104:U104"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="T118:U118"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="api functions" sheetId="1" r:id="rId1"/>
-    <sheet name="screens" sheetId="2" r:id="rId2"/>
+    <sheet name="screens" sheetId="2" r:id="rId1"/>
+    <sheet name="login api" sheetId="3" r:id="rId2"/>
+    <sheet name="customer api" sheetId="4" r:id="rId3"/>
+    <sheet name="staff admin api" sheetId="5" r:id="rId4"/>
+    <sheet name="supper admin api" sheetId="6" r:id="rId5"/>
+    <sheet name="api functions" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="325">
   <si>
     <t>NO.</t>
   </si>
@@ -312,9 +316,6 @@
   </si>
   <si>
     <t>Quyền</t>
-  </si>
-  <si>
-    <t>Tạo ngày</t>
   </si>
   <si>
     <t>Nguyễn Văn A</t>
@@ -658,30 +659,18 @@
     <t>tên</t>
   </si>
   <si>
-    <t>Detail</t>
-  </si>
-  <si>
     <t>api/staff/&lt;int:id&gt;</t>
   </si>
   <si>
     <t>Staff admin</t>
   </si>
   <si>
-    <t>Get danh sách menu</t>
-  </si>
-  <si>
     <t>api/store/&lt;int: id&gt;/menu-cus</t>
   </si>
   <si>
-    <t>api/store/&lt;int:id&gt;/menu-staff</t>
-  </si>
-  <si>
     <t>Get menu detail</t>
   </si>
   <si>
-    <t>api/store/&lt;int:id&gt;/menu/&lt;int:id&gt;</t>
-  </si>
-  <si>
     <t>Add menu</t>
   </si>
   <si>
@@ -701,15 +690,6 @@
   </si>
   <si>
     <t>Get danh sách staff</t>
-  </si>
-  <si>
-    <t>api/store/&lt;int:id&gt;/staff</t>
-  </si>
-  <si>
-    <t>Get staff detail</t>
-  </si>
-  <si>
-    <t>api/store/&lt;int:id&gt;/staff/&lt;int:id&gt;</t>
   </si>
   <si>
     <t>Add staff</t>
@@ -1029,6 +1009,58 @@
  "name": "7 up"
  ,"cost": 500
   ,"expired_at": 30
+}</t>
+  </si>
+  <si>
+    <t>api/staff/search/?limit=10&amp;offset=0</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>api/menu/staff</t>
+  </si>
+  <si>
+    <t>api/menu/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Get danh sách menu: staff</t>
+  </si>
+  <si>
+    <t>Get danh sách menu: customer</t>
+  </si>
+  <si>
+    <t>api/menu/customer/&lt;int:store_id&gt;</t>
+  </si>
+  <si>
+    <t>Hình ảnh</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Hình ảnh:</t>
+  </si>
+  <si>
+    <t>Brower</t>
+  </si>
+  <si>
+    <t>[review]</t>
+  </si>
+  <si>
+    <t>pass in body  {
+ "name":"7 up update"
+ ,"price":"15000"
+ ,"image":"files/images/12345231234_7upup.jpeg"
+}</t>
+  </si>
+  <si>
+    <t>pass in body  {
+  "id": 3,
+ "name":"7 up update"
+ ,"price":"15000"
+ ,"image":"files/images/12345231234_7upup.jpeg",
+ "active": "false"
 }</t>
   </si>
 </sst>
@@ -1319,7 +1351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1338,7 +1370,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1730,978 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C21" t="s">
-        <v>210</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C22" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" t="s">
-        <v>219</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" t="s">
-        <v>221</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>209</v>
-      </c>
-      <c r="C31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>229</v>
-      </c>
-      <c r="F31" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" t="s">
-        <v>313</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>314</v>
-      </c>
-      <c r="F32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" t="s">
-        <v>316</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" t="s">
-        <v>315</v>
-      </c>
-      <c r="F33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>236</v>
-      </c>
-      <c r="F36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>303</v>
-      </c>
-      <c r="F38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" t="s">
-        <v>307</v>
-      </c>
-      <c r="F39" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C40" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" t="s">
-        <v>246</v>
-      </c>
-      <c r="F40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>239</v>
-      </c>
-      <c r="C41" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>247</v>
-      </c>
-      <c r="F41" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" t="s">
-        <v>244</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" t="s">
-        <v>245</v>
-      </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>249</v>
-      </c>
-      <c r="F43" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" t="s">
-        <v>294</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>304</v>
-      </c>
-      <c r="F44" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>239</v>
-      </c>
-      <c r="C46" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>299</v>
-      </c>
-      <c r="F46" t="s">
-        <v>157</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>300</v>
-      </c>
-      <c r="F47" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" t="s">
-        <v>239</v>
-      </c>
-      <c r="C48" t="s">
-        <v>253</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" t="s">
-        <v>301</v>
-      </c>
-      <c r="F48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BD124"/>
   <sheetViews>
-    <sheetView topLeftCell="G81" workbookViewId="0">
-      <selection activeCell="S93" sqref="S93"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,10 +1785,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>29</v>
@@ -2746,11 +1809,11 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="44" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
+      <c r="I4" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -2759,11 +1822,11 @@
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="45" t="s">
-        <v>256</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+      <c r="I5" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -2795,9 +1858,9 @@
       <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
       <c r="U6" s="5" t="s">
         <v>50</v>
       </c>
@@ -2843,10 +1906,10 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="18"/>
       <c r="Y9" t="s">
         <v>41</v>
       </c>
@@ -2869,10 +1932,10 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="18" t="s">
+      <c r="Z11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="19"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -2886,10 +1949,10 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="18" t="s">
+      <c r="P13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="19"/>
+      <c r="Q13" s="18"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -2903,10 +1966,10 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="19"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
@@ -2949,7 +2012,7 @@
     </row>
     <row r="22" spans="2:56" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
@@ -2957,72 +2020,72 @@
         <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V23" s="1"/>
       <c r="AC23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ23" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="AQ23" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
+      <c r="B25" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="E25" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="H25" t="s">
         <v>151</v>
       </c>
-      <c r="H24" t="s">
-        <v>150</v>
-      </c>
-      <c r="O24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="E25" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="39"/>
-      <c r="H25" t="s">
-        <v>152</v>
-      </c>
       <c r="K25" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="V25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AE25" t="s">
         <v>77</v>
@@ -3031,7 +2094,7 @@
         <v>78</v>
       </c>
       <c r="AK25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ25" t="s">
         <v>58</v>
@@ -3044,34 +2107,34 @@
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
       <c r="AX25" s="14" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="AY25" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AZ25" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="BB25" t="s">
         <v>30</v>
       </c>
       <c r="BD25" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O26" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s">
         <v>66</v>
@@ -3092,23 +2155,23 @@
         <v>58</v>
       </c>
       <c r="BB26" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL27" s="30"/>
-      <c r="AM27" s="31"/>
-      <c r="AN27" s="32"/>
+        <v>265</v>
+      </c>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="31"/>
       <c r="AQ27">
         <v>1</v>
       </c>
@@ -3131,28 +2194,28 @@
         <v>63</v>
       </c>
       <c r="BB27" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="42"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="V28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="34"/>
+        <v>176</v>
+      </c>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="33"/>
       <c r="AQ28">
         <v>2</v>
       </c>
@@ -3168,27 +2231,27 @@
     </row>
     <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="37"/>
-      <c r="BC29" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="BD29" s="17"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="36"/>
+      <c r="BC29" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="BD29" s="16"/>
     </row>
     <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="V30" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="W30" s="29"/>
+      <c r="C30" s="18"/>
+      <c r="V30" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="W30" s="28"/>
       <c r="AT30" t="s">
         <v>56</v>
       </c>
@@ -3198,25 +2261,25 @@
       <c r="AV30" t="s">
         <v>63</v>
       </c>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="17"/>
+      <c r="BC30" s="16"/>
+      <c r="BD30" s="16"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AD31" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE31" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="AE31" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF31" s="29"/>
+      <c r="AF31" s="28"/>
       <c r="AM31" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -3227,20 +2290,20 @@
       <c r="AV31" s="7">
         <v>43821</v>
       </c>
-      <c r="BC31" s="17"/>
-      <c r="BD31" s="17"/>
+      <c r="BC31" s="16"/>
+      <c r="BD31" s="16"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
-      </c>
-      <c r="V32" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="W32" s="29"/>
+        <v>280</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="W32" s="28"/>
       <c r="AT32">
         <v>2</v>
       </c>
@@ -3253,12 +2316,12 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AE33" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3268,23 +2331,23 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AC36" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD36" t="s">
         <v>182</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
@@ -3295,13 +2358,13 @@
         <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
         <v>65</v>
       </c>
       <c r="AD37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
@@ -3309,19 +2372,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G38">
         <v>5000</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="AD38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -3329,21 +2392,21 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G39">
         <v>30000</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -3351,59 +2414,59 @@
         <v>69</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="22"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
       <c r="J49" t="s">
+        <v>152</v>
+      </c>
+      <c r="L49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="J50" t="s">
         <v>153</v>
       </c>
-      <c r="L49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="25"/>
-      <c r="J50" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3412,13 +2475,16 @@
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="19"/>
+      <c r="D57" s="18"/>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="K57" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="N57" s="1" t="s">
         <v>85</v>
       </c>
@@ -3427,18 +2493,36 @@
       </c>
     </row>
     <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K58" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="P58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="19"/>
+      <c r="D59" s="18"/>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="U59" t="s">
         <v>93</v>
       </c>
@@ -3452,20 +2536,23 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="19"/>
+      <c r="D61" s="18"/>
       <c r="F61" t="s">
         <v>56</v>
       </c>
       <c r="G61" t="s">
+        <v>318</v>
+      </c>
+      <c r="H61" t="s">
         <v>77</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>78</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>79</v>
       </c>
       <c r="P61" s="5" t="s">
@@ -3481,19 +2568,22 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
+        <v>319</v>
+      </c>
+      <c r="H62" t="s">
         <v>80</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>30000</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>81</v>
       </c>
       <c r="K62" t="s">
+        <v>104</v>
+      </c>
+      <c r="L62" t="s">
         <v>105</v>
-      </c>
-      <c r="L62" t="s">
-        <v>106</v>
       </c>
       <c r="N62" t="s">
         <v>86</v>
@@ -3503,27 +2593,30 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="18"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
+        <v>319</v>
+      </c>
+      <c r="H63" t="s">
         <v>82</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>20000</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>83</v>
       </c>
       <c r="K63" t="s">
+        <v>104</v>
+      </c>
+      <c r="L63" t="s">
         <v>105</v>
-      </c>
-      <c r="L63" t="s">
-        <v>106</v>
       </c>
       <c r="P63" s="6" t="s">
         <v>89</v>
@@ -3539,10 +2632,10 @@
       <c r="N64" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="18" t="s">
+      <c r="P64" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="19"/>
+      <c r="Q64" s="18"/>
       <c r="R64" t="s">
         <v>90</v>
       </c>
@@ -3553,21 +2646,37 @@
       </c>
     </row>
     <row r="66" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P66" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>320</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="R66" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P67" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="P68" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P69" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N70" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="71" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
         <v>97</v>
@@ -3583,8 +2692,26 @@
       </c>
     </row>
     <row r="72" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K72" s="3" t="s">
-        <v>104</v>
+      <c r="F72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
@@ -3614,7 +2741,7 @@
         <v>98</v>
       </c>
       <c r="K74" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="R74" s="6" t="s">
         <v>89</v>
@@ -3625,32 +2752,32 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="J75" t="s">
         <v>101</v>
-      </c>
-      <c r="J75" t="s">
-        <v>102</v>
       </c>
       <c r="K75" s="7">
         <v>43821</v>
       </c>
       <c r="M75" t="s">
+        <v>104</v>
+      </c>
+      <c r="N75" t="s">
         <v>105</v>
-      </c>
-      <c r="N75" t="s">
-        <v>106</v>
       </c>
       <c r="P75" t="s">
         <v>98</v>
       </c>
-      <c r="R75" s="18" t="s">
+      <c r="R75" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="S75" s="19"/>
+      <c r="S75" s="18"/>
       <c r="W75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3662,7 +2789,7 @@
         <v>44</v>
       </c>
       <c r="S77" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="W77" s="3" t="s">
         <v>95</v>
@@ -3674,15 +2801,15 @@
     <row r="78" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U81" s="1" t="s">
         <v>92</v>
@@ -3690,7 +2817,7 @@
     </row>
     <row r="82" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K82" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3715,7 +2842,7 @@
         <v>65</v>
       </c>
       <c r="I84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K84" t="s">
         <v>63</v>
@@ -3730,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -3742,10 +2869,10 @@
         <v>43730</v>
       </c>
       <c r="M85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P85" t="s">
         <v>86</v>
@@ -3754,12 +2881,12 @@
         <v>44</v>
       </c>
       <c r="W85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H86">
         <v>5000</v>
@@ -3770,19 +2897,19 @@
     </row>
     <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H87">
         <v>5000</v>
       </c>
       <c r="P87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R87" s="10" t="s">
         <v>44</v>
       </c>
       <c r="T87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W87" s="3" t="s">
         <v>95</v>
@@ -3799,49 +2926,49 @@
     <row r="89" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G90" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K91" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
+        <v>116</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="K93" t="s">
         <v>118</v>
-      </c>
-      <c r="K93" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="96" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G96" s="9"/>
     </row>
     <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" s="19"/>
+      <c r="C98" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="18"/>
       <c r="F98" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X98" s="1" t="s">
         <v>92</v>
@@ -3849,33 +2976,33 @@
     </row>
     <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D100" s="19"/>
+      <c r="C100" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="18"/>
       <c r="F100" t="s">
         <v>30</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I100" t="s">
+        <v>125</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M100" t="s">
         <v>126</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="M100" t="s">
-        <v>127</v>
-      </c>
       <c r="N100" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="R100" t="s">
         <v>30</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y100" t="s">
         <v>93</v>
@@ -3884,17 +3011,17 @@
     <row r="101" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R102" t="s">
         <v>34</v>
       </c>
-      <c r="T102" s="18" t="s">
+      <c r="T102" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U102" s="19"/>
+      <c r="U102" s="18"/>
       <c r="Z102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3905,19 +3032,19 @@
         <v>77</v>
       </c>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J103" t="s">
         <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L103" t="s">
         <v>63</v>
       </c>
       <c r="N103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3925,16 +3052,16 @@
         <v>1</v>
       </c>
       <c r="G104" t="s">
+        <v>128</v>
+      </c>
+      <c r="H104" t="s">
         <v>129</v>
       </c>
-      <c r="H104" t="s">
+      <c r="J104" t="s">
         <v>130</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>131</v>
-      </c>
-      <c r="K104" t="s">
-        <v>132</v>
       </c>
       <c r="L104" s="7">
         <v>44187</v>
@@ -3943,18 +3070,18 @@
         <v>43821</v>
       </c>
       <c r="P104" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q104" t="s">
         <v>105</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>106</v>
       </c>
       <c r="R104" t="s">
         <v>35</v>
       </c>
-      <c r="T104" s="18" t="s">
+      <c r="T104" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U104" s="19"/>
+      <c r="U104" s="18"/>
       <c r="Z104" s="3" t="s">
         <v>95</v>
       </c>
@@ -3965,43 +3092,43 @@
     <row r="105" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="106" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X106" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="108" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R108" t="s">
+        <v>134</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V108" t="s">
         <v>135</v>
-      </c>
-      <c r="T108" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="V108" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="109" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T110" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F112" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X112" s="1" t="s">
         <v>92</v>
@@ -4013,31 +3140,31 @@
         <v>77</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H114" t="s">
         <v>25</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L114" s="16" t="s">
-        <v>292</v>
+        <v>283</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="M114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R114" t="s">
         <v>30</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y114" t="s">
         <v>93</v>
@@ -4046,16 +3173,16 @@
     <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O116" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4063,7 +3190,7 @@
         <v>56</v>
       </c>
       <c r="G117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H117" t="s">
         <v>25</v>
@@ -4072,10 +3199,10 @@
         <v>98</v>
       </c>
       <c r="J117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4083,33 +3210,33 @@
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H118" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I118" t="s">
+        <v>285</v>
+      </c>
+      <c r="J118" t="s">
         <v>143</v>
-      </c>
-      <c r="I118" t="s">
-        <v>293</v>
-      </c>
-      <c r="J118" t="s">
-        <v>144</v>
       </c>
       <c r="K118" s="7">
         <v>43821</v>
       </c>
       <c r="M118" t="s">
+        <v>104</v>
+      </c>
+      <c r="N118" t="s">
         <v>105</v>
       </c>
-      <c r="N118" t="s">
-        <v>106</v>
-      </c>
       <c r="R118" t="s">
-        <v>290</v>
-      </c>
-      <c r="T118" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="T118" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U118" s="19"/>
+      <c r="U118" s="18"/>
       <c r="Z118" s="3" t="s">
         <v>95</v>
       </c>
@@ -4120,32 +3247,32 @@
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>147</v>
-      </c>
-      <c r="T120" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="T120" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U120" s="19"/>
+      <c r="U120" s="18"/>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I122" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="R122" t="s">
         <v>26</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U122" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S124" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4182,4 +3309,2072 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>292</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>207</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>233</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>231</v>
+      </c>
+      <c r="C41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>240</v>
+      </c>
+      <c r="F41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>241</v>
+      </c>
+      <c r="F42" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>290</v>
+      </c>
+      <c r="F44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>291</v>
+      </c>
+      <c r="F45" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="customer api" sheetId="4" r:id="rId3"/>
     <sheet name="staff admin api" sheetId="5" r:id="rId4"/>
     <sheet name="supper admin api" sheetId="6" r:id="rId5"/>
-    <sheet name="api functions" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="344">
   <si>
     <t>NO.</t>
   </si>
@@ -611,39 +610,9 @@
     <t>api/customer/&lt;int:id&gt;/adv</t>
   </si>
   <si>
-    <t>Get danh sách điểm theo nhà hàng</t>
-  </si>
-  <si>
-    <t>api/customer/&lt;int:id&gt;/point</t>
-  </si>
-  <si>
     <t xml:space="preserve">Customer </t>
   </si>
   <si>
-    <t>Get chi tiết điễm theo nhà hàng</t>
-  </si>
-  <si>
-    <t>api/point/&lt;int:id&gt;/detail</t>
-  </si>
-  <si>
-    <t>Get danh sách khuyến mãi của nhà hàng</t>
-  </si>
-  <si>
-    <t>api/store/&lt;int:id&gt;/promotion</t>
-  </si>
-  <si>
-    <t>Get danh sách bàn theo nhà hàng</t>
-  </si>
-  <si>
-    <t>api/store/&lt;int:id&gt;/table</t>
-  </si>
-  <si>
-    <t>Đổi điểm</t>
-  </si>
-  <si>
-    <t>api/customer/&lt;int:id&gt;/trade</t>
-  </si>
-  <si>
     <t>Đặt món</t>
   </si>
   <si>
@@ -665,9 +634,6 @@
     <t>Staff admin</t>
   </si>
   <si>
-    <t>api/store/&lt;int: id&gt;/menu-cus</t>
-  </si>
-  <si>
     <t>Get menu detail</t>
   </si>
   <si>
@@ -707,9 +673,6 @@
     <t>api/staff/delete/&lt;int:id&gt;</t>
   </si>
   <si>
-    <t>chỉ nhân viên của nhà hàng đó mới dc xoá</t>
-  </si>
-  <si>
     <t>Add promotion</t>
   </si>
   <si>
@@ -731,13 +694,7 @@
     <t>Get system config</t>
   </si>
   <si>
-    <t>api/store/&lt;int:id&gt;/config</t>
-  </si>
-  <si>
     <t>Supper admin</t>
-  </si>
-  <si>
-    <t>Update system config</t>
   </si>
   <si>
     <t>Get danh sách store</t>
@@ -938,9 +895,6 @@
 }</t>
   </si>
   <si>
-    <t>api/store/&lt;int:id&gt;/config/update?limit=10&amp;offset=0</t>
-  </si>
-  <si>
     <t>api/admin-store/search-admin/?limit=10&amp;offset=0</t>
   </si>
   <si>
@@ -982,13 +936,7 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Get danh sách promotion by staff</t>
-  </si>
-  <si>
-    <t>api/promotion/store/&lt;int:id&gt;/staff</t>
   </si>
   <si>
     <t>api/promotion/&lt;int:id&gt;/staff</t>
@@ -1025,9 +973,6 @@
   </si>
   <si>
     <t>Get danh sách menu: staff</t>
-  </si>
-  <si>
-    <t>Get danh sách menu: customer</t>
   </si>
   <si>
     <t>api/menu/customer/&lt;int:store_id&gt;</t>
@@ -1062,6 +1007,129 @@
  ,"image":"files/images/12345231234_7upup.jpeg",
  "active": "false"
 }</t>
+  </si>
+  <si>
+    <t>api/promotion/staff</t>
+  </si>
+  <si>
+    <t>* City mặc định là city của k.h, load nhà hàng theo city</t>
+  </si>
+  <si>
+    <t>* Cho phép search trên selected bix nhà hàng</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Còn lại</t>
+  </si>
+  <si>
+    <t>Số lượng còn lại</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Search promotion by customer</t>
+  </si>
+  <si>
+    <t>api/promotion/customer</t>
+  </si>
+  <si>
+    <t>pass in body {
+ "city_id":"1"
+ ,"store_id":"2"
+}</t>
+  </si>
+  <si>
+    <t>api/customer/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Get chi tiết customer</t>
+  </si>
+  <si>
+    <t>Mua promotion</t>
+  </si>
+  <si>
+    <t>api/customer/buy-pmt/&lt;int:pmt_id&gt;</t>
+  </si>
+  <si>
+    <t>Quản lý bàn ăn</t>
+  </si>
+  <si>
+    <t>Bàn ăn</t>
+  </si>
+  <si>
+    <t>Add/edit bàn ăn</t>
+  </si>
+  <si>
+    <t>Bạn có muốn xoá bàn ăn này?</t>
+  </si>
+  <si>
+    <t>Get danh sách bàn ăn</t>
+  </si>
+  <si>
+    <t>api/table/</t>
+  </si>
+  <si>
+    <t>Get bàn ăn detail</t>
+  </si>
+  <si>
+    <t>api/table/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>Thêm bàn ăn</t>
+  </si>
+  <si>
+    <t>api/table/add</t>
+  </si>
+  <si>
+    <t>Sửa bàn ăn</t>
+  </si>
+  <si>
+    <t>api/table/update</t>
+  </si>
+  <si>
+    <t>Xoá bàn ăn</t>
+  </si>
+  <si>
+    <t>api/table/delete/&lt;int:id&gt;</t>
+  </si>
+  <si>
+    <t>{
+ "id": 1,
+ "name": "Bàn 1"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "name": "Bàn 1"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In QR code </t>
+  </si>
+  <si>
+    <t>api/sys-config/detail</t>
+  </si>
+  <si>
+    <t>Add or Update system config</t>
+  </si>
+  <si>
+    <t>api/sys-config/add-update</t>
+  </si>
+  <si>
+    <t>pass in body {
+ "id": null,
+ "code": "expired_point",
+ "value": "70"
+}</t>
+  </si>
+  <si>
+    <t>In QR code</t>
+  </si>
+  <si>
+    <t>bổ sung sau</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1370,6 +1438,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1456,6 +1530,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1761,10 +1838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BD124"/>
+  <dimension ref="B2:BD134"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,6 +1850,7 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="3.140625" customWidth="1"/>
@@ -1788,7 +1866,7 @@
         <v>172</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>29</v>
@@ -1809,11 +1887,11 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="I4" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1822,11 +1900,11 @@
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
+      <c r="I5" s="46" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -1858,9 +1936,9 @@
       <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
       <c r="U6" s="5" t="s">
         <v>50</v>
       </c>
@@ -1906,10 +1984,10 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="20"/>
       <c r="Y9" t="s">
         <v>41</v>
       </c>
@@ -1932,10 +2010,10 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="18"/>
+      <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -1949,10 +2027,10 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -1966,10 +2044,10 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="17" t="s">
+      <c r="P15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
@@ -2010,24 +2088,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>254</v>
-      </c>
-    </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F23" t="s">
-        <v>253</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>22</v>
@@ -2040,46 +2110,49 @@
         <v>175</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="AW23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" t="s">
-        <v>252</v>
-      </c>
       <c r="G24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" t="s">
         <v>150</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>149</v>
       </c>
       <c r="O24" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="E25" s="37" t="s">
+      <c r="C25" s="40"/>
+      <c r="E25" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="H25" t="s">
+      <c r="F25" s="40"/>
+      <c r="G25" t="s">
+        <v>239</v>
+      </c>
+      <c r="I25" t="s">
         <v>151</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="V25" t="s">
         <v>173</v>
@@ -2107,34 +2180,37 @@
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
       <c r="AX25" s="14" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="AY25" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AZ25" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="BB25" t="s">
         <v>30</v>
       </c>
       <c r="BD25" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="39"/>
-      <c r="C26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="H26" t="s">
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" t="s">
+        <v>240</v>
+      </c>
+      <c r="I26" t="s">
         <v>152</v>
       </c>
       <c r="O26" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s">
         <v>66</v>
@@ -2155,23 +2231,23 @@
         <v>58</v>
       </c>
       <c r="BB26" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="39"/>
-      <c r="C27" s="40"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="H27" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="I27" t="s">
         <v>153</v>
       </c>
       <c r="K27" t="s">
-        <v>265</v>
-      </c>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="30"/>
-      <c r="AN27" s="31"/>
+        <v>251</v>
+      </c>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="33"/>
       <c r="AQ27">
         <v>1</v>
       </c>
@@ -2194,16 +2270,16 @@
         <v>63</v>
       </c>
       <c r="BB27" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>106</v>
@@ -2213,9 +2289,9 @@
       <c r="V28" t="s">
         <v>176</v>
       </c>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="33"/>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="35"/>
       <c r="AQ28">
         <v>2</v>
       </c>
@@ -2231,27 +2307,27 @@
     </row>
     <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="36"/>
-      <c r="BC29" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="BD29" s="16"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="38"/>
+      <c r="BC29" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD29" s="18"/>
     </row>
     <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="V30" s="28" t="s">
+      <c r="C30" s="20"/>
+      <c r="V30" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="W30" s="28"/>
+      <c r="W30" s="30"/>
       <c r="AT30" t="s">
         <v>56</v>
       </c>
@@ -2261,23 +2337,23 @@
       <c r="AV30" t="s">
         <v>63</v>
       </c>
-      <c r="BC30" s="16"/>
-      <c r="BD30" s="16"/>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="AD31" t="s">
         <v>178</v>
       </c>
-      <c r="AE31" s="28" t="s">
+      <c r="AE31" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="AF31" s="28"/>
+      <c r="AF31" s="30"/>
       <c r="AM31" s="14" t="s">
         <v>186</v>
       </c>
@@ -2290,20 +2366,20 @@
       <c r="AV31" s="7">
         <v>43821</v>
       </c>
-      <c r="BC31" s="16"/>
-      <c r="BD31" s="16"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="18"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>55</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
-      </c>
-      <c r="V32" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="V32" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="W32" s="28"/>
+      <c r="W32" s="30"/>
       <c r="AT32">
         <v>2</v>
       </c>
@@ -2321,7 +2397,7 @@
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -2331,15 +2407,19 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>282</v>
+      </c>
       <c r="D35" t="s">
-        <v>258</v>
-      </c>
-      <c r="E35" s="14"/>
+        <v>244</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>282</v>
+      </c>
       <c r="G35" s="14" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
@@ -2363,6 +2443,9 @@
       <c r="G37" t="s">
         <v>65</v>
       </c>
+      <c r="H37" t="s">
+        <v>312</v>
+      </c>
       <c r="AD37" t="s">
         <v>183</v>
       </c>
@@ -2372,16 +2455,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G38">
         <v>5000</v>
       </c>
-      <c r="I38" s="14" t="s">
-        <v>260</v>
+      <c r="H38">
+        <v>31</v>
+      </c>
+      <c r="J38" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="AD38" t="s">
         <v>184</v>
@@ -2392,21 +2478,34 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="G39">
         <v>30000</v>
       </c>
-      <c r="I39" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>281</v>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -2414,59 +2513,59 @@
         <v>69</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="J48" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
       <c r="J49" t="s">
         <v>152</v>
       </c>
       <c r="L49" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
       <c r="J50" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="22"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="25"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -2475,10 +2574,10 @@
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="18"/>
+      <c r="D57" s="20"/>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
@@ -2498,10 +2597,10 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="18"/>
+      <c r="D59" s="20"/>
       <c r="F59" t="s">
         <v>77</v>
       </c>
@@ -2515,10 +2614,10 @@
         <v>123</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>124</v>
@@ -2536,15 +2635,15 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="18"/>
+      <c r="D61" s="20"/>
       <c r="F61" t="s">
         <v>56</v>
       </c>
       <c r="G61" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="H61" t="s">
         <v>77</v>
@@ -2568,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H62" t="s">
         <v>80</v>
@@ -2593,15 +2692,15 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="18"/>
+      <c r="C63" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" s="20"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="H63" t="s">
         <v>82</v>
@@ -2632,34 +2731,42 @@
       <c r="N64" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="17" t="s">
+      <c r="P64" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="18"/>
+      <c r="Q64" s="20"/>
       <c r="R64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="20"/>
       <c r="R65" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="P66" s="3"/>
       <c r="R66" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D67" s="20"/>
       <c r="P67" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="68" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>84</v>
       </c>
@@ -2667,17 +2774,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P69" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N70" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
         <v>97</v>
       </c>
@@ -2691,7 +2798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
         <v>77</v>
       </c>
@@ -2705,10 +2812,10 @@
         <v>123</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>124</v>
@@ -2716,7 +2823,7 @@
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
     </row>
-    <row r="73" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
         <v>27</v>
       </c>
@@ -2727,7 +2834,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
         <v>56</v>
       </c>
@@ -2747,7 +2854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F75">
         <v>1</v>
       </c>
@@ -2772,16 +2879,16 @@
       <c r="P75" t="s">
         <v>98</v>
       </c>
-      <c r="R75" s="17" t="s">
+      <c r="R75" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="S75" s="18"/>
+      <c r="S75" s="20"/>
       <c r="W75" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
         <v>26</v>
       </c>
@@ -2789,7 +2896,7 @@
         <v>44</v>
       </c>
       <c r="S77" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="W77" s="3" t="s">
         <v>95</v>
@@ -2798,13 +2905,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G81" s="1" t="s">
         <v>108</v>
       </c>
@@ -2815,12 +2922,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K82" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P83" t="s">
         <v>30</v>
       </c>
@@ -2831,7 +2938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
         <v>56</v>
       </c>
@@ -2844,20 +2951,26 @@
       <c r="I84" t="s">
         <v>109</v>
       </c>
+      <c r="J84" t="s">
+        <v>63</v>
+      </c>
       <c r="K84" t="s">
-        <v>63</v>
+        <v>310</v>
+      </c>
+      <c r="L84" t="s">
+        <v>311</v>
       </c>
       <c r="R84" s="5" t="s">
         <v>88</v>
       </c>
       <c r="S84" s="5"/>
     </row>
-    <row r="85" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -2865,7 +2978,7 @@
       <c r="I85" s="7">
         <v>43821</v>
       </c>
-      <c r="K85" s="7">
+      <c r="J85" s="7">
         <v>43730</v>
       </c>
       <c r="M85" t="s">
@@ -2884,9 +2997,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="H86">
         <v>5000</v>
@@ -2895,9 +3008,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="H87">
         <v>5000</v>
@@ -2918,393 +3031,481 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R88" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G90" s="1" t="s">
+    <row r="89" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P89" t="s">
+        <v>310</v>
+      </c>
+      <c r="R89" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R91" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I93" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>56</v>
+      </c>
+      <c r="G94" t="s">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s">
+        <v>77</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>104</v>
+      </c>
+      <c r="I95" t="s">
+        <v>105</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P96" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="97" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L97" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>267</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q90" s="3" t="s">
+      <c r="N102" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K103" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="91" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K91" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G93" t="s">
+      <c r="N103" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="O103" s="47"/>
+      <c r="P103" s="47"/>
+    </row>
+    <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N104" s="47"/>
+      <c r="O104" s="47"/>
+      <c r="P104" s="47"/>
+    </row>
+    <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
         <v>116</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K105" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="96" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="47"/>
+    </row>
+    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="N106" s="47"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="47"/>
+    </row>
+    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="17" t="s">
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="F98" s="1" t="s">
+      <c r="D110" s="20"/>
+      <c r="F110" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="N98" s="3" t="s">
+      <c r="N110" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="R98" s="1" t="s">
+      <c r="R110" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X98" s="1" t="s">
+      <c r="X110" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="17" t="s">
+    <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D100" s="18"/>
-      <c r="F100" t="s">
+      <c r="D112" s="20"/>
+      <c r="F112" t="s">
         <v>30</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I112" t="s">
         <v>125</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M100" t="s">
+      <c r="K112" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="M112" t="s">
         <v>126</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="R100" t="s">
+      <c r="N112" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="R112" t="s">
         <v>30</v>
       </c>
-      <c r="T100" s="3" t="s">
+      <c r="T112" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Y100" t="s">
+      <c r="Y112" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N102" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R102" t="s">
-        <v>34</v>
-      </c>
-      <c r="T102" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="U102" s="18"/>
-      <c r="Z102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F103" t="s">
-        <v>56</v>
-      </c>
-      <c r="G103" t="s">
-        <v>77</v>
-      </c>
-      <c r="H103" t="s">
-        <v>125</v>
-      </c>
-      <c r="J103" t="s">
-        <v>33</v>
-      </c>
-      <c r="K103" t="s">
-        <v>127</v>
-      </c>
-      <c r="L103" t="s">
-        <v>63</v>
-      </c>
-      <c r="N103" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="s">
-        <v>128</v>
-      </c>
-      <c r="H104" t="s">
-        <v>129</v>
-      </c>
-      <c r="J104" t="s">
-        <v>130</v>
-      </c>
-      <c r="K104" t="s">
-        <v>131</v>
-      </c>
-      <c r="L104" s="7">
-        <v>44187</v>
-      </c>
-      <c r="N104" s="7">
-        <v>43821</v>
-      </c>
-      <c r="P104" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>105</v>
-      </c>
-      <c r="R104" t="s">
-        <v>35</v>
-      </c>
-      <c r="T104" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="U104" s="18"/>
-      <c r="Z104" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB104" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="105" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R106" t="s">
-        <v>133</v>
-      </c>
-      <c r="T106" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="X106" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R108" t="s">
-        <v>134</v>
-      </c>
-      <c r="T108" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="V108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T110" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="3:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F112" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="O112" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="X112" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F114" t="s">
+      <c r="N114" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R114" t="s">
+        <v>34</v>
+      </c>
+      <c r="T114" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U114" s="17"/>
+      <c r="Z114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" t="s">
         <v>77</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="H115" t="s">
+        <v>125</v>
+      </c>
+      <c r="J115" t="s">
+        <v>33</v>
+      </c>
+      <c r="K115" t="s">
+        <v>127</v>
+      </c>
+      <c r="L115" t="s">
+        <v>63</v>
+      </c>
+      <c r="N115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>128</v>
+      </c>
+      <c r="H116" t="s">
+        <v>129</v>
+      </c>
+      <c r="J116" t="s">
+        <v>130</v>
+      </c>
+      <c r="K116" t="s">
+        <v>131</v>
+      </c>
+      <c r="L116" s="7">
+        <v>44187</v>
+      </c>
+      <c r="N116" s="7">
+        <v>43821</v>
+      </c>
+      <c r="P116" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>105</v>
+      </c>
+      <c r="R116" t="s">
+        <v>35</v>
+      </c>
+      <c r="T116" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U116" s="17"/>
+      <c r="Z116" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB116" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R118" t="s">
+        <v>133</v>
+      </c>
+      <c r="T118" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H114" t="s">
-        <v>25</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="M114" t="s">
-        <v>139</v>
-      </c>
-      <c r="O114" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="R114" t="s">
-        <v>30</v>
-      </c>
-      <c r="T114" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y114" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O116" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R116" t="s">
-        <v>145</v>
-      </c>
-      <c r="T116" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F117" t="s">
-        <v>56</v>
-      </c>
-      <c r="G117" t="s">
-        <v>140</v>
-      </c>
-      <c r="H117" t="s">
-        <v>25</v>
-      </c>
-      <c r="I117" t="s">
-        <v>98</v>
-      </c>
-      <c r="J117" t="s">
-        <v>141</v>
-      </c>
-      <c r="K117" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" t="s">
-        <v>99</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I118" t="s">
-        <v>285</v>
-      </c>
-      <c r="J118" t="s">
-        <v>143</v>
-      </c>
-      <c r="K118" s="7">
-        <v>43821</v>
-      </c>
-      <c r="M118" t="s">
-        <v>104</v>
-      </c>
-      <c r="N118" t="s">
-        <v>105</v>
-      </c>
-      <c r="R118" t="s">
-        <v>282</v>
-      </c>
-      <c r="T118" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="U118" s="18"/>
-      <c r="Z118" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB118" s="3" t="s">
-        <v>96</v>
+      <c r="X118" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>146</v>
-      </c>
-      <c r="T120" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="U120" s="18"/>
+        <v>134</v>
+      </c>
+      <c r="T120" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V120" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I122" t="s">
-        <v>281</v>
-      </c>
-      <c r="R122" t="s">
-        <v>26</v>
-      </c>
       <c r="T122" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="U122" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="S124" s="3" t="s">
-        <v>106</v>
+      <c r="F124" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="X124" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
+        <v>77</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H126" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M126" t="s">
+        <v>139</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R126" t="s">
+        <v>30</v>
+      </c>
+      <c r="T126" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y126" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O128" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R128" t="s">
+        <v>145</v>
+      </c>
+      <c r="T128" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>56</v>
+      </c>
+      <c r="G129" t="s">
+        <v>140</v>
+      </c>
+      <c r="H129" t="s">
+        <v>25</v>
+      </c>
+      <c r="I129" t="s">
+        <v>98</v>
+      </c>
+      <c r="J129" t="s">
+        <v>141</v>
+      </c>
+      <c r="K129" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>99</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I130" t="s">
+        <v>271</v>
+      </c>
+      <c r="J130" t="s">
+        <v>143</v>
+      </c>
+      <c r="K130" s="7">
+        <v>43821</v>
+      </c>
+      <c r="M130" t="s">
+        <v>104</v>
+      </c>
+      <c r="N130" t="s">
+        <v>105</v>
+      </c>
+      <c r="R130" t="s">
+        <v>268</v>
+      </c>
+      <c r="T130" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U130" s="17"/>
+      <c r="Z130" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB130" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R132" t="s">
+        <v>146</v>
+      </c>
+      <c r="T132" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U132" s="17"/>
+    </row>
+    <row r="133" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>267</v>
+      </c>
+      <c r="R134" t="s">
+        <v>26</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="U134" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="T118:U118"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C112:D112"/>
     <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B25:C28"/>
     <mergeCell ref="E25:F28"/>
     <mergeCell ref="V30:W30"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="T104:U104"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N103:P106"/>
     <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C65:D65"/>
     <mergeCell ref="C49:H52"/>
     <mergeCell ref="V32:W32"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="P64:Q64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3316,7 +3517,7 @@
   <dimension ref="A2:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3417,7 +3618,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3539,10 +3740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,8 +3795,11 @@
       <c r="E3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3603,47 +3807,57 @@
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>314</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3654,13 +3868,16 @@
         <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>299</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,16 +3888,16 @@
         <v>187</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3688,67 +3905,13 @@
         <v>187</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3758,10 +3921,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3800,19 +3963,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
         <v>156</v>
@@ -3820,19 +3983,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
         <v>156</v>
@@ -3840,65 +4003,65 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
         <v>156</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="F7" t="s">
         <v>156</v>
@@ -3907,36 +4070,36 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F8" t="s">
         <v>156</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -3952,40 +4115,43 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" t="s">
         <v>207</v>
-      </c>
-      <c r="C10" t="s">
-        <v>218</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
         <v>156</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
         <v>156</v>
@@ -3993,19 +4159,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
         <v>156</v>
@@ -4013,17 +4179,20 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F13" t="s">
         <v>156</v>
@@ -4031,19 +4200,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C14" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="F14" t="s">
         <v>156</v>
@@ -4051,65 +4220,65 @@
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
         <v>156</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>156</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
         <v>156</v>
@@ -4118,39 +4287,151 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="F19" t="s">
-        <v>304</v>
+        <v>156</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>329</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>331</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4163,7 +4444,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4202,42 +4483,42 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
         <v>156</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
         <v>156</v>
@@ -4245,65 +4526,65 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
         <v>156</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
         <v>156</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
         <v>156</v>
@@ -4312,62 +4593,62 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
         <v>156</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F10" t="s">
         <v>156</v>
@@ -4378,42 +4659,42 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
         <v>156</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
         <v>231</v>
-      </c>
-      <c r="C12" t="s">
-        <v>245</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
         <v>156</v>
@@ -4423,958 +4704,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G47"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" t="s">
-        <v>315</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>311</v>
-      </c>
-      <c r="F26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" t="s">
-        <v>218</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" t="s">
-        <v>156</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" t="s">
-        <v>289</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>207</v>
-      </c>
-      <c r="C30" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>221</v>
-      </c>
-      <c r="F30" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C31" t="s">
-        <v>305</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>306</v>
-      </c>
-      <c r="F31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" t="s">
-        <v>308</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>307</v>
-      </c>
-      <c r="F32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C33" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" t="s">
-        <v>156</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C37" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>295</v>
-      </c>
-      <c r="F37" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" t="s">
-        <v>233</v>
-      </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" t="s">
-        <v>299</v>
-      </c>
-      <c r="F38" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" t="s">
-        <v>238</v>
-      </c>
-      <c r="F39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" t="s">
-        <v>235</v>
-      </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" t="s">
-        <v>156</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>231</v>
-      </c>
-      <c r="C41" t="s">
-        <v>236</v>
-      </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>240</v>
-      </c>
-      <c r="F41" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>241</v>
-      </c>
-      <c r="F42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E43" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" t="s">
-        <v>156</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" t="s">
-        <v>290</v>
-      </c>
-      <c r="F44" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>291</v>
-      </c>
-      <c r="F45" t="s">
-        <v>156</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>231</v>
-      </c>
-      <c r="C46" t="s">
-        <v>244</v>
-      </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>293</v>
-      </c>
-      <c r="F47" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>
--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -945,21 +945,6 @@
     <t>Get promotion detail by staff</t>
   </si>
   <si>
-    <t>{
- "id": 4
- ,"name": "pepsi update 4"
- ,"cost": 500
-  ,"expired_at": 30
-}</t>
-  </si>
-  <si>
-    <t>{
- "name": "7 up"
- ,"cost": 500
-  ,"expired_at": 30
-}</t>
-  </si>
-  <si>
     <t>api/staff/search/?limit=10&amp;offset=0</t>
   </si>
   <si>
@@ -1130,6 +1115,23 @@
   </si>
   <si>
     <t>bổ sung sau</t>
+  </si>
+  <si>
+    <t>{
+ "name": "7 up"
+ ,"cost": 500
+  ,"expired_on": 30
+ , "quantity": 10
+}</t>
+  </si>
+  <si>
+    <t>{
+ "id": 4
+ ,"name": "pepsi update 4"
+ ,"cost": 500
+  ,"expired_at": 30
+ , "quantity": 10
+}</t>
   </si>
 </sst>
 </file>
@@ -1445,13 +1447,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1480,9 +1512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,33 +1535,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1840,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -1887,11 +1889,11 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -1900,11 +1902,11 @@
       <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -1936,9 +1938,9 @@
       <c r="E6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
       <c r="U6" s="5" t="s">
         <v>50</v>
       </c>
@@ -1984,10 +1986,10 @@
       <c r="M9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="21"/>
       <c r="Y9" t="s">
         <v>41</v>
       </c>
@@ -2010,10 +2012,10 @@
       <c r="P11" t="s">
         <v>48</v>
       </c>
-      <c r="Z11" s="19" t="s">
+      <c r="Z11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AA11" s="20"/>
+      <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
@@ -2027,10 +2029,10 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="21"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -2044,10 +2046,10 @@
       <c r="M15" t="s">
         <v>35</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
@@ -2134,14 +2136,14 @@
       </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="E25" s="39" t="s">
+      <c r="C25" s="23"/>
+      <c r="E25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="23"/>
       <c r="G25" t="s">
         <v>239</v>
       </c>
@@ -2196,13 +2198,13 @@
       </c>
     </row>
     <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
       <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
       <c r="G26" t="s">
         <v>240</v>
       </c>
@@ -2235,19 +2237,19 @@
       </c>
     </row>
     <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
       <c r="I27" t="s">
         <v>153</v>
       </c>
       <c r="K27" t="s">
         <v>251</v>
       </c>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="33"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="42"/>
       <c r="AQ27">
         <v>1</v>
       </c>
@@ -2274,10 +2276,10 @@
       </c>
     </row>
     <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
       <c r="K28" t="s">
         <v>252</v>
       </c>
@@ -2289,9 +2291,9 @@
       <c r="V28" t="s">
         <v>176</v>
       </c>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="35"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="35"/>
+      <c r="AN28" s="44"/>
       <c r="AQ28">
         <v>2</v>
       </c>
@@ -2311,23 +2313,23 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="38"/>
-      <c r="BC29" s="18" t="s">
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="47"/>
+      <c r="BC29" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="BD29" s="18"/>
+      <c r="BD29" s="30"/>
     </row>
     <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="V30" s="30" t="s">
+      <c r="C30" s="21"/>
+      <c r="V30" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="W30" s="30"/>
+      <c r="W30" s="28"/>
       <c r="AT30" t="s">
         <v>56</v>
       </c>
@@ -2337,8 +2339,8 @@
       <c r="AV30" t="s">
         <v>63</v>
       </c>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
+      <c r="BC30" s="30"/>
+      <c r="BD30" s="30"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
@@ -2350,10 +2352,10 @@
       <c r="AD31" t="s">
         <v>178</v>
       </c>
-      <c r="AE31" s="30" t="s">
+      <c r="AE31" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="AF31" s="30"/>
+      <c r="AF31" s="28"/>
       <c r="AM31" s="14" t="s">
         <v>186</v>
       </c>
@@ -2366,8 +2368,8 @@
       <c r="AV31" s="7">
         <v>43821</v>
       </c>
-      <c r="BC31" s="18"/>
-      <c r="BD31" s="18"/>
+      <c r="BC31" s="30"/>
+      <c r="BD31" s="30"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -2376,10 +2378,10 @@
       <c r="N32" t="s">
         <v>266</v>
       </c>
-      <c r="V32" s="30" t="s">
+      <c r="V32" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="W32" s="30"/>
+      <c r="W32" s="28"/>
       <c r="AT32">
         <v>2</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>65</v>
       </c>
       <c r="H37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AD37" t="s">
         <v>183</v>
@@ -2500,12 +2502,12 @@
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
@@ -2525,14 +2527,14 @@
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="33"/>
       <c r="J49" t="s">
         <v>152</v>
       </c>
@@ -2541,31 +2543,31 @@
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
       <c r="J50" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -2574,10 +2576,10 @@
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="21"/>
       <c r="G57" s="1" t="s">
         <v>76</v>
       </c>
@@ -2597,10 +2599,10 @@
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="20"/>
+      <c r="D59" s="21"/>
       <c r="F59" t="s">
         <v>77</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>123</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>270</v>
@@ -2635,15 +2637,15 @@
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D61" s="20"/>
+      <c r="D61" s="21"/>
       <c r="F61" t="s">
         <v>56</v>
       </c>
       <c r="G61" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H61" t="s">
         <v>77</v>
@@ -2667,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H62" t="s">
         <v>80</v>
@@ -2692,15 +2694,15 @@
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="D63" s="20"/>
+      <c r="C63" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D63" s="21"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H63" t="s">
         <v>82</v>
@@ -2731,39 +2733,39 @@
       <c r="N64" t="s">
         <v>87</v>
       </c>
-      <c r="P64" s="19" t="s">
+      <c r="P64" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q64" s="20"/>
+      <c r="Q64" s="21"/>
       <c r="R64" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="20"/>
+      <c r="D65" s="21"/>
       <c r="R65" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3"/>
       <c r="R66" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" s="20"/>
+      <c r="C67" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" s="21"/>
       <c r="P67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2879,10 +2881,10 @@
       <c r="P75" t="s">
         <v>98</v>
       </c>
-      <c r="R75" s="19" t="s">
+      <c r="R75" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="S75" s="20"/>
+      <c r="S75" s="21"/>
       <c r="W75" t="s">
         <v>107</v>
       </c>
@@ -2955,10 +2957,10 @@
         <v>63</v>
       </c>
       <c r="K84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="R84" s="5" t="s">
         <v>88</v>
@@ -3038,7 +3040,7 @@
     </row>
     <row r="89" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P89" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R89" s="10" t="s">
         <v>44</v>
@@ -3052,10 +3054,10 @@
     </row>
     <row r="92" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G92" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>92</v>
@@ -3096,7 +3098,7 @@
     </row>
     <row r="96" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P96" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="97" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3120,23 +3122,23 @@
         <v>115</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K103" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N103" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="O103" s="47"/>
-      <c r="P103" s="47"/>
+      <c r="N103" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="O103" s="29"/>
+      <c r="P103" s="29"/>
     </row>
     <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="47"/>
-      <c r="O104" s="47"/>
-      <c r="P104" s="47"/>
+      <c r="N104" s="29"/>
+      <c r="O104" s="29"/>
+      <c r="P104" s="29"/>
     </row>
     <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
@@ -3148,14 +3150,14 @@
       <c r="K105" t="s">
         <v>118</v>
       </c>
-      <c r="N105" s="47"/>
-      <c r="O105" s="47"/>
-      <c r="P105" s="47"/>
+      <c r="N105" s="29"/>
+      <c r="O105" s="29"/>
+      <c r="P105" s="29"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N106" s="47"/>
-      <c r="O106" s="47"/>
-      <c r="P106" s="47"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -3165,10 +3167,10 @@
     </row>
     <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D110" s="20"/>
+      <c r="D110" s="21"/>
       <c r="F110" s="1" t="s">
         <v>122</v>
       </c>
@@ -3184,10 +3186,10 @@
     </row>
     <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="19" t="s">
+      <c r="C112" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D112" s="20"/>
+      <c r="D112" s="21"/>
       <c r="F112" t="s">
         <v>30</v>
       </c>
@@ -3479,22 +3481,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N103:P106"/>
     <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
@@ -3506,6 +3492,22 @@
     <mergeCell ref="AL27:AN29"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="E25:F28"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N103:P106"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3796,7 +3798,7 @@
         <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3807,19 +3809,19 @@
         <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F4" t="s">
         <v>156</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3830,13 +3832,13 @@
         <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -3848,13 +3850,13 @@
         <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" t="s">
         <v>156</v>
@@ -3874,7 +3876,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F7" t="s">
         <v>156</v>
@@ -3924,7 +3926,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3969,13 +3971,13 @@
         <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F3" t="s">
         <v>156</v>
@@ -3995,7 +3997,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
         <v>156</v>
@@ -4021,7 +4023,7 @@
         <v>156</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4044,7 +4046,7 @@
         <v>156</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,7 +4084,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F8" t="s">
         <v>156</v>
@@ -4192,7 +4194,7 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F13" t="s">
         <v>156</v>
@@ -4238,7 +4240,7 @@
         <v>156</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4261,7 +4263,7 @@
         <v>156</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4299,7 +4301,7 @@
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F18" t="s">
         <v>156</v>
@@ -4313,19 +4315,19 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F19" t="s">
         <v>156</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4336,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="C20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
         <v>156</v>
@@ -4356,13 +4358,13 @@
         <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F21" t="s">
         <v>156</v>
@@ -4376,19 +4378,19 @@
         <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F22" t="s">
         <v>156</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4399,19 +4401,19 @@
         <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F23" t="s">
         <v>156</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4422,13 +4424,13 @@
         <v>197</v>
       </c>
       <c r="C24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F24" t="s">
         <v>156</v>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="355">
   <si>
     <t>NO.</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>Mật khẩu:</t>
-  </si>
-  <si>
-    <t>Số điện thoại:</t>
-  </si>
-  <si>
     <t>logo (image)</t>
   </si>
   <si>
@@ -113,39 +107,15 @@
     <t>Tên:</t>
   </si>
   <si>
-    <t>Giới tính:</t>
-  </si>
-  <si>
-    <t>Ngày tháng năm sinh:</t>
-  </si>
-  <si>
     <t>Quận</t>
   </si>
   <si>
-    <t>Tỉnh/Thành phố:</t>
-  </si>
-  <si>
-    <t>Quận/Huyện:</t>
-  </si>
-  <si>
-    <t>Nhắc lại mật khẩu:</t>
-  </si>
-  <si>
     <t>Kích hoạt tài khoản</t>
   </si>
   <si>
-    <t>Code:</t>
-  </si>
-  <si>
     <t>Xác nhận</t>
   </si>
   <si>
-    <t>Mật khẩu mới:</t>
-  </si>
-  <si>
-    <t>Nhắc lại mật khẩu mới:</t>
-  </si>
-  <si>
     <t>Cập nhật mật khẩu</t>
   </si>
   <si>
@@ -278,12 +248,6 @@
     <t>Add/edit menu</t>
   </si>
   <si>
-    <t>Giá:</t>
-  </si>
-  <si>
-    <t>Trạng thái:</t>
-  </si>
-  <si>
     <t>Tên đã tồn tại</t>
   </si>
   <si>
@@ -356,9 +320,6 @@
     <t>Add/edit khuyến mãi</t>
   </si>
   <si>
-    <t xml:space="preserve">Hết hạn sau: </t>
-  </si>
-  <si>
     <t>(Ngày)</t>
   </si>
   <si>
@@ -368,9 +329,6 @@
     <t>Cấu hinh</t>
   </si>
   <si>
-    <t xml:space="preserve">Số điểm sẽ hết hạn sau: </t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -419,12 +377,6 @@
     <t>Add/edit store</t>
   </si>
   <si>
-    <t>Địa chỉ:</t>
-  </si>
-  <si>
-    <t>Hết hạn sau:</t>
-  </si>
-  <si>
     <t>(tháng)</t>
   </si>
   <si>
@@ -453,12 +405,6 @@
   </si>
   <si>
     <t>Add/edit store admin</t>
-  </si>
-  <si>
-    <t>Số điện thoaị:</t>
-  </si>
-  <si>
-    <t>Cửu hàng:</t>
   </si>
   <si>
     <t>Bạn có muốn xoá store admin này?</t>
@@ -844,9 +790,6 @@
     <t>&lt;&lt; 1 2 &gt;&gt;</t>
   </si>
   <si>
-    <t>Quyền:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quyền </t>
   </si>
   <si>
@@ -969,9 +912,6 @@
     <t>[]</t>
   </si>
   <si>
-    <t>Hình ảnh:</t>
-  </si>
-  <si>
     <t>Brower</t>
   </si>
   <si>
@@ -1132,6 +1072,135 @@
   ,"expired_at": 30
  , "quantity": 10
 }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Số điện thoại: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Mật khẩu: *</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mật khẩu: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên: *</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tên: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Số điện thoại: *</t>
+  </si>
+  <si>
+    <t>Giới tính: *</t>
+  </si>
+  <si>
+    <t>Ngày tháng năm sinh: *</t>
+  </si>
+  <si>
+    <t>Tỉnh/Thành phố: *</t>
+  </si>
+  <si>
+    <t>Quận/Huyện: *</t>
+  </si>
+  <si>
+    <t>Nhắc lại mật khẩu: *</t>
+  </si>
+  <si>
+    <t>Code: *</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới: *</t>
+  </si>
+  <si>
+    <t>Nhắc lại mật khẩu mới: *</t>
+  </si>
+  <si>
+    <t>Tên:*</t>
+  </si>
+  <si>
+    <t>Giá:*</t>
+  </si>
+  <si>
+    <t>Trạng thái:*</t>
+  </si>
+  <si>
+    <t>Hình ảnh:*</t>
+  </si>
+  <si>
+    <t>Số điện thoại:*</t>
+  </si>
+  <si>
+    <t>Quyền*</t>
+  </si>
+  <si>
+    <t>Mật khẩu:*</t>
+  </si>
+  <si>
+    <t>Hết hạn sau: *</t>
+  </si>
+  <si>
+    <t>Số lượng:*</t>
+  </si>
+  <si>
+    <t>Số điểm sẽ hết hạn sau: *</t>
+  </si>
+  <si>
+    <t>Tỉnh/Thành phố:*</t>
+  </si>
+  <si>
+    <t>Quận/Huyện:*</t>
+  </si>
+  <si>
+    <t>Địa chỉ:*</t>
+  </si>
+  <si>
+    <t>Hết hạn sau:*</t>
+  </si>
+  <si>
+    <t>Số điện thoaị:*</t>
+  </si>
+  <si>
+    <t>Quyền:*</t>
+  </si>
+  <si>
+    <t>Cửu hàng:*</t>
   </si>
 </sst>
 </file>
@@ -1447,43 +1516,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1512,6 +1551,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,6 +1576,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1842,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="V137" sqref="V137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,141 +1934,141 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="I4" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>27</v>
+        <v>324</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>328</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T5" t="s">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="U5" s="3"/>
       <c r="W5" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="s">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="AH5" s="3"/>
       <c r="AJ5" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
       <c r="U6" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>326</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>329</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="21"/>
+        <v>330</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="20"/>
       <c r="Y9" t="s">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AB10" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2007,32 +2076,32 @@
         <v>14</v>
       </c>
       <c r="M11" t="s">
+        <v>331</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA11" s="21"/>
+      <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P12" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="21"/>
+        <v>332</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2" t="s">
@@ -2044,45 +2113,45 @@
         <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="21"/>
+        <v>333</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>325</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P18" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M19" t="s">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P20" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2092,87 +2161,87 @@
     </row>
     <row r="23" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="V23" s="1"/>
       <c r="AC23" s="1" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="BB23" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="O24" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="E25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="23"/>
+      <c r="B25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="E25" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="40"/>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="I25" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="O25" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="V25" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AD25" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="AE25" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AF25" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="AK25" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AQ25" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AR25" s="11"/>
       <c r="AS25">
@@ -2182,182 +2251,182 @@
       <c r="AU25" s="11"/>
       <c r="AV25" s="11"/>
       <c r="AX25" s="14" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="AY25" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AZ25" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="BB25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD25" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
       <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+        <v>58</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="I26" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="O26" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AH26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="AI26" s="14">
         <v>0</v>
       </c>
       <c r="AQ26" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AR26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AT26" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="BB26" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
       <c r="I27" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
-      </c>
-      <c r="AL27" s="40"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="42"/>
+        <v>233</v>
+      </c>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="33"/>
       <c r="AQ27">
         <v>1</v>
       </c>
       <c r="AR27" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AT27">
         <v>55000</v>
       </c>
       <c r="AV27" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AX27" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AY27" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="AZ27" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="BB27" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44"/>
       <c r="K28" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
       <c r="V28" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL28" s="43"/>
-      <c r="AM28" s="35"/>
-      <c r="AN28" s="44"/>
+        <v>158</v>
+      </c>
+      <c r="AL28" s="34"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="35"/>
       <c r="AQ28">
         <v>2</v>
       </c>
       <c r="AR28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="AT28">
         <v>30000</v>
       </c>
       <c r="AV28" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="AL29" s="45"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="47"/>
-      <c r="BC29" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="BD29" s="30"/>
+      <c r="AL29" s="36"/>
+      <c r="AM29" s="37"/>
+      <c r="AN29" s="38"/>
+      <c r="BC29" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="BD29" s="18"/>
     </row>
     <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="V30" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="W30" s="28"/>
+      <c r="C30" s="20"/>
+      <c r="V30" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="W30" s="30"/>
       <c r="AT30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AU30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="AV30" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC30" s="30"/>
-      <c r="BD30" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
     </row>
     <row r="31" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AD31" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE31" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF31" s="28"/>
+        <v>160</v>
+      </c>
+      <c r="AE31" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF31" s="30"/>
       <c r="AM31" s="14" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -2368,20 +2437,20 @@
       <c r="AV31" s="7">
         <v>43821</v>
       </c>
-      <c r="BC31" s="30"/>
-      <c r="BD31" s="30"/>
+      <c r="BC31" s="18"/>
+      <c r="BD31" s="18"/>
     </row>
     <row r="32" spans="2:56" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N32" t="s">
-        <v>266</v>
-      </c>
-      <c r="V32" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="W32" s="28"/>
+        <v>248</v>
+      </c>
+      <c r="V32" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="W32" s="30"/>
       <c r="AT32">
         <v>2</v>
       </c>
@@ -2394,12 +2463,12 @@
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AE33" s="14" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -2409,47 +2478,47 @@
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AC36" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="AD36" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AD37" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
@@ -2457,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="G38">
         <v>5000</v>
@@ -2469,10 +2538,10 @@
         <v>31</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="AD38" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
@@ -2480,10 +2549,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="E39" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="G39">
         <v>30000</v>
@@ -2492,176 +2561,176 @@
         <v>15</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I48" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="J48" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
+      <c r="C49" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
     </row>
     <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="37"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="39"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="21"/>
+      <c r="C57" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="20"/>
       <c r="G57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>103</v>
+        <v>66</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P58" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="21"/>
+      <c r="C59" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="20"/>
       <c r="F59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>124</v>
+        <v>251</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="U59" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="21"/>
+      <c r="C61" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="20"/>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="V61" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2669,191 +2738,191 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I62">
         <v>30000</v>
       </c>
       <c r="J62" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K62" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L62" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="N62" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D63" s="21"/>
+      <c r="C63" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" s="20"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I63">
         <v>20000</v>
       </c>
       <c r="J63" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" t="s">
+        <v>92</v>
+      </c>
+      <c r="L63" t="s">
+        <v>93</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="K63" t="s">
-        <v>104</v>
-      </c>
-      <c r="L63" t="s">
-        <v>105</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="X63" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N64" t="s">
-        <v>87</v>
-      </c>
-      <c r="P64" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q64" s="21"/>
+        <v>340</v>
+      </c>
+      <c r="P64" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="20"/>
       <c r="R64" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="21"/>
+      <c r="C65" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="20"/>
       <c r="R65" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="P66" s="3"/>
       <c r="R66" s="3" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D67" s="21"/>
+      <c r="C67" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D67" s="20"/>
       <c r="P67" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="P68" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P69" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N70" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="P71" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H72" t="s">
         <v>25</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
     </row>
     <row r="73" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
-        <v>27</v>
+        <v>342</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="V73" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="R74" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2861,109 +2930,109 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J75" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K75" s="7">
         <v>43821</v>
       </c>
       <c r="M75" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N75" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="P75" t="s">
-        <v>98</v>
-      </c>
-      <c r="R75" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="S75" s="21"/>
+        <v>343</v>
+      </c>
+      <c r="R75" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S75" s="20"/>
       <c r="W75" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
-        <v>26</v>
+        <v>344</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="S77" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Y77" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q79" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G81" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K82" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P83" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="V83" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G84" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H84" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J84" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="L84" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="S84" s="5"/>
     </row>
@@ -2972,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="H85">
         <v>1000</v>
@@ -2984,277 +3053,277 @@
         <v>43730</v>
       </c>
       <c r="M85" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N85" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="P85" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="W85" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="H86">
         <v>5000</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="H87">
         <v>5000</v>
       </c>
       <c r="P87" t="s">
-        <v>112</v>
+        <v>345</v>
       </c>
       <c r="R87" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="T87" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Y87" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R88" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P89" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="R89" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R91" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G92" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I93" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G94" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K94" t="s">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="O94" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="6:25" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I95" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P96" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L97" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="R98" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G102" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K103" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N103" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
+        <v>94</v>
+      </c>
+      <c r="N103" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="O103" s="45"/>
+      <c r="P103" s="45"/>
     </row>
     <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="29"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
     </row>
     <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
-        <v>116</v>
+        <v>347</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s">
-        <v>118</v>
-      </c>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
+        <v>104</v>
+      </c>
+      <c r="N105" s="45"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="45"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="29"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="45"/>
+      <c r="P106" s="45"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G108" s="9"/>
     </row>
     <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D110" s="21"/>
+      <c r="C110" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D110" s="20"/>
       <c r="F110" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="X110" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" s="21"/>
+      <c r="C112" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D112" s="20"/>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I112" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="M112" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="R112" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Y112" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N114" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="R114" t="s">
-        <v>34</v>
+        <v>348</v>
       </c>
       <c r="T114" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U114" s="17"/>
       <c r="Z114" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G115" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K115" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="L115" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N115" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3262,16 +3331,16 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H116" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="J116" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K116" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L116" s="7">
         <v>44187</v>
@@ -3280,139 +3349,139 @@
         <v>43821</v>
       </c>
       <c r="P116" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="Q116" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="R116" t="s">
-        <v>35</v>
+        <v>349</v>
       </c>
       <c r="T116" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U116" s="17"/>
       <c r="Z116" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AB116" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R118" t="s">
-        <v>133</v>
+        <v>350</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="X118" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="T120" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="V120" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T122" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F124" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="X124" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="H126" t="s">
         <v>25</v>
       </c>
       <c r="J126" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="M126" t="s">
         <v>123</v>
       </c>
-      <c r="K126" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M126" t="s">
-        <v>139</v>
-      </c>
       <c r="O126" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="R126" t="s">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="T126" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Y126" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O128" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="R128" t="s">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="Z128" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G129" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="H129" t="s">
         <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J129" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K129" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3420,67 +3489,83 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="I130" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="J130" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="K130" s="7">
         <v>43821</v>
       </c>
       <c r="M130" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N130" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="R130" t="s">
-        <v>268</v>
+        <v>353</v>
       </c>
       <c r="T130" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U130" s="17"/>
       <c r="Z130" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AB130" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="132" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R132" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="T132" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U132" s="17"/>
     </row>
     <row r="133" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
+        <v>249</v>
+      </c>
+      <c r="R134" t="s">
+        <v>344</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U134" t="s">
         <v>267</v>
-      </c>
-      <c r="R134" t="s">
-        <v>26</v>
-      </c>
-      <c r="T134" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="U134" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C28"/>
+    <mergeCell ref="E25:F28"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N103:P106"/>
     <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
@@ -3492,22 +3577,6 @@
     <mergeCell ref="AL27:AN29"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N103:P106"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3545,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3568,10 +3637,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3591,10 +3660,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,10 +3683,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3637,10 +3706,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3648,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3657,13 +3726,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3671,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -3680,13 +3749,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3694,7 +3763,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -3703,13 +3772,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,22 +3786,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3775,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3786,19 +3855,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3806,22 +3875,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3829,16 +3898,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="G5" s="12"/>
     </row>
@@ -3847,19 +3916,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3867,7 +3936,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -3876,10 +3945,10 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,16 +3956,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,16 +3973,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3957,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3968,19 +4037,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3988,19 +4057,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4008,22 +4077,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4031,22 +4100,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4054,19 +4123,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -4075,22 +4144,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,22 +4167,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,22 +4190,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4144,19 +4213,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4164,19 +4233,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5"/>
     </row>
@@ -4185,19 +4254,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4205,19 +4274,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4225,22 +4294,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C15" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,22 +4317,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4271,19 +4340,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -4292,19 +4361,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4312,22 +4381,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4335,19 +4404,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4355,19 +4424,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4375,22 +4444,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C22" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,22 +4467,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4421,19 +4490,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4477,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -4488,22 +4557,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4511,19 +4580,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4531,22 +4600,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4554,22 +4623,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4577,19 +4646,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -4598,22 +4667,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4621,19 +4690,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4641,22 +4710,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,22 +4733,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4687,19 +4756,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5"/>
     </row>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="357">
   <si>
     <t>NO.</t>
   </si>
@@ -141,12 +141,6 @@
   </si>
   <si>
     <t>Mã code không chính xác</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Bạn có thể gọi món hoặc gửi yêu cầu tới nhân viên nhà hàng </t>
-  </si>
-  <si>
-    <t>thông qua quét QR code mà không cần tài khoản)</t>
   </si>
   <si>
     <t>Home: Customer</t>
@@ -686,9 +680,6 @@
   </si>
   <si>
     <t xml:space="preserve">màn hình đăng nhập của </t>
-  </si>
-  <si>
-    <t>nhân viên: bỏ đăng ký va quét QR</t>
   </si>
   <si>
     <t>Giảm 10%, tối đa 50k</t>
@@ -1131,9 +1122,6 @@
     <t>Giới tính: *</t>
   </si>
   <si>
-    <t>Ngày tháng năm sinh: *</t>
-  </si>
-  <si>
     <t>Tỉnh/Thành phố: *</t>
   </si>
   <si>
@@ -1201,13 +1189,31 @@
   </si>
   <si>
     <t>Cửu hàng:*</t>
+  </si>
+  <si>
+    <t>stt</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>đăng nhập</t>
+  </si>
+  <si>
+    <t>đăng ký</t>
+  </si>
+  <si>
+    <t>nhân viên: bỏ đăng ký</t>
+  </si>
+  <si>
+    <t>Ngày tháng năm sih: *</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,6 +1259,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1262,7 +1275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1486,14 +1499,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1506,9 +1574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1516,13 +1582,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,9 +1641,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1578,33 +1665,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1909,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:BD134"/>
+  <dimension ref="A1:BD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="V137" sqref="V137"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,1005 +2026,1826 @@
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.140625" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
+      <c r="T2" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="46"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="46"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="I3" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="J3" s="49"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="49"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="49"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="49"/>
+    </row>
+    <row r="4" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="49"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="49"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Z4" s="47"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="49"/>
+      <c r="AH4" s="47"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="49"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="49"/>
+      <c r="L5" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="49"/>
+      <c r="T5" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="8"/>
+      <c r="Z5" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="49"/>
+      <c r="AH5" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="49"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="49"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="55"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="49"/>
+      <c r="L7" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="49"/>
+      <c r="Z7" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="49"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="49"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="49"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="49"/>
+    </row>
+    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="49"/>
+      <c r="L9" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="59"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="49"/>
+      <c r="Z9" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="49"/>
+    </row>
+    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47"/>
+      <c r="B10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="49"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="49"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="49"/>
+    </row>
+    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="49"/>
+      <c r="L11" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="49"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="55"/>
+    </row>
+    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="49"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="49"/>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="49"/>
+      <c r="L13" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="49"/>
+    </row>
+    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="49"/>
+    </row>
+    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47"/>
+      <c r="B15" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="49"/>
+      <c r="L15" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="59"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="49"/>
+    </row>
+    <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="49"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="49"/>
+    </row>
+    <row r="17" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="49"/>
+      <c r="L17" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="49"/>
+    </row>
+    <row r="18" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="8">
+        <v>31</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="49"/>
+    </row>
+    <row r="19" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47"/>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>30000</v>
+      </c>
+      <c r="H19" s="8">
+        <v>15</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="L19" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="49"/>
+    </row>
+    <row r="20" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="49"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="49"/>
+    </row>
+    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47"/>
+      <c r="B21" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="49"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
+    </row>
+    <row r="22" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="U23" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" s="44"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="46"/>
+      <c r="AC23" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+      <c r="AM23" s="45"/>
+      <c r="AN23" s="45"/>
+      <c r="AO23" s="46"/>
+      <c r="AQ23" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="45"/>
+      <c r="AT23" s="45"/>
+      <c r="AU23" s="45"/>
+      <c r="AV23" s="46"/>
+      <c r="AW23" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
+      <c r="BB23" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="BC23" s="45"/>
+      <c r="BD23" s="46"/>
+    </row>
+    <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="47"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="49"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="49"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="47"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="47"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="49"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B25" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="L25" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="44"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="49"/>
+      <c r="AC25" s="47" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="49"/>
+      <c r="AQ25" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="8">
+        <v>85000</v>
+      </c>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY25" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="BA25" s="8"/>
+      <c r="BB25" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC25" s="8"/>
+      <c r="BD25" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="49"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="49"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="49"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI26" s="52">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="49"/>
+      <c r="AQ26" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="47"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="49"/>
+    </row>
+    <row r="27" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="49"/>
+      <c r="H27" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="L27" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" s="8"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="49"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="49"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="49"/>
+      <c r="AQ27" s="47">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS27" s="8"/>
+      <c r="AT27" s="8">
+        <v>55000</v>
+      </c>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA27" s="8"/>
+      <c r="BB27" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC27" s="8"/>
+      <c r="BD27" s="49"/>
+    </row>
+    <row r="28" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47"/>
+      <c r="B28" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="49"/>
+      <c r="H28" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="55"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="49"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="38"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="39"/>
+      <c r="AO28" s="49"/>
+      <c r="AQ28" s="47">
+        <v>2</v>
+      </c>
+      <c r="AR28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS28" s="8"/>
+      <c r="AT28" s="8">
+        <v>30000</v>
+      </c>
+      <c r="AU28" s="8"/>
+      <c r="AV28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="54">
+        <v>1</v>
+      </c>
+      <c r="AY28" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="54"/>
+      <c r="BB28" s="47"/>
+      <c r="BC28" s="8"/>
+      <c r="BD28" s="49"/>
+    </row>
+    <row r="29" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="49"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="L29" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="49"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="49"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="40"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="42"/>
+      <c r="AO29" s="49"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="8"/>
+      <c r="AV29" s="49"/>
+      <c r="BB29" s="47"/>
+      <c r="BC29" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD29" s="21"/>
+    </row>
+    <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47"/>
+      <c r="B30" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="49"/>
+      <c r="L30" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="49"/>
+      <c r="Q30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="W30" s="24"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="49"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="49"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV30" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB30" s="47"/>
+      <c r="BC30" s="69"/>
+      <c r="BD30" s="21"/>
+    </row>
+    <row r="31" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="49"/>
+      <c r="L31" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" s="54"/>
+      <c r="N31" s="55"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="49"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE31" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF31" s="24"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="53"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="54"/>
+      <c r="AM31" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="AN31" s="54"/>
+      <c r="AO31" s="55"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="8"/>
+      <c r="AS31" s="8"/>
+      <c r="AT31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AV31" s="68">
+        <v>43821</v>
+      </c>
+      <c r="BB31" s="53"/>
+      <c r="BC31" s="70"/>
+      <c r="BD31" s="23"/>
+    </row>
+    <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="49"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="W32" s="66"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="55"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="49"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="8"/>
+      <c r="AS32" s="8"/>
+      <c r="AT32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AU32" s="8">
+        <v>15000</v>
+      </c>
+      <c r="AV32" s="68">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="47"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="49"/>
+      <c r="O33" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="46"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="49"/>
+      <c r="AQ33" s="53"/>
+      <c r="AR33" s="54"/>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54"/>
+      <c r="AU33" s="54"/>
+      <c r="AV33" s="55"/>
+    </row>
+    <row r="34" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="49"/>
+      <c r="K34" s="10"/>
+      <c r="O34" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="49"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A35" s="47"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="49"/>
+      <c r="AC35" s="47"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="49"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="49"/>
+      <c r="AC36" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD36" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="49"/>
+    </row>
+    <row r="37" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I4" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="49"/>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AC38" s="47"/>
+      <c r="AD38" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="49"/>
+    </row>
+    <row r="39" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54"/>
+      <c r="AG39" s="54"/>
+      <c r="AH39" s="54"/>
+      <c r="AI39" s="55"/>
+    </row>
+    <row r="45" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="46"/>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A47" s="47"/>
+      <c r="B47" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="49"/>
+      <c r="M47" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="N47" s="8"/>
+      <c r="O47" s="49"/>
+    </row>
+    <row r="48" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="47"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="K48" s="49"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="49"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="47"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" s="49"/>
+      <c r="M49" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="N49" s="8"/>
+      <c r="O49" s="49"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K50" s="49"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="49"/>
+    </row>
+    <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="47"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="49"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="55"/>
+    </row>
+    <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="47"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="49"/>
+    </row>
+    <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="55"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="G57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="F59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="U59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N60" t="s">
+        <v>334</v>
+      </c>
+      <c r="P60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="M5" t="s">
-        <v>328</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T5" t="s">
-        <v>335</v>
-      </c>
-      <c r="U5" s="3"/>
-      <c r="W5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH5" s="3"/>
-      <c r="AJ5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="U6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M9" t="s">
-        <v>330</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="20"/>
-      <c r="Y9" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AB10" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" t="s">
-        <v>331</v>
-      </c>
-      <c r="P11" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA11" s="20"/>
-    </row>
-    <row r="12" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>332</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" t="s">
-        <v>333</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" t="s">
-        <v>325</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P18" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M19" t="s">
-        <v>334</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P20" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V23" s="1"/>
-      <c r="AC23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="BB23" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" t="s">
-        <v>131</v>
-      </c>
-      <c r="O24" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B25" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="E25" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="40"/>
-      <c r="G25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I25" t="s">
-        <v>133</v>
-      </c>
-      <c r="K25" t="s">
-        <v>232</v>
-      </c>
-      <c r="O25" t="s">
-        <v>245</v>
-      </c>
-      <c r="V25" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE25" t="s">
+    </row>
+    <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="F61" t="s">
+        <v>44</v>
+      </c>
+      <c r="G61" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I61" t="s">
+        <v>66</v>
+      </c>
+      <c r="J61" t="s">
         <v>67</v>
       </c>
-      <c r="AF25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR25" s="11"/>
-      <c r="AS25">
-        <v>85000</v>
-      </c>
-      <c r="AT25" s="11"/>
-      <c r="AU25" s="11"/>
-      <c r="AV25" s="11"/>
-      <c r="AX25" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>237</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>238</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" t="s">
-        <v>222</v>
-      </c>
-      <c r="I26" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="42"/>
-      <c r="I27" t="s">
-        <v>135</v>
-      </c>
-      <c r="K27" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL27" s="31"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="33"/>
-      <c r="AQ27">
-        <v>1</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT27">
-        <v>55000</v>
-      </c>
-      <c r="AV27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>46</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="44"/>
-      <c r="K28" t="s">
-        <v>234</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="V28" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="35"/>
-      <c r="AQ28">
-        <v>2</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT28">
-        <v>30000</v>
-      </c>
-      <c r="AV28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="AL29" s="36"/>
-      <c r="AM29" s="37"/>
-      <c r="AN29" s="38"/>
-      <c r="BC29" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="BD29" s="18"/>
-    </row>
-    <row r="30" spans="2:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="V30" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="W30" s="30"/>
-      <c r="AT30" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
-    </row>
-    <row r="31" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE31" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF31" s="30"/>
-      <c r="AM31" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT31">
-        <v>1</v>
-      </c>
-      <c r="AU31">
-        <v>15000</v>
-      </c>
-      <c r="AV31" s="7">
-        <v>43821</v>
-      </c>
-      <c r="BC31" s="18"/>
-      <c r="BD31" s="18"/>
-    </row>
-    <row r="32" spans="2:56" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>45</v>
-      </c>
-      <c r="N32" t="s">
-        <v>248</v>
-      </c>
-      <c r="V32" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="W32" s="30"/>
-      <c r="AT32">
-        <v>2</v>
-      </c>
-      <c r="AU32">
-        <v>15000</v>
-      </c>
-      <c r="AV32" s="7">
-        <v>43861</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AE33" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AC36" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" t="s">
-        <v>290</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>229</v>
-      </c>
-      <c r="E38" t="s">
-        <v>218</v>
-      </c>
-      <c r="G38">
-        <v>5000</v>
-      </c>
-      <c r="H38">
-        <v>31</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>230</v>
-      </c>
-      <c r="E39" t="s">
-        <v>231</v>
-      </c>
-      <c r="G39">
-        <v>30000</v>
-      </c>
-      <c r="H39">
-        <v>15</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I48" t="s">
-        <v>177</v>
-      </c>
-      <c r="J48" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C49" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="J49" t="s">
-        <v>134</v>
-      </c>
-      <c r="L49" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C50" s="24"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="26"/>
-      <c r="J50" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C51" s="24"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26"/>
-    </row>
-    <row r="52" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="27"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="29"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D57" s="20"/>
-      <c r="G57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T57" s="1" t="s">
+      <c r="P61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q61" s="4"/>
+      <c r="V61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P58" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="F59" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="U59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N60" t="s">
-        <v>338</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="20"/>
-      <c r="F61" t="s">
-        <v>46</v>
-      </c>
-      <c r="G61" t="s">
-        <v>279</v>
-      </c>
-      <c r="H61" t="s">
-        <v>67</v>
-      </c>
-      <c r="I61" t="s">
-        <v>68</v>
-      </c>
-      <c r="J61" t="s">
-        <v>69</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="5"/>
-      <c r="V61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I62">
         <v>30000</v>
       </c>
       <c r="J62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N62" t="s">
-        <v>339</v>
-      </c>
-      <c r="P62" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="20"/>
+    <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D63" s="17"/>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I63">
         <v>20000</v>
       </c>
       <c r="J63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L63" t="s">
-        <v>93</v>
-      </c>
-      <c r="P63" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N64" t="s">
+        <v>336</v>
+      </c>
+      <c r="P64" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q64" s="17"/>
+      <c r="R64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="R65" t="s">
         <v>77</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X63" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N64" t="s">
-        <v>340</v>
-      </c>
-      <c r="P64" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q64" s="20"/>
-      <c r="R64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" s="20"/>
-      <c r="R65" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="66" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
-        <v>341</v>
-      </c>
-      <c r="P66" s="3"/>
-      <c r="R66" s="3" t="s">
-        <v>281</v>
+        <v>337</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="D67" s="20"/>
+      <c r="C67" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" s="17"/>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
-        <v>74</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P69" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N70" s="3" t="s">
-        <v>91</v>
+      <c r="N70" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G71" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>338</v>
-      </c>
-      <c r="R71" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R71" s="2" t="s">
         <v>34</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H72" t="s">
         <v>25</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
+      <c r="J72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
     </row>
     <row r="73" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P73" t="s">
-        <v>342</v>
-      </c>
-      <c r="R73" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="R73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V73" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K74" t="s">
-        <v>97</v>
-      </c>
-      <c r="R74" s="6" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2930,400 +3853,400 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
+        <v>85</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J75" t="s">
         <v>87</v>
       </c>
-      <c r="H75" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J75" t="s">
-        <v>89</v>
-      </c>
-      <c r="K75" s="7">
+      <c r="K75" s="6">
         <v>43821</v>
       </c>
       <c r="M75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N75" t="s">
+        <v>91</v>
+      </c>
+      <c r="P75" t="s">
+        <v>339</v>
+      </c>
+      <c r="R75" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S75" s="17"/>
+      <c r="W75" t="s">
         <v>93</v>
-      </c>
-      <c r="P75" t="s">
-        <v>343</v>
-      </c>
-      <c r="R75" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="S75" s="20"/>
-      <c r="W75" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="76" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
-        <v>344</v>
-      </c>
-      <c r="R77" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="R77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="S77" t="s">
-        <v>267</v>
-      </c>
-      <c r="W77" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y77" s="3" t="s">
-        <v>84</v>
+        <v>264</v>
+      </c>
+      <c r="W77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y77" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="79" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q79" s="3" t="s">
-        <v>94</v>
+      <c r="Q79" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G81" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="U81" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K82" s="3" t="s">
-        <v>91</v>
+      <c r="K82" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P83" t="s">
-        <v>338</v>
-      </c>
-      <c r="R83" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="R83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K84" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L84" t="s">
-        <v>289</v>
-      </c>
-      <c r="R84" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S84" s="5"/>
+        <v>286</v>
+      </c>
+      <c r="R84" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S84" s="4"/>
     </row>
     <row r="85" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H85">
         <v>1000</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="6">
         <v>43821</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="6">
         <v>43730</v>
       </c>
       <c r="M85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N85" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P85" t="s">
-        <v>339</v>
-      </c>
-      <c r="R85" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="W85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H86">
         <v>5000</v>
       </c>
-      <c r="R86" s="6" t="s">
-        <v>77</v>
+      <c r="R86" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H87">
         <v>5000</v>
       </c>
       <c r="P87" t="s">
-        <v>345</v>
-      </c>
-      <c r="R87" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="R87" s="9" t="s">
         <v>34</v>
       </c>
       <c r="T87" t="s">
-        <v>100</v>
-      </c>
-      <c r="W87" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y87" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y87" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R88" s="6" t="s">
-        <v>77</v>
+      <c r="R88" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P89" t="s">
-        <v>346</v>
-      </c>
-      <c r="R89" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="R89" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="90" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R91" s="3" t="s">
-        <v>94</v>
+      <c r="R91" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G92" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I93" s="3" t="s">
-        <v>91</v>
+      <c r="I93" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K94" t="s">
-        <v>327</v>
-      </c>
-      <c r="L94" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>34</v>
       </c>
       <c r="O94" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="6:25" x14ac:dyDescent="0.25">
       <c r="H95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I95" t="s">
-        <v>93</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="96" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P96" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L97" s="3" t="s">
-        <v>94</v>
+      <c r="L97" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
-        <v>249</v>
-      </c>
-      <c r="P98" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R98" s="3" t="s">
-        <v>84</v>
+        <v>246</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G102" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K103" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N103" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
+      <c r="K103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N103" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
     </row>
     <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="45"/>
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
     </row>
     <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
-        <v>347</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>103</v>
+        <v>343</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="K105" t="s">
-        <v>104</v>
-      </c>
-      <c r="N105" s="45"/>
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
+        <v>102</v>
+      </c>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N106" s="45"/>
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G108" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="G108" s="8"/>
     </row>
     <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="19" t="s">
+      <c r="C110" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="F110" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D110" s="20"/>
-      <c r="F110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>91</v>
+      <c r="N110" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X110" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D112" s="20"/>
+      <c r="C112" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" s="17"/>
       <c r="F112" t="s">
         <v>28</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I112" t="s">
         <v>109</v>
       </c>
-      <c r="I112" t="s">
-        <v>111</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>263</v>
+      <c r="K112" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="M112" t="s">
-        <v>112</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>264</v>
+        <v>110</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="R112" t="s">
-        <v>338</v>
-      </c>
-      <c r="T112" s="3" t="s">
-        <v>109</v>
+        <v>334</v>
+      </c>
+      <c r="T112" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="Y112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N114" s="3" t="s">
-        <v>110</v>
+      <c r="N114" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="R114" t="s">
-        <v>348</v>
-      </c>
-      <c r="T114" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="T114" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U114" s="17"/>
+      <c r="U114" s="14"/>
       <c r="Z114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F115" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G115" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J115" t="s">
         <v>29</v>
       </c>
       <c r="K115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L115" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N115" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3331,157 +4254,157 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
+        <v>112</v>
+      </c>
+      <c r="H116" t="s">
+        <v>113</v>
+      </c>
+      <c r="J116" t="s">
         <v>114</v>
       </c>
-      <c r="H116" t="s">
+      <c r="K116" t="s">
         <v>115</v>
       </c>
-      <c r="J116" t="s">
-        <v>116</v>
-      </c>
-      <c r="K116" t="s">
-        <v>117</v>
-      </c>
-      <c r="L116" s="7">
+      <c r="L116" s="6">
         <v>44187</v>
       </c>
-      <c r="N116" s="7">
+      <c r="N116" s="6">
         <v>43821</v>
       </c>
       <c r="P116" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q116" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R116" t="s">
-        <v>349</v>
-      </c>
-      <c r="T116" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="T116" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U116" s="17"/>
-      <c r="Z116" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB116" s="3" t="s">
-        <v>84</v>
+      <c r="U116" s="14"/>
+      <c r="Z116" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB116" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R118" t="s">
-        <v>350</v>
-      </c>
-      <c r="T118" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X118" s="5" t="s">
-        <v>122</v>
+        <v>346</v>
+      </c>
+      <c r="T118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X118" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R120" t="s">
-        <v>351</v>
-      </c>
-      <c r="T120" s="3" t="s">
-        <v>109</v>
+        <v>347</v>
+      </c>
+      <c r="T120" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="V120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T122" s="3" t="s">
-        <v>94</v>
+      <c r="T122" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F124" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O124" s="3" t="s">
-        <v>91</v>
+        <v>119</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="R124" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="X124" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="126" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F126" t="s">
-        <v>67</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H126" t="s">
         <v>25</v>
       </c>
-      <c r="J126" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L126" s="3" t="s">
-        <v>251</v>
+      <c r="J126" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="M126" t="s">
-        <v>123</v>
-      </c>
-      <c r="O126" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="R126" t="s">
-        <v>338</v>
-      </c>
-      <c r="T126" s="3" t="s">
-        <v>109</v>
+        <v>334</v>
+      </c>
+      <c r="T126" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="Y126" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="128" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O128" s="3" t="s">
-        <v>110</v>
+      <c r="O128" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="R128" t="s">
-        <v>352</v>
-      </c>
-      <c r="T128" s="3" t="s">
-        <v>109</v>
+        <v>348</v>
+      </c>
+      <c r="T128" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="Z128" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H129" t="s">
         <v>25</v>
       </c>
       <c r="I129" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J129" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K129" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3489,83 +4412,68 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>87</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>126</v>
+        <v>85</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="I130" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J130" t="s">
-        <v>127</v>
-      </c>
-      <c r="K130" s="7">
+        <v>125</v>
+      </c>
+      <c r="K130" s="6">
         <v>43821</v>
       </c>
       <c r="M130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N130" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="R130" t="s">
-        <v>353</v>
-      </c>
-      <c r="T130" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="T130" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U130" s="17"/>
-      <c r="Z130" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB130" s="3" t="s">
-        <v>84</v>
+      <c r="U130" s="14"/>
+      <c r="Z130" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB130" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="132" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R132" t="s">
-        <v>354</v>
-      </c>
-      <c r="T132" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="T132" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="U132" s="17"/>
+      <c r="U132" s="14"/>
     </row>
     <row r="133" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I134" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R134" t="s">
-        <v>344</v>
-      </c>
-      <c r="T134" s="3" t="s">
-        <v>109</v>
+        <v>340</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="U134" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B25:C28"/>
-    <mergeCell ref="E25:F28"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N103:P106"/>
+    <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
@@ -3577,6 +4485,21 @@
     <mergeCell ref="AL27:AN29"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N103:P106"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="R75:S75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3614,7 +4537,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3637,10 +4560,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3660,10 +4583,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,10 +4606,10 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="12" t="s">
         <v>136</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3706,10 +4629,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3717,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -3726,13 +4649,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3740,7 +4663,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -3749,13 +4672,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3763,7 +4686,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -3772,13 +4695,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3786,22 +4709,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>146</v>
+        <v>136</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +4767,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -3855,19 +4778,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,22 +4798,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>294</v>
+        <v>136</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3898,37 +4821,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="12"/>
+        <v>295</v>
+      </c>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3936,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -3945,10 +4868,10 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3956,16 +4879,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3973,16 +4896,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -4037,19 +4960,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4057,19 +4980,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4077,22 +5000,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
         <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>181</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>283</v>
+        <v>136</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4100,22 +5023,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>284</v>
+        <v>136</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4123,43 +5046,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>254</v>
+        <v>136</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4167,22 +5090,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,22 +5113,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>261</v>
+        <v>136</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4213,19 +5136,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4233,40 +5156,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4274,19 +5197,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4294,22 +5217,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>322</v>
+        <v>136</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4317,22 +5240,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>323</v>
+        <v>136</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4340,40 +5263,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4381,22 +5304,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>319</v>
+        <v>136</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4404,19 +5327,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -4424,19 +5347,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,22 +5367,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>314</v>
+        <v>136</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,22 +5390,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
+        <v>307</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="F23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4490,19 +5413,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4546,7 +5469,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -4557,22 +5480,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>266</v>
+        <v>136</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4580,19 +5503,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
         <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>202</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4600,22 +5523,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>269</v>
+        <v>136</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4623,22 +5546,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>268</v>
+        <v>136</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4646,43 +5569,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>254</v>
+        <v>136</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4690,19 +5613,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4710,22 +5633,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,22 +5656,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>261</v>
+        <v>136</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4756,21 +5679,21 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>136</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="customer api" sheetId="4" r:id="rId3"/>
     <sheet name="staff admin api" sheetId="5" r:id="rId4"/>
     <sheet name="supper admin api" sheetId="6" r:id="rId5"/>
+    <sheet name="User - Role" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="367">
   <si>
     <t>NO.</t>
   </si>
@@ -1207,6 +1208,47 @@
   </si>
   <si>
     <t>Ngày tháng năm sih: *</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>0989888999</t>
+  </si>
+  <si>
+    <t>0976111444</t>
+  </si>
+  <si>
+    <t>0935316228</t>
+  </si>
+  <si>
+    <t>SUPPER_ADMIN</t>
+  </si>
+  <si>
+    <t>{
+ "name": "Lù A Phù"
+ ,"phone_number": "0976111444"
+ ,"password": "123456"
+ ,"role_id": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+ "id": 3
+ ,"name": "abc xyz"
+ ,"phone_number": "0878665442"
+ ,"password": "123456"
+ ,"role_id": 1
+}</t>
+  </si>
+  <si>
+    <t>code active: 1111</t>
   </si>
 </sst>
 </file>
@@ -1581,37 +1623,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1641,6 +1692,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1665,48 +1722,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2013,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
@@ -2034,93 +2076,93 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
-      <c r="T2" s="57" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="T2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="44" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="46"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44" t="s">
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="18"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="46"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="18"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="L3" s="47"/>
+      <c r="J3" s="21"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="49"/>
-      <c r="T3" s="47"/>
+      <c r="R3" s="21"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Z3" s="47"/>
+      <c r="Z3" s="19"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="49"/>
-      <c r="AH3" s="47"/>
+      <c r="AF3" s="21"/>
+      <c r="AH3" s="19"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="49"/>
+      <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2135,42 +2177,42 @@
       <c r="I4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="L4" s="47"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="49"/>
-      <c r="T4" s="47"/>
+      <c r="R4" s="21"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Z4" s="47"/>
+      <c r="Z4" s="19"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="49"/>
-      <c r="AH4" s="47"/>
+      <c r="AF4" s="21"/>
+      <c r="AH4" s="19"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="49"/>
+      <c r="AK4" s="21"/>
     </row>
     <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2178,8 +2220,8 @@
       <c r="I5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="L5" s="47" t="s">
+      <c r="J5" s="21"/>
+      <c r="L5" s="19" t="s">
         <v>325</v>
       </c>
       <c r="M5" s="8"/>
@@ -2188,8 +2230,8 @@
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="49"/>
-      <c r="T5" s="47" t="s">
+      <c r="R5" s="21"/>
+      <c r="T5" s="19" t="s">
         <v>331</v>
       </c>
       <c r="U5" s="2"/>
@@ -2198,7 +2240,7 @@
         <v>31</v>
       </c>
       <c r="X5" s="8"/>
-      <c r="Z5" s="47" t="s">
+      <c r="Z5" s="19" t="s">
         <v>326</v>
       </c>
       <c r="AA5" s="8"/>
@@ -2208,8 +2250,8 @@
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="49"/>
-      <c r="AH5" s="47" t="s">
+      <c r="AF5" s="21"/>
+      <c r="AH5" s="19" t="s">
         <v>331</v>
       </c>
       <c r="AI5" s="2"/>
@@ -2219,14 +2261,14 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2234,50 +2276,50 @@
       <c r="I6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="L6" s="47"/>
+      <c r="J6" s="21"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="49"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="58" t="s">
+      <c r="R6" s="21"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Z6" s="47"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Z6" s="19"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="56" t="s">
+      <c r="AC6" s="28" t="s">
         <v>36</v>
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
-      <c r="AF6" s="49"/>
-      <c r="AH6" s="53"/>
-      <c r="AI6" s="58" t="s">
+      <c r="AF6" s="21"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="55"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="27"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="L7" s="47" t="s">
+      <c r="J7" s="21"/>
+      <c r="L7" s="19" t="s">
         <v>326</v>
       </c>
       <c r="M7" s="8"/>
@@ -2286,8 +2328,8 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="49"/>
-      <c r="Z7" s="47" t="s">
+      <c r="R7" s="21"/>
+      <c r="Z7" s="19" t="s">
         <v>332</v>
       </c>
       <c r="AA7" s="8"/>
@@ -2297,39 +2339,39 @@
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="49"/>
+      <c r="AF7" s="21"/>
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="49"/>
-      <c r="L8" s="47"/>
+      <c r="J8" s="21"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="56" t="s">
+      <c r="N8" s="28" t="s">
         <v>36</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="49"/>
-      <c r="Z8" s="47"/>
+      <c r="R8" s="21"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="56" t="s">
+      <c r="AC8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="49"/>
+      <c r="AF8" s="21"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2338,19 +2380,19 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="49"/>
-      <c r="L9" s="47" t="s">
+      <c r="J9" s="21"/>
+      <c r="L9" s="19" t="s">
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="17"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="40"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="49"/>
-      <c r="Z9" s="47" t="s">
+      <c r="R9" s="21"/>
+      <c r="Z9" s="19" t="s">
         <v>333</v>
       </c>
       <c r="AA9" s="8"/>
@@ -2360,40 +2402,40 @@
       </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="49"/>
+      <c r="AF9" s="21"/>
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="49"/>
-      <c r="L10" s="47"/>
+      <c r="J10" s="21"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="49"/>
-      <c r="Z10" s="47"/>
+      <c r="R10" s="21"/>
+      <c r="Z10" s="19"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="56" t="s">
+      <c r="AC10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
-      <c r="AF10" s="49"/>
+      <c r="AF10" s="21"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
@@ -2404,8 +2446,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="49"/>
-      <c r="L11" s="47" t="s">
+      <c r="J11" s="21"/>
+      <c r="L11" s="19" t="s">
         <v>356</v>
       </c>
       <c r="M11" s="8"/>
@@ -2414,19 +2456,19 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="49"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="16" t="s">
+      <c r="R11" s="21"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="55"/>
+      <c r="AB11" s="40"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="27"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
@@ -2437,18 +2479,18 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="49"/>
-      <c r="L12" s="47"/>
+      <c r="J12" s="21"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="56" t="s">
+      <c r="N12" s="28" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="49"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2457,21 +2499,21 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="49"/>
-      <c r="L13" s="47" t="s">
+      <c r="J13" s="21"/>
+      <c r="L13" s="19" t="s">
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="17"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="40"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="49"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>221</v>
       </c>
@@ -2480,19 +2522,19 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="L14" s="47"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="49"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="8" t="s">
         <v>222</v>
       </c>
@@ -2511,21 +2553,21 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="49"/>
-      <c r="L15" s="47" t="s">
+      <c r="J15" s="21"/>
+      <c r="L15" s="19" t="s">
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="17"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="49"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2534,17 +2576,17 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="49"/>
-      <c r="L16" s="47"/>
+      <c r="J16" s="21"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="49"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
@@ -2563,8 +2605,8 @@
         <v>287</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="49"/>
-      <c r="L17" s="47" t="s">
+      <c r="J17" s="21"/>
+      <c r="L17" s="19" t="s">
         <v>322</v>
       </c>
       <c r="M17" s="8"/>
@@ -2573,10 +2615,10 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="49"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="8">
         <v>1</v>
       </c>
@@ -2595,20 +2637,20 @@
         <v>31</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="52" t="s">
+      <c r="J18" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="L18" s="47"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="8"/>
       <c r="N18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="49"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8">
         <v>2</v>
       </c>
@@ -2627,10 +2669,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="52" t="s">
+      <c r="J19" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="19" t="s">
         <v>330</v>
       </c>
       <c r="M19" s="8"/>
@@ -2639,10 +2681,10 @@
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="49"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
@@ -2653,18 +2695,18 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="49"/>
-      <c r="L20" s="47"/>
+      <c r="J20" s="21"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="8"/>
       <c r="N20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="49"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
         <v>283</v>
       </c>
@@ -2675,144 +2717,144 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="49"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="54"/>
+      <c r="J21" s="21"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="55"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="U23" s="57" t="s">
+      <c r="U23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="44"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="46"/>
-      <c r="AC23" s="57" t="s">
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="18"/>
+      <c r="AC23" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="45"/>
-      <c r="AH23" s="45"/>
-      <c r="AI23" s="46"/>
-      <c r="AJ23" s="57" t="s">
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="45"/>
-      <c r="AM23" s="45"/>
-      <c r="AN23" s="45"/>
-      <c r="AO23" s="46"/>
-      <c r="AQ23" s="57" t="s">
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="18"/>
+      <c r="AQ23" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AR23" s="45"/>
-      <c r="AS23" s="45"/>
-      <c r="AT23" s="45"/>
-      <c r="AU23" s="45"/>
-      <c r="AV23" s="46"/>
-      <c r="AW23" s="57" t="s">
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="18"/>
+      <c r="AW23" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
-      <c r="BB23" s="57" t="s">
+      <c r="AX23" s="17"/>
+      <c r="AY23" s="17"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="BC23" s="45"/>
-      <c r="BD23" s="46"/>
+      <c r="BC23" s="17"/>
+      <c r="BD23" s="18"/>
     </row>
     <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U24" s="47"/>
+      <c r="U24" s="19"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="49"/>
-      <c r="AC24" s="47"/>
+      <c r="AA24" s="21"/>
+      <c r="AC24" s="19"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="47"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="19"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
-      <c r="AO24" s="49"/>
-      <c r="AQ24" s="47"/>
+      <c r="AO24" s="21"/>
+      <c r="AQ24" s="19"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
       <c r="AU24" s="8"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="47"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="19"/>
       <c r="AX24" s="8"/>
       <c r="AY24" s="8"/>
       <c r="AZ24" s="8"/>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="47"/>
+      <c r="BB24" s="19"/>
       <c r="BC24" s="8"/>
-      <c r="BD24" s="49"/>
+      <c r="BD24" s="21"/>
     </row>
     <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="46"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="63" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="L25" s="57" t="s">
+      <c r="J25" s="17"/>
+      <c r="L25" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="44"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="57" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="U25" s="47"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="8" t="s">
         <v>153</v>
       </c>
@@ -2820,8 +2862,8 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
-      <c r="AA25" s="49"/>
-      <c r="AC25" s="47" t="s">
+      <c r="AA25" s="21"/>
+      <c r="AC25" s="19" t="s">
         <v>351</v>
       </c>
       <c r="AD25" s="8" t="s">
@@ -2835,26 +2877,26 @@
       </c>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="47"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="19"/>
       <c r="AK25" s="8" t="s">
         <v>165</v>
       </c>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
-      <c r="AO25" s="49"/>
-      <c r="AQ25" s="47" t="s">
+      <c r="AO25" s="21"/>
+      <c r="AQ25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AR25" s="50"/>
+      <c r="AR25" s="22"/>
       <c r="AS25" s="8">
         <v>85000</v>
       </c>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="47"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="19"/>
       <c r="AX25" s="12" t="s">
         <v>233</v>
       </c>
@@ -2865,44 +2907,44 @@
         <v>235</v>
       </c>
       <c r="BA25" s="8"/>
-      <c r="BB25" s="47" t="s">
+      <c r="BB25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="BC25" s="8"/>
-      <c r="BD25" s="49" t="s">
+      <c r="BD25" s="21" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="49"/>
-      <c r="H26" s="47"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="47"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="47"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="8" t="s">
         <v>241</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="49"/>
-      <c r="U26" s="47"/>
+      <c r="S26" s="21"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="49"/>
-      <c r="AC26" s="47"/>
+      <c r="AA26" s="21"/>
+      <c r="AC26" s="19"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
@@ -2912,16 +2954,16 @@
       <c r="AH26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AI26" s="52">
+      <c r="AI26" s="24">
         <v>0</v>
       </c>
-      <c r="AJ26" s="47"/>
+      <c r="AJ26" s="19"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
-      <c r="AO26" s="49"/>
-      <c r="AQ26" s="47" t="s">
+      <c r="AO26" s="21"/>
+      <c r="AQ26" s="19" t="s">
         <v>44</v>
       </c>
       <c r="AR26" s="8" t="s">
@@ -2932,63 +2974,63 @@
         <v>46</v>
       </c>
       <c r="AU26" s="8"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="47"/>
+      <c r="AV26" s="21"/>
+      <c r="AW26" s="19"/>
       <c r="AX26" s="8"/>
       <c r="AY26" s="8"/>
       <c r="AZ26" s="8"/>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="47" t="s">
+      <c r="BB26" s="19" t="s">
         <v>237</v>
       </c>
       <c r="BC26" s="8"/>
-      <c r="BD26" s="49"/>
+      <c r="BD26" s="21"/>
     </row>
     <row r="27" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="49"/>
-      <c r="H27" s="64" t="s">
+      <c r="F27" s="21"/>
+      <c r="H27" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="L27" s="47" t="s">
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="47"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="8" t="s">
         <v>242</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="49"/>
-      <c r="U27" s="47"/>
+      <c r="S27" s="21"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="49"/>
-      <c r="AC27" s="47"/>
+      <c r="AA27" s="21"/>
+      <c r="AC27" s="19"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="47"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="37"/>
-      <c r="AO27" s="49"/>
-      <c r="AQ27" s="47">
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="58"/>
+      <c r="AO27" s="21"/>
+      <c r="AQ27" s="19">
         <v>1</v>
       </c>
       <c r="AR27" s="8" t="s">
@@ -3002,7 +3044,7 @@
       <c r="AV27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW27" s="47"/>
+      <c r="AW27" s="19"/>
       <c r="AX27" s="8" t="s">
         <v>44</v>
       </c>
@@ -3013,14 +3055,14 @@
         <v>51</v>
       </c>
       <c r="BA27" s="8"/>
-      <c r="BB27" s="47" t="s">
+      <c r="BB27" s="19" t="s">
         <v>238</v>
       </c>
       <c r="BC27" s="8"/>
-      <c r="BD27" s="49"/>
+      <c r="BD27" s="21"/>
     </row>
     <row r="28" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="8" t="s">
         <v>321</v>
       </c>
@@ -3029,23 +3071,23 @@
         <v>34</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="49"/>
-      <c r="H28" s="32" t="s">
+      <c r="F28" s="21"/>
+      <c r="H28" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="L28" s="47"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54" t="s">
+      <c r="N28" s="21"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="55"/>
-      <c r="U28" s="47"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="27"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8" t="s">
         <v>156</v>
       </c>
@@ -3053,21 +3095,21 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="49"/>
-      <c r="AC28" s="47"/>
+      <c r="AA28" s="21"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="47"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="38"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="49"/>
-      <c r="AQ28" s="47">
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="21"/>
+      <c r="AQ28" s="19">
         <v>2</v>
       </c>
       <c r="AR28" s="8" t="s">
@@ -3081,70 +3123,70 @@
       <c r="AV28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="54">
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="26">
         <v>1</v>
       </c>
-      <c r="AY28" s="54" t="s">
+      <c r="AY28" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="AZ28" s="54"/>
-      <c r="BA28" s="54"/>
-      <c r="BB28" s="47"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="19"/>
       <c r="BC28" s="8"/>
-      <c r="BD28" s="49"/>
+      <c r="BD28" s="21"/>
     </row>
     <row r="29" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="49"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="L29" s="47" t="s">
+      <c r="F29" s="21"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="49"/>
-      <c r="U29" s="47"/>
+      <c r="N29" s="21"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
-      <c r="AA29" s="49"/>
-      <c r="AC29" s="47"/>
+      <c r="AA29" s="21"/>
+      <c r="AC29" s="19"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="47"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="40"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="42"/>
-      <c r="AO29" s="49"/>
-      <c r="AQ29" s="47"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="21"/>
+      <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
       <c r="AU29" s="8"/>
-      <c r="AV29" s="49"/>
-      <c r="BB29" s="47"/>
-      <c r="BC29" s="69" t="s">
+      <c r="AV29" s="21"/>
+      <c r="BB29" s="19"/>
+      <c r="BC29" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="BD29" s="21"/>
+      <c r="BD29" s="42"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="8" t="s">
         <v>323</v>
       </c>
@@ -3153,40 +3195,40 @@
         <v>34</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="49"/>
-      <c r="L30" s="47" t="s">
+      <c r="F30" s="21"/>
+      <c r="L30" s="19" t="s">
         <v>231</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="N30" s="49"/>
+      <c r="N30" s="21"/>
       <c r="Q30" s="12" t="s">
         <v>92</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="24" t="s">
+      <c r="U30" s="19"/>
+      <c r="V30" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="24"/>
+      <c r="W30" s="55"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="49"/>
-      <c r="AC30" s="47"/>
+      <c r="AA30" s="21"/>
+      <c r="AC30" s="19"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="47"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="19"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
-      <c r="AO30" s="49"/>
-      <c r="AQ30" s="47"/>
+      <c r="AO30" s="21"/>
+      <c r="AQ30" s="19"/>
       <c r="AR30" s="8"/>
       <c r="AS30" s="8"/>
       <c r="AT30" s="8" t="s">
@@ -3195,56 +3237,56 @@
       <c r="AU30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AV30" s="49" t="s">
+      <c r="AV30" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="BB30" s="47"/>
-      <c r="BC30" s="69"/>
-      <c r="BD30" s="21"/>
+      <c r="BB30" s="19"/>
+      <c r="BC30" s="41"/>
+      <c r="BD30" s="42"/>
     </row>
     <row r="31" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="49"/>
-      <c r="L31" s="53" t="s">
+      <c r="F31" s="21"/>
+      <c r="L31" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="M31" s="54"/>
-      <c r="N31" s="55"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="U31" s="47"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-      <c r="AA31" s="49"/>
-      <c r="AC31" s="47"/>
+      <c r="AA31" s="21"/>
+      <c r="AC31" s="19"/>
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="24" t="s">
+      <c r="AE31" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="24"/>
+      <c r="AF31" s="55"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="54"/>
-      <c r="AL31" s="54"/>
-      <c r="AM31" s="67" t="s">
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="AN31" s="54"/>
-      <c r="AO31" s="55"/>
-      <c r="AQ31" s="47"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="27"/>
+      <c r="AQ31" s="19"/>
       <c r="AR31" s="8"/>
       <c r="AS31" s="8"/>
       <c r="AT31" s="8">
@@ -3253,37 +3295,37 @@
       <c r="AU31" s="8">
         <v>15000</v>
       </c>
-      <c r="AV31" s="68">
+      <c r="AV31" s="36">
         <v>43821</v>
       </c>
-      <c r="BB31" s="53"/>
-      <c r="BC31" s="70"/>
-      <c r="BD31" s="23"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="43"/>
+      <c r="BD31" s="44"/>
     </row>
     <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="49"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="66" t="s">
+      <c r="F32" s="21"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="66"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54"/>
-      <c r="AA32" s="55"/>
-      <c r="AC32" s="47"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="27"/>
+      <c r="AC32" s="19"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AI32" s="49"/>
-      <c r="AQ32" s="47"/>
+      <c r="AI32" s="21"/>
+      <c r="AQ32" s="19"/>
       <c r="AR32" s="8"/>
       <c r="AS32" s="8"/>
       <c r="AT32" s="8">
@@ -3292,23 +3334,23 @@
       <c r="AU32" s="8">
         <v>15000</v>
       </c>
-      <c r="AV32" s="68">
+      <c r="AV32" s="36">
         <v>43861</v>
       </c>
     </row>
     <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="49"/>
-      <c r="O33" s="57" t="s">
+      <c r="F33" s="21"/>
+      <c r="O33" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="46"/>
-      <c r="AC33" s="47"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="18"/>
+      <c r="AC33" s="19"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="12" t="s">
         <v>160</v>
@@ -3316,62 +3358,62 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="49"/>
-      <c r="AQ33" s="53"/>
-      <c r="AR33" s="54"/>
-      <c r="AS33" s="54"/>
-      <c r="AT33" s="54"/>
-      <c r="AU33" s="54"/>
-      <c r="AV33" s="55"/>
+      <c r="AI33" s="21"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="27"/>
     </row>
     <row r="34" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="49"/>
+      <c r="F34" s="21"/>
       <c r="K34" s="10"/>
-      <c r="O34" s="53" t="s">
+      <c r="O34" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="55"/>
-      <c r="AC34" s="47"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="AC34" s="19"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="49"/>
+      <c r="AI34" s="21"/>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="49"/>
-      <c r="AC35" s="47"/>
+      <c r="F35" s="21"/>
+      <c r="AC35" s="19"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-      <c r="AI35" s="49"/>
+      <c r="AI35" s="21"/>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="49"/>
-      <c r="AC36" s="47" t="s">
+      <c r="F36" s="21"/>
+      <c r="AC36" s="19" t="s">
         <v>161</v>
       </c>
       <c r="AD36" s="8" t="s">
@@ -3381,18 +3423,18 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
-      <c r="AI36" s="49"/>
+      <c r="AI36" s="21"/>
     </row>
     <row r="37" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="62" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
-      <c r="AC37" s="47"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="AC37" s="19"/>
       <c r="AD37" s="8" t="s">
         <v>163</v>
       </c>
@@ -3400,10 +3442,10 @@
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
-      <c r="AI37" s="49"/>
+      <c r="AI37" s="21"/>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AC38" s="47"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8" t="s">
         <v>164</v>
       </c>
@@ -3411,37 +3453,37 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="49"/>
+      <c r="AI38" s="21"/>
     </row>
     <row r="39" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="54"/>
-      <c r="AG39" s="54"/>
-      <c r="AH39" s="54"/>
-      <c r="AI39" s="55"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="27"/>
     </row>
     <row r="45" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="46"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="71" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="37" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="8"/>
@@ -3452,15 +3494,15 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="49"/>
-      <c r="M47" s="72" t="s">
+      <c r="K47" s="21"/>
+      <c r="M47" s="38" t="s">
         <v>244</v>
       </c>
       <c r="N47" s="8"/>
-      <c r="O47" s="49"/>
+      <c r="O47" s="21"/>
     </row>
     <row r="48" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3474,92 +3516,92 @@
       <c r="J48" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K48" s="49"/>
-      <c r="M48" s="47"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="19"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="49"/>
+      <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K49" s="49"/>
-      <c r="M49" s="47" t="s">
+      <c r="K49" s="21"/>
+      <c r="M49" s="19" t="s">
         <v>245</v>
       </c>
       <c r="N49" s="8"/>
-      <c r="O49" s="49"/>
+      <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K50" s="49"/>
-      <c r="M50" s="47"/>
+      <c r="K50" s="21"/>
+      <c r="M50" s="19"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="49"/>
+      <c r="O50" s="21"/>
     </row>
     <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="50"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="49"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="55"/>
+      <c r="K51" s="21"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27"/>
     </row>
     <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="34"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="53"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="49"/>
+      <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="55"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3568,10 +3610,10 @@
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="40"/>
       <c r="G57" s="1" t="s">
         <v>64</v>
       </c>
@@ -3591,10 +3633,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="40"/>
       <c r="F59" t="s">
         <v>65</v>
       </c>
@@ -3629,10 +3671,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="40"/>
       <c r="F61" t="s">
         <v>44</v>
       </c>
@@ -3686,10 +3728,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="D63" s="17"/>
+      <c r="D63" s="40"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -3725,19 +3767,19 @@
       <c r="N64" t="s">
         <v>336</v>
       </c>
-      <c r="P64" s="16" t="s">
+      <c r="P64" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="Q64" s="17"/>
+      <c r="Q64" s="40"/>
       <c r="R64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="17"/>
+      <c r="D65" s="40"/>
       <c r="R65" t="s">
         <v>77</v>
       </c>
@@ -3752,10 +3794,10 @@
       </c>
     </row>
     <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="39" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="17"/>
+      <c r="D67" s="40"/>
       <c r="P67" t="s">
         <v>279</v>
       </c>
@@ -3873,10 +3915,10 @@
       <c r="P75" t="s">
         <v>339</v>
       </c>
-      <c r="R75" s="16" t="s">
+      <c r="R75" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="17"/>
+      <c r="S75" s="40"/>
       <c r="W75" t="s">
         <v>93</v>
       </c>
@@ -4121,16 +4163,16 @@
       <c r="K103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N103" s="25" t="s">
+      <c r="N103" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
+      <c r="O103" s="68"/>
+      <c r="P103" s="68"/>
     </row>
     <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="25"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
     </row>
     <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
@@ -4142,14 +4184,14 @@
       <c r="K105" t="s">
         <v>102</v>
       </c>
-      <c r="N105" s="25"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="25"/>
+      <c r="N105" s="68"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="68"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N106" s="25"/>
-      <c r="O106" s="25"/>
-      <c r="P106" s="25"/>
+      <c r="N106" s="68"/>
+      <c r="O106" s="68"/>
+      <c r="P106" s="68"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -4159,10 +4201,10 @@
     </row>
     <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D110" s="17"/>
+      <c r="D110" s="40"/>
       <c r="F110" s="1" t="s">
         <v>106</v>
       </c>
@@ -4178,10 +4220,10 @@
     </row>
     <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="16" t="s">
+      <c r="C112" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="17"/>
+      <c r="D112" s="40"/>
       <c r="F112" t="s">
         <v>28</v>
       </c>
@@ -4473,11 +4515,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="BC29:BD31"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="N103:P106"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C49:H52"/>
     <mergeCell ref="V32:W32"/>
@@ -4485,21 +4536,12 @@
     <mergeCell ref="AL27:AN29"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
     <mergeCell ref="V30:W30"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="N103:P106"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="BC29:BD31"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4508,16 +4550,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G10"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4725,6 +4769,11 @@
       </c>
       <c r="G10" s="11" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4917,8 +4966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,7 +5154,7 @@
         <v>136</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>138</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5128,7 +5177,7 @@
         <v>136</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5438,7 +5487,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5449,7 +5498,7 @@
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5698,4 +5747,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+      <c r="D5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="372">
   <si>
     <t>NO.</t>
   </si>
@@ -1249,6 +1249,21 @@
   </si>
   <si>
     <t>code active: 1111</t>
+  </si>
+  <si>
+    <t>Get danh sách điểm</t>
+  </si>
+  <si>
+    <t>Get chi tiết điểm theo từng nhà hàng</t>
+  </si>
+  <si>
+    <t>api/customer/point</t>
+  </si>
+  <si>
+    <t>api/customer/point-detail/&lt;int:store-id&gt;</t>
+  </si>
+  <si>
+    <t>Ngày tích lũy</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1622,6 +1637,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1644,7 +1665,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1653,13 +1679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1749,6 +1769,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2053,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD134"/>
+  <dimension ref="A1:BG134"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="AK21" workbookViewId="0">
+      <selection activeCell="AU33" sqref="AU33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,98 +2094,99 @@
     <col min="35" max="35" width="7.5703125" customWidth="1"/>
     <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13" customWidth="1"/>
     <col min="51" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-      <c r="T2" s="29" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="T2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="16" t="s">
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="18"/>
-      <c r="AH2" s="15"/>
-      <c r="AI2" s="16" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="20"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="18"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="20"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="L3" s="19"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="21"/>
-      <c r="T3" s="19"/>
+      <c r="R3" s="23"/>
+      <c r="T3" s="21"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Z3" s="19"/>
+      <c r="Z3" s="21"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="21"/>
-      <c r="AH3" s="19"/>
+      <c r="AF3" s="23"/>
+      <c r="AH3" s="21"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="21"/>
+      <c r="AK3" s="23"/>
     </row>
     <row r="4" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2177,42 +2201,42 @@
       <c r="I4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="19"/>
+      <c r="J4" s="23"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="21"/>
-      <c r="T4" s="19"/>
+      <c r="R4" s="23"/>
+      <c r="T4" s="21"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Z4" s="19"/>
+      <c r="Z4" s="21"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="21"/>
-      <c r="AH4" s="19"/>
+      <c r="AF4" s="23"/>
+      <c r="AH4" s="21"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="21"/>
+      <c r="AK4" s="23"/>
     </row>
     <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="65"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2220,8 +2244,8 @@
       <c r="I5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="L5" s="19" t="s">
+      <c r="J5" s="23"/>
+      <c r="L5" s="21" t="s">
         <v>325</v>
       </c>
       <c r="M5" s="8"/>
@@ -2230,8 +2254,8 @@
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="21"/>
-      <c r="T5" s="19" t="s">
+      <c r="R5" s="23"/>
+      <c r="T5" s="21" t="s">
         <v>331</v>
       </c>
       <c r="U5" s="2"/>
@@ -2240,7 +2264,7 @@
         <v>31</v>
       </c>
       <c r="X5" s="8"/>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="21" t="s">
         <v>326</v>
       </c>
       <c r="AA5" s="8"/>
@@ -2250,8 +2274,8 @@
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="21"/>
-      <c r="AH5" s="19" t="s">
+      <c r="AF5" s="23"/>
+      <c r="AH5" s="21" t="s">
         <v>331</v>
       </c>
       <c r="AI5" s="2"/>
@@ -2261,14 +2285,14 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="42"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2276,50 +2300,50 @@
       <c r="I6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="L6" s="19"/>
+      <c r="J6" s="23"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="21"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="30" t="s">
+      <c r="R6" s="23"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Z6" s="19"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Z6" s="21"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="28" t="s">
+      <c r="AC6" s="30" t="s">
         <v>36</v>
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
-      <c r="AF6" s="21"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="30" t="s">
+      <c r="AF6" s="23"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AJ6" s="26"/>
-      <c r="AK6" s="27"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="29"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="42"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="L7" s="19" t="s">
+      <c r="J7" s="23"/>
+      <c r="L7" s="21" t="s">
         <v>326</v>
       </c>
       <c r="M7" s="8"/>
@@ -2328,8 +2352,8 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="21"/>
-      <c r="Z7" s="19" t="s">
+      <c r="R7" s="23"/>
+      <c r="Z7" s="21" t="s">
         <v>332</v>
       </c>
       <c r="AA7" s="8"/>
@@ -2339,39 +2363,39 @@
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="21"/>
+      <c r="AF7" s="23"/>
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="21"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="23"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="30" t="s">
         <v>36</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="21"/>
-      <c r="Z8" s="19"/>
+      <c r="R8" s="23"/>
+      <c r="Z8" s="21"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="28" t="s">
+      <c r="AC8" s="30" t="s">
         <v>35</v>
       </c>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="21"/>
+      <c r="AF8" s="23"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2380,19 +2404,19 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="21"/>
-      <c r="L9" s="19" t="s">
+      <c r="J9" s="23"/>
+      <c r="L9" s="21" t="s">
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="69"/>
-      <c r="P9" s="40"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="43"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="21"/>
-      <c r="Z9" s="19" t="s">
+      <c r="R9" s="23"/>
+      <c r="Z9" s="21" t="s">
         <v>333</v>
       </c>
       <c r="AA9" s="8"/>
@@ -2402,40 +2426,40 @@
       </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="21"/>
+      <c r="AF9" s="23"/>
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="21"/>
-      <c r="L10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="21"/>
-      <c r="Z10" s="19"/>
+      <c r="R10" s="23"/>
+      <c r="Z10" s="21"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="28" t="s">
+      <c r="AC10" s="30" t="s">
         <v>35</v>
       </c>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
-      <c r="AF10" s="21"/>
+      <c r="AF10" s="23"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
@@ -2446,8 +2470,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="21"/>
-      <c r="L11" s="19" t="s">
+      <c r="J11" s="23"/>
+      <c r="L11" s="21" t="s">
         <v>356</v>
       </c>
       <c r="M11" s="8"/>
@@ -2456,19 +2480,19 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="21"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="39" t="s">
+      <c r="R11" s="23"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="26"/>
-      <c r="AD11" s="26"/>
-      <c r="AE11" s="26"/>
-      <c r="AF11" s="27"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="29"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
@@ -2479,18 +2503,18 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="21"/>
-      <c r="L12" s="19"/>
+      <c r="J12" s="23"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="30" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="21"/>
+      <c r="R12" s="23"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2499,21 +2523,21 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="21"/>
-      <c r="L13" s="19" t="s">
+      <c r="J13" s="23"/>
+      <c r="L13" s="21" t="s">
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="69"/>
-      <c r="P13" s="40"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="43"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="21"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="8" t="s">
         <v>221</v>
       </c>
@@ -2522,19 +2546,19 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="L14" s="19"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="21"/>
+      <c r="R14" s="23"/>
     </row>
     <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="8" t="s">
         <v>222</v>
       </c>
@@ -2553,21 +2577,21 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="21"/>
-      <c r="L15" s="19" t="s">
+      <c r="J15" s="23"/>
+      <c r="L15" s="21" t="s">
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="69"/>
-      <c r="P15" s="40"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="43"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="21"/>
+      <c r="R15" s="23"/>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2576,17 +2600,17 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="21"/>
-      <c r="L16" s="19"/>
+      <c r="J16" s="23"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="21"/>
-    </row>
-    <row r="17" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
       <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
@@ -2605,8 +2629,8 @@
         <v>287</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="21"/>
-      <c r="L17" s="19" t="s">
+      <c r="J17" s="23"/>
+      <c r="L17" s="21" t="s">
         <v>322</v>
       </c>
       <c r="M17" s="8"/>
@@ -2615,10 +2639,10 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="21"/>
-    </row>
-    <row r="18" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="18" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
       <c r="B18" s="8">
         <v>1</v>
       </c>
@@ -2637,20 +2661,20 @@
         <v>31</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="8"/>
       <c r="N18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="21"/>
-    </row>
-    <row r="19" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
       <c r="B19" s="8">
         <v>2</v>
       </c>
@@ -2669,10 +2693,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="21" t="s">
         <v>330</v>
       </c>
       <c r="M19" s="8"/>
@@ -2681,10 +2705,10 @@
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="21"/>
-    </row>
-    <row r="20" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
@@ -2695,18 +2719,18 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="21"/>
-      <c r="L20" s="19"/>
+      <c r="J20" s="23"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="8"/>
       <c r="N20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="21"/>
-    </row>
-    <row r="21" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
       <c r="B21" s="8" t="s">
         <v>283</v>
       </c>
@@ -2717,144 +2741,146 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="21"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
+      <c r="J21" s="23"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
-    </row>
-    <row r="22" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="U23" s="29" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="U23" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="16"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="18"/>
-      <c r="AC23" s="29" t="s">
+      <c r="V23" s="18"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="20"/>
+      <c r="AC23" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="17"/>
-      <c r="AF23" s="17"/>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="17"/>
-      <c r="AI23" s="18"/>
-      <c r="AJ23" s="29" t="s">
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="17"/>
-      <c r="AO23" s="18"/>
-      <c r="AQ23" s="29" t="s">
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="20"/>
+      <c r="AQ23" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="17"/>
-      <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
-      <c r="AV23" s="18"/>
-      <c r="AW23" s="29" t="s">
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="19"/>
+      <c r="AT23" s="19"/>
+      <c r="AU23" s="19"/>
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="20"/>
+      <c r="AY23" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="AX23" s="17"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="17"/>
-      <c r="BA23" s="17"/>
-      <c r="BB23" s="29" t="s">
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+      <c r="BB23" s="19"/>
+      <c r="BC23" s="19"/>
+      <c r="BE23" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="18"/>
-    </row>
-    <row r="24" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U24" s="19"/>
+      <c r="BF23" s="19"/>
+      <c r="BG23" s="20"/>
+    </row>
+    <row r="24" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="21"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="21"/>
-      <c r="AC24" s="19"/>
+      <c r="AA24" s="23"/>
+      <c r="AC24" s="21"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="19"/>
+      <c r="AI24" s="23"/>
+      <c r="AJ24" s="21"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
-      <c r="AO24" s="21"/>
-      <c r="AQ24" s="19"/>
+      <c r="AO24" s="23"/>
+      <c r="AQ24" s="21"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
       <c r="AU24" s="8"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="19"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="23"/>
+      <c r="AY24" s="21"/>
       <c r="AZ24" s="8"/>
       <c r="BA24" s="8"/>
-      <c r="BB24" s="19"/>
+      <c r="BB24" s="8"/>
       <c r="BC24" s="8"/>
-      <c r="BD24" s="21"/>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="23"/>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="34" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="L25" s="29" t="s">
+      <c r="J25" s="19"/>
+      <c r="L25" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="29" t="s">
+      <c r="M25" s="18"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="18"/>
-      <c r="U25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="20"/>
+      <c r="U25" s="21"/>
       <c r="V25" s="8" t="s">
         <v>153</v>
       </c>
@@ -2862,8 +2888,8 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
-      <c r="AA25" s="21"/>
-      <c r="AC25" s="19" t="s">
+      <c r="AA25" s="23"/>
+      <c r="AC25" s="21" t="s">
         <v>351</v>
       </c>
       <c r="AD25" s="8" t="s">
@@ -2877,74 +2903,75 @@
       </c>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="21"/>
-      <c r="AJ25" s="19"/>
+      <c r="AI25" s="23"/>
+      <c r="AJ25" s="21"/>
       <c r="AK25" s="8" t="s">
         <v>165</v>
       </c>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
-      <c r="AO25" s="21"/>
-      <c r="AQ25" s="19" t="s">
+      <c r="AO25" s="23"/>
+      <c r="AQ25" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AR25" s="22"/>
+      <c r="AR25" s="24"/>
       <c r="AS25" s="8">
         <v>85000</v>
       </c>
-      <c r="AT25" s="22"/>
-      <c r="AU25" s="22"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="12" t="s">
+      <c r="AT25" s="24"/>
+      <c r="AU25" s="24"/>
+      <c r="AV25" s="24"/>
+      <c r="AW25" s="23"/>
+      <c r="AY25" s="21"/>
+      <c r="AZ25" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="AY25" s="8" t="s">
+      <c r="BA25" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="AZ25" s="8" t="s">
+      <c r="BB25" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="BA25" s="8"/>
-      <c r="BB25" s="19" t="s">
+      <c r="BC25" s="8"/>
+      <c r="BE25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BC25" s="8"/>
-      <c r="BD25" s="21" t="s">
+      <c r="BF25" s="8"/>
+      <c r="BG25" s="23" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="21"/>
-      <c r="H26" s="19"/>
+      <c r="F26" s="23"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="19"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="19"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="21"/>
       <c r="P26" s="8" t="s">
         <v>241</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="21"/>
-      <c r="U26" s="19"/>
+      <c r="S26" s="23"/>
+      <c r="U26" s="21"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="21"/>
-      <c r="AC26" s="19"/>
+      <c r="AA26" s="23"/>
+      <c r="AC26" s="21"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
@@ -2954,16 +2981,16 @@
       <c r="AH26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AI26" s="24">
+      <c r="AI26" s="26">
         <v>0</v>
       </c>
-      <c r="AJ26" s="19"/>
+      <c r="AJ26" s="21"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
-      <c r="AO26" s="21"/>
-      <c r="AQ26" s="19" t="s">
+      <c r="AO26" s="23"/>
+      <c r="AQ26" s="21" t="s">
         <v>44</v>
       </c>
       <c r="AR26" s="8" t="s">
@@ -2974,63 +3001,64 @@
         <v>46</v>
       </c>
       <c r="AU26" s="8"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="19"/>
-      <c r="AX26" s="8"/>
-      <c r="AY26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="23"/>
+      <c r="AY26" s="21"/>
       <c r="AZ26" s="8"/>
       <c r="BA26" s="8"/>
-      <c r="BB26" s="19" t="s">
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BE26" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="BC26" s="8"/>
-      <c r="BD26" s="21"/>
-    </row>
-    <row r="27" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="23"/>
+    </row>
+    <row r="27" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="21"/>
-      <c r="H27" s="70" t="s">
+      <c r="F27" s="23"/>
+      <c r="H27" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="L27" s="19" t="s">
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="L27" s="21" t="s">
         <v>229</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="19"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="21"/>
       <c r="P27" s="8" t="s">
         <v>242</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="21"/>
-      <c r="U27" s="19"/>
+      <c r="S27" s="23"/>
+      <c r="U27" s="21"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="21"/>
-      <c r="AC27" s="19"/>
+      <c r="AA27" s="23"/>
+      <c r="AC27" s="21"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="21"/>
-      <c r="AJ27" s="19"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="21"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="58"/>
-      <c r="AO27" s="21"/>
-      <c r="AQ27" s="19">
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="58"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="23"/>
+      <c r="AQ27" s="21">
         <v>1</v>
       </c>
       <c r="AR27" s="8" t="s">
@@ -3041,28 +3069,29 @@
         <v>55000</v>
       </c>
       <c r="AU27" s="8"/>
-      <c r="AV27" s="2" t="s">
+      <c r="AV27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AW27" s="19"/>
-      <c r="AX27" s="8" t="s">
+      <c r="AW27" s="23"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AY27" s="8" t="s">
+      <c r="BA27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AZ27" s="8" t="s">
+      <c r="BB27" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA27" s="8"/>
-      <c r="BB27" s="19" t="s">
+      <c r="BC27" s="8"/>
+      <c r="BE27" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="BC27" s="8"/>
-      <c r="BD27" s="21"/>
-    </row>
-    <row r="28" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
+      <c r="BF27" s="8"/>
+      <c r="BG27" s="23"/>
+    </row>
+    <row r="28" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
       <c r="B28" s="8" t="s">
         <v>321</v>
       </c>
@@ -3071,23 +3100,23 @@
         <v>34</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="21"/>
-      <c r="H28" s="51" t="s">
+      <c r="F28" s="23"/>
+      <c r="H28" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="L28" s="19"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="26" t="s">
+      <c r="N28" s="23"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="27"/>
-      <c r="U28" s="19"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="29"/>
+      <c r="U28" s="21"/>
       <c r="V28" s="8" t="s">
         <v>156</v>
       </c>
@@ -3095,21 +3124,21 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="21"/>
-      <c r="AC28" s="19"/>
+      <c r="AA28" s="23"/>
+      <c r="AC28" s="21"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="19"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="21"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="60"/>
-      <c r="AO28" s="21"/>
-      <c r="AQ28" s="19">
+      <c r="AL28" s="60"/>
+      <c r="AM28" s="50"/>
+      <c r="AN28" s="61"/>
+      <c r="AO28" s="23"/>
+      <c r="AQ28" s="21">
         <v>2</v>
       </c>
       <c r="AR28" s="8" t="s">
@@ -3120,73 +3149,75 @@
         <v>30000</v>
       </c>
       <c r="AU28" s="8"/>
-      <c r="AV28" s="2" t="s">
+      <c r="AV28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="26">
+      <c r="AW28" s="23"/>
+      <c r="AY28" s="27"/>
+      <c r="AZ28" s="28">
         <v>1</v>
       </c>
-      <c r="AY28" s="26" t="s">
+      <c r="BA28" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="19"/>
-      <c r="BC28" s="8"/>
-      <c r="BD28" s="21"/>
-    </row>
-    <row r="29" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="BB28" s="28"/>
+      <c r="BC28" s="28"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="8"/>
+      <c r="BG28" s="23"/>
+    </row>
+    <row r="29" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="30" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="21"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="L29" s="19" t="s">
+      <c r="F29" s="23"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="L29" s="21" t="s">
         <v>230</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="21"/>
-      <c r="U29" s="19"/>
+      <c r="N29" s="23"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
-      <c r="AA29" s="21"/>
-      <c r="AC29" s="19"/>
+      <c r="AA29" s="23"/>
+      <c r="AC29" s="21"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="19"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="21"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="21"/>
-      <c r="AQ29" s="19"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="64"/>
+      <c r="AO29" s="23"/>
+      <c r="AQ29" s="21"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
       <c r="AU29" s="8"/>
-      <c r="AV29" s="21"/>
-      <c r="BB29" s="19"/>
-      <c r="BC29" s="41" t="s">
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="23"/>
+      <c r="BE29" s="21"/>
+      <c r="BF29" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="BD29" s="42"/>
-    </row>
-    <row r="30" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="BG29" s="15"/>
+    </row>
+    <row r="30" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
       <c r="B30" s="8" t="s">
         <v>323</v>
       </c>
@@ -3195,162 +3226,183 @@
         <v>34</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="21"/>
-      <c r="L30" s="19" t="s">
+      <c r="F30" s="23"/>
+      <c r="L30" s="21" t="s">
         <v>231</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="N30" s="21"/>
+      <c r="N30" s="23"/>
       <c r="Q30" s="12" t="s">
         <v>92</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="55" t="s">
+      <c r="U30" s="21"/>
+      <c r="V30" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="55"/>
+      <c r="W30" s="56"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="21"/>
-      <c r="AC30" s="19"/>
+      <c r="AA30" s="23"/>
+      <c r="AC30" s="21"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="19"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="21"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
-      <c r="AO30" s="21"/>
-      <c r="AQ30" s="19"/>
-      <c r="AR30" s="8"/>
-      <c r="AS30" s="8"/>
-      <c r="AT30" s="8" t="s">
+      <c r="AO30" s="23"/>
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AU30" s="8" t="s">
+      <c r="AS30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AV30" s="21" t="s">
+      <c r="AT30" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV30" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW30" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="BB30" s="19"/>
-      <c r="BC30" s="41"/>
-      <c r="BD30" s="42"/>
-    </row>
-    <row r="31" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
+      <c r="BE30" s="21"/>
+      <c r="BF30" s="38"/>
+      <c r="BG30" s="15"/>
+    </row>
+    <row r="31" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="21"/>
-      <c r="L31" s="25" t="s">
+      <c r="F31" s="23"/>
+      <c r="L31" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="29"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="U31" s="19"/>
+      <c r="U31" s="21"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-      <c r="AA31" s="21"/>
-      <c r="AC31" s="19"/>
+      <c r="AA31" s="23"/>
+      <c r="AC31" s="21"/>
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="55" t="s">
+      <c r="AE31" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="55"/>
+      <c r="AF31" s="56"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="25"/>
-      <c r="AK31" s="26"/>
-      <c r="AL31" s="26"/>
-      <c r="AM31" s="35" t="s">
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="28"/>
+      <c r="AL31" s="28"/>
+      <c r="AM31" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="AN31" s="26"/>
-      <c r="AO31" s="27"/>
-      <c r="AQ31" s="19"/>
-      <c r="AR31" s="8"/>
-      <c r="AS31" s="8"/>
-      <c r="AT31" s="8">
+      <c r="AN31" s="28"/>
+      <c r="AO31" s="29"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="8">
         <v>1</v>
       </c>
-      <c r="AU31" s="8">
-        <v>15000</v>
-      </c>
-      <c r="AV31" s="36">
+      <c r="AS31" s="8">
+        <v>1500</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>1500</v>
+      </c>
+      <c r="AV31" s="74">
         <v>43821</v>
       </c>
-      <c r="BB31" s="25"/>
-      <c r="BC31" s="43"/>
-      <c r="BD31" s="44"/>
-    </row>
-    <row r="32" spans="1:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
+      <c r="AW31" s="74">
+        <v>44187</v>
+      </c>
+      <c r="BE31" s="27"/>
+      <c r="BF31" s="39"/>
+      <c r="BG31" s="16"/>
+    </row>
+    <row r="32" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="21"/>
-      <c r="U32" s="25"/>
-      <c r="V32" s="54" t="s">
+      <c r="F32" s="23"/>
+      <c r="U32" s="27"/>
+      <c r="V32" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="54"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="27"/>
-      <c r="AC32" s="19"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="29"/>
+      <c r="AC32" s="21"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AI32" s="21"/>
-      <c r="AQ32" s="19"/>
-      <c r="AR32" s="8"/>
-      <c r="AS32" s="8"/>
-      <c r="AT32" s="8">
+      <c r="AI32" s="23"/>
+      <c r="AQ32" s="27"/>
+      <c r="AR32" s="28">
         <v>2</v>
       </c>
-      <c r="AU32" s="8">
-        <v>15000</v>
-      </c>
-      <c r="AV32" s="36">
+      <c r="AS32" s="28">
+        <v>1500</v>
+      </c>
+      <c r="AT32">
+        <v>1000</v>
+      </c>
+      <c r="AU32">
+        <v>500</v>
+      </c>
+      <c r="AV32" s="76">
         <v>43861</v>
       </c>
+      <c r="AW32" s="76">
+        <v>44227</v>
+      </c>
     </row>
     <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="21"/>
-      <c r="O33" s="29" t="s">
+      <c r="F33" s="23"/>
+      <c r="O33" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="18"/>
-      <c r="AC33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="20"/>
+      <c r="AC33" s="21"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="12" t="s">
         <v>160</v>
@@ -3358,62 +3410,62 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="21"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="26"/>
-      <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
-      <c r="AV33" s="27"/>
+      <c r="AI33" s="23"/>
+      <c r="AQ33" s="8"/>
+      <c r="AR33" s="8"/>
+      <c r="AS33" s="8"/>
+      <c r="AT33" s="8"/>
+      <c r="AU33" s="8"/>
+      <c r="AV33" s="8"/>
     </row>
     <row r="34" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="21"/>
+      <c r="F34" s="23"/>
       <c r="K34" s="10"/>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="27"/>
-      <c r="AC34" s="19"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="29"/>
+      <c r="AC34" s="21"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="21"/>
+      <c r="AI34" s="23"/>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="21"/>
-      <c r="AC35" s="19"/>
+      <c r="F35" s="23"/>
+      <c r="AC35" s="21"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-      <c r="AI35" s="21"/>
+      <c r="AI35" s="23"/>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="21"/>
-      <c r="AC36" s="19" t="s">
+      <c r="F36" s="23"/>
+      <c r="AC36" s="21" t="s">
         <v>161</v>
       </c>
       <c r="AD36" s="8" t="s">
@@ -3423,18 +3475,18 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
-      <c r="AI36" s="21"/>
+      <c r="AI36" s="23"/>
     </row>
     <row r="37" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="33" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="AC37" s="19"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="AC37" s="21"/>
       <c r="AD37" s="8" t="s">
         <v>163</v>
       </c>
@@ -3442,10 +3494,10 @@
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
-      <c r="AI37" s="21"/>
+      <c r="AI37" s="23"/>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AC38" s="19"/>
+      <c r="AC38" s="21"/>
       <c r="AD38" s="8" t="s">
         <v>164</v>
       </c>
@@ -3453,37 +3505,37 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="21"/>
+      <c r="AI38" s="23"/>
     </row>
     <row r="39" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC39" s="25"/>
-      <c r="AD39" s="26"/>
-      <c r="AE39" s="26"/>
-      <c r="AF39" s="26"/>
-      <c r="AG39" s="26"/>
-      <c r="AH39" s="26"/>
-      <c r="AI39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="29"/>
     </row>
     <row r="45" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="18"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="18"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="20"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="37" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="40" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="8"/>
@@ -3494,15 +3546,15 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="21"/>
-      <c r="M47" s="38" t="s">
+      <c r="K47" s="23"/>
+      <c r="M47" s="41" t="s">
         <v>244</v>
       </c>
       <c r="N47" s="8"/>
-      <c r="O47" s="21"/>
+      <c r="O47" s="23"/>
     </row>
     <row r="48" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3516,92 +3568,92 @@
       <c r="J48" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K48" s="21"/>
-      <c r="M48" s="19"/>
+      <c r="K48" s="23"/>
+      <c r="M48" s="21"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="21"/>
+      <c r="O48" s="23"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K49" s="21"/>
-      <c r="M49" s="19" t="s">
+      <c r="K49" s="23"/>
+      <c r="M49" s="21" t="s">
         <v>245</v>
       </c>
       <c r="N49" s="8"/>
-      <c r="O49" s="21"/>
+      <c r="O49" s="23"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="51"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K50" s="21"/>
-      <c r="M50" s="19"/>
+      <c r="K50" s="23"/>
+      <c r="M50" s="21"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="21"/>
+      <c r="O50" s="23"/>
     </row>
     <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="50"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="51"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="21"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="27"/>
+      <c r="K51" s="23"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="29"/>
     </row>
     <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="53"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="21"/>
+      <c r="K52" s="23"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="27"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="29"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3610,10 +3662,10 @@
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="39" t="s">
+      <c r="C57" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="40"/>
+      <c r="D57" s="43"/>
       <c r="G57" s="1" t="s">
         <v>64</v>
       </c>
@@ -3633,10 +3685,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="40"/>
+      <c r="D59" s="43"/>
       <c r="F59" t="s">
         <v>65</v>
       </c>
@@ -3671,10 +3723,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="40"/>
+      <c r="D61" s="43"/>
       <c r="F61" t="s">
         <v>44</v>
       </c>
@@ -3728,10 +3780,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="39" t="s">
+      <c r="C63" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="D63" s="40"/>
+      <c r="D63" s="43"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -3767,19 +3819,19 @@
       <c r="N64" t="s">
         <v>336</v>
       </c>
-      <c r="P64" s="39" t="s">
+      <c r="P64" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Q64" s="40"/>
+      <c r="Q64" s="43"/>
       <c r="R64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="43"/>
       <c r="R65" t="s">
         <v>77</v>
       </c>
@@ -3794,10 +3846,10 @@
       </c>
     </row>
     <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="40"/>
+      <c r="D67" s="43"/>
       <c r="P67" t="s">
         <v>279</v>
       </c>
@@ -3915,10 +3967,10 @@
       <c r="P75" t="s">
         <v>339</v>
       </c>
-      <c r="R75" s="39" t="s">
+      <c r="R75" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="40"/>
+      <c r="S75" s="43"/>
       <c r="W75" t="s">
         <v>93</v>
       </c>
@@ -4163,16 +4215,16 @@
       <c r="K103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N103" s="68" t="s">
+      <c r="N103" s="69" t="s">
         <v>318</v>
       </c>
-      <c r="O103" s="68"/>
-      <c r="P103" s="68"/>
+      <c r="O103" s="69"/>
+      <c r="P103" s="69"/>
     </row>
     <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="68"/>
-      <c r="O104" s="68"/>
-      <c r="P104" s="68"/>
+      <c r="N104" s="69"/>
+      <c r="O104" s="69"/>
+      <c r="P104" s="69"/>
     </row>
     <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
@@ -4184,14 +4236,14 @@
       <c r="K105" t="s">
         <v>102</v>
       </c>
-      <c r="N105" s="68"/>
-      <c r="O105" s="68"/>
-      <c r="P105" s="68"/>
+      <c r="N105" s="69"/>
+      <c r="O105" s="69"/>
+      <c r="P105" s="69"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N106" s="68"/>
-      <c r="O106" s="68"/>
-      <c r="P106" s="68"/>
+      <c r="N106" s="69"/>
+      <c r="O106" s="69"/>
+      <c r="P106" s="69"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -4201,10 +4253,10 @@
     </row>
     <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="39" t="s">
+      <c r="C110" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="D110" s="40"/>
+      <c r="D110" s="43"/>
       <c r="F110" s="1" t="s">
         <v>106</v>
       </c>
@@ -4220,10 +4272,10 @@
     </row>
     <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="39" t="s">
+      <c r="C112" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="40"/>
+      <c r="D112" s="43"/>
       <c r="F112" t="s">
         <v>28</v>
       </c>
@@ -4514,7 +4566,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="26">
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="N103:P106"/>
     <mergeCell ref="N13:P13"/>
@@ -4538,7 +4590,6 @@
     <mergeCell ref="P64:Q64"/>
     <mergeCell ref="V30:W30"/>
     <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="BC29:BD31"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C61:D61"/>
@@ -4552,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4783,10 +4834,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,7 +4846,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4955,6 +5006,46 @@
       </c>
       <c r="E9" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -1673,13 +1673,49 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1701,12 +1737,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1742,36 +1772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG134"/>
   <sheetViews>
-    <sheetView topLeftCell="AK21" workbookViewId="0">
-      <selection activeCell="AU33" sqref="AU33"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,15 +2228,15 @@
     </row>
     <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="66"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2286,13 +2286,13 @@
     </row>
     <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2332,11 +2332,11 @@
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="44"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2367,11 +2367,11 @@
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2409,11 +2409,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="42" t="s">
+      <c r="N9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="43"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="46"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="23"/>
       <c r="Z9" s="21" t="s">
@@ -2430,10 +2430,10 @@
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2482,10 +2482,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="23"/>
       <c r="Z11" s="27"/>
-      <c r="AA11" s="42" t="s">
+      <c r="AA11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="43"/>
+      <c r="AB11" s="46"/>
       <c r="AC11" s="28"/>
       <c r="AD11" s="28"/>
       <c r="AE11" s="28"/>
@@ -2528,11 +2528,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="42" t="s">
+      <c r="N13" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="70"/>
-      <c r="P13" s="43"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="46"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="23"/>
     </row>
@@ -2582,11 +2582,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="42" t="s">
+      <c r="N15" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="70"/>
-      <c r="P15" s="43"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="46"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="23"/>
     </row>
@@ -3021,11 +3021,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="23"/>
-      <c r="H27" s="71" t="s">
+      <c r="H27" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
       <c r="L27" s="21" t="s">
         <v>229</v>
       </c>
@@ -3054,9 +3054,9 @@
       <c r="AI27" s="23"/>
       <c r="AJ27" s="21"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="58"/>
-      <c r="AN27" s="59"/>
+      <c r="AL27" s="69"/>
+      <c r="AM27" s="70"/>
+      <c r="AN27" s="71"/>
       <c r="AO27" s="23"/>
       <c r="AQ27" s="21">
         <v>1</v>
@@ -3101,11 +3101,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="23"/>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
       <c r="L28" s="21"/>
       <c r="M28" s="8"/>
       <c r="N28" s="23"/>
@@ -3134,9 +3134,9 @@
       <c r="AI28" s="23"/>
       <c r="AJ28" s="21"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="50"/>
-      <c r="AN28" s="61"/>
+      <c r="AL28" s="72"/>
+      <c r="AM28" s="64"/>
+      <c r="AN28" s="73"/>
       <c r="AO28" s="23"/>
       <c r="AQ28" s="21">
         <v>2</v>
@@ -3175,9 +3175,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="23"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
       <c r="L29" s="21" t="s">
         <v>230</v>
       </c>
@@ -3199,9 +3199,9 @@
       <c r="AI29" s="23"/>
       <c r="AJ29" s="21"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="63"/>
-      <c r="AN29" s="64"/>
+      <c r="AL29" s="74"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="76"/>
       <c r="AO29" s="23"/>
       <c r="AQ29" s="21"/>
       <c r="AR29" s="8"/>
@@ -3238,10 +3238,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="21"/>
-      <c r="V30" s="56" t="s">
+      <c r="V30" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="56"/>
+      <c r="W30" s="68"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3275,7 +3275,7 @@
       <c r="AV30" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="AW30" s="75" t="s">
+      <c r="AW30" s="43" t="s">
         <v>51</v>
       </c>
       <c r="BE30" s="21"/>
@@ -3309,10 +3309,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="56" t="s">
+      <c r="AE31" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="56"/>
+      <c r="AF31" s="68"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="23"/>
@@ -3337,10 +3337,10 @@
       <c r="AU31">
         <v>1500</v>
       </c>
-      <c r="AV31" s="74">
+      <c r="AV31" s="42">
         <v>43821</v>
       </c>
-      <c r="AW31" s="74">
+      <c r="AW31" s="42">
         <v>44187</v>
       </c>
       <c r="BE31" s="27"/>
@@ -3355,10 +3355,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="23"/>
       <c r="U32" s="27"/>
-      <c r="V32" s="55" t="s">
+      <c r="V32" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="55"/>
+      <c r="W32" s="67"/>
       <c r="X32" s="28"/>
       <c r="Y32" s="28"/>
       <c r="Z32" s="28"/>
@@ -3383,10 +3383,10 @@
       <c r="AU32">
         <v>500</v>
       </c>
-      <c r="AV32" s="76">
+      <c r="AV32" s="44">
         <v>43861</v>
       </c>
-      <c r="AW32" s="76">
+      <c r="AW32" s="44">
         <v>44227</v>
       </c>
     </row>
@@ -3576,14 +3576,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="62"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3598,12 +3598,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="51"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="65"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3616,12 +3616,12 @@
     <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="21"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="65"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="23"/>
@@ -3632,12 +3632,12 @@
     <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="66"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="23"/>
@@ -3662,10 +3662,10 @@
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="43"/>
+      <c r="D57" s="46"/>
       <c r="G57" s="1" t="s">
         <v>64</v>
       </c>
@@ -3685,10 +3685,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="43"/>
+      <c r="D59" s="46"/>
       <c r="F59" t="s">
         <v>65</v>
       </c>
@@ -3723,10 +3723,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="43"/>
+      <c r="D61" s="46"/>
       <c r="F61" t="s">
         <v>44</v>
       </c>
@@ -3780,10 +3780,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="D63" s="43"/>
+      <c r="D63" s="46"/>
       <c r="F63">
         <v>2</v>
       </c>
@@ -3819,19 +3819,19 @@
       <c r="N64" t="s">
         <v>336</v>
       </c>
-      <c r="P64" s="42" t="s">
+      <c r="P64" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="Q64" s="43"/>
+      <c r="Q64" s="46"/>
       <c r="R64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="43"/>
+      <c r="D65" s="46"/>
       <c r="R65" t="s">
         <v>77</v>
       </c>
@@ -3846,10 +3846,10 @@
       </c>
     </row>
     <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="43"/>
+      <c r="D67" s="46"/>
       <c r="P67" t="s">
         <v>279</v>
       </c>
@@ -3967,10 +3967,10 @@
       <c r="P75" t="s">
         <v>339</v>
       </c>
-      <c r="R75" s="42" t="s">
+      <c r="R75" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="43"/>
+      <c r="S75" s="46"/>
       <c r="W75" t="s">
         <v>93</v>
       </c>
@@ -4215,16 +4215,16 @@
       <c r="K103" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N103" s="69" t="s">
+      <c r="N103" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="O103" s="69"/>
-      <c r="P103" s="69"/>
+      <c r="O103" s="47"/>
+      <c r="P103" s="47"/>
     </row>
     <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="69"/>
-      <c r="O104" s="69"/>
-      <c r="P104" s="69"/>
+      <c r="N104" s="47"/>
+      <c r="O104" s="47"/>
+      <c r="P104" s="47"/>
     </row>
     <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
@@ -4236,14 +4236,14 @@
       <c r="K105" t="s">
         <v>102</v>
       </c>
-      <c r="N105" s="69"/>
-      <c r="O105" s="69"/>
-      <c r="P105" s="69"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="47"/>
     </row>
     <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N106" s="69"/>
-      <c r="O106" s="69"/>
-      <c r="P106" s="69"/>
+      <c r="N106" s="47"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="47"/>
     </row>
     <row r="108" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
@@ -4253,10 +4253,10 @@
     </row>
     <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="42" t="s">
+      <c r="C110" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D110" s="43"/>
+      <c r="D110" s="46"/>
       <c r="F110" s="1" t="s">
         <v>106</v>
       </c>
@@ -4272,10 +4272,10 @@
     </row>
     <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="42" t="s">
+      <c r="C112" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="43"/>
+      <c r="D112" s="46"/>
       <c r="F112" t="s">
         <v>28</v>
       </c>
@@ -4567,32 +4567,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="N103:P106"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="V30:W30"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:C8"/>
     <mergeCell ref="E5:F8"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="C49:H52"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="N103:P106"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N9:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4836,7 +4836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="396">
   <si>
     <t>NO.</t>
   </si>
@@ -1264,6 +1264,78 @@
   </si>
   <si>
     <t>Ngày tích lũy</t>
+  </si>
+  <si>
+    <t>Kem cheese</t>
+  </si>
+  <si>
+    <t>sửa</t>
+  </si>
+  <si>
+    <t>xoá</t>
+  </si>
+  <si>
+    <t>Quản lý topping</t>
+  </si>
+  <si>
+    <t>Topping</t>
+  </si>
+  <si>
+    <t>Add/edit topping</t>
+  </si>
+  <si>
+    <t>Bạn có muốn xoá topping này?</t>
+  </si>
+  <si>
+    <t>Topping:*</t>
+  </si>
+  <si>
+    <t>có / không</t>
+  </si>
+  <si>
+    <t>đóng / mở</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>CusRes</t>
+  </si>
+  <si>
+    <t>Chào mừng tới nhà hàng Abc Xyz</t>
+  </si>
+  <si>
+    <t>Hướng dẫn sử dụng:</t>
+  </si>
+  <si>
+    <t>1. Truy cập website cusres.vn</t>
+  </si>
+  <si>
+    <t>2. Nhấn vào nút "Quét QR code"</t>
+  </si>
+  <si>
+    <t>4. Chọn món hoặc gửi yêu cầu tới nhân viên trong màn hình hiện ra</t>
+  </si>
+  <si>
+    <t>5. Chờ xác nhận từ bếp</t>
+  </si>
+  <si>
+    <t>QR CODE</t>
+  </si>
+  <si>
+    <t>3. Quét QR code phía trên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ứng dụng đặt món tại bàn và gửi yêu cầu tới nhân viên nhà hàng </t>
+  </si>
+  <si>
+    <t>thông qua website: cusres.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Đăng nhập tài khoản để tích điểm trong mỗi lần order, </t>
+  </si>
+  <si>
+    <t>điểm này có thể mua nhiều khuyến mãi từ nhà hàng</t>
   </si>
 </sst>
 </file>
@@ -1632,12 +1704,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1685,22 +1751,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1733,43 +1820,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2076,10 +2148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG134"/>
+  <dimension ref="A1:BG175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,93 +2172,93 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="T2" s="31" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="T2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="18" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="19"/>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="20"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="18"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="20"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="18"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="L3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="23"/>
-      <c r="T3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="T3" s="19"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
       <c r="X3" s="8"/>
-      <c r="Z3" s="21"/>
+      <c r="Z3" s="19"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
-      <c r="AF3" s="23"/>
-      <c r="AH3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AH3" s="19"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
-      <c r="AK3" s="23"/>
+      <c r="AK3" s="21"/>
     </row>
     <row r="4" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2201,42 +2273,42 @@
       <c r="I4" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="L4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="23"/>
-      <c r="T4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="T4" s="19"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
-      <c r="Z4" s="21"/>
+      <c r="Z4" s="19"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
-      <c r="AF4" s="23"/>
-      <c r="AH4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AH4" s="19"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="23"/>
+      <c r="AK4" s="21"/>
     </row>
     <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="54" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2244,8 +2316,8 @@
       <c r="I5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="L5" s="21" t="s">
+      <c r="J5" s="21"/>
+      <c r="L5" s="19" t="s">
         <v>325</v>
       </c>
       <c r="M5" s="8"/>
@@ -2254,8 +2326,8 @@
       </c>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="23"/>
-      <c r="T5" s="21" t="s">
+      <c r="R5" s="21"/>
+      <c r="T5" s="19" t="s">
         <v>331</v>
       </c>
       <c r="U5" s="2"/>
@@ -2264,7 +2336,7 @@
         <v>31</v>
       </c>
       <c r="X5" s="8"/>
-      <c r="Z5" s="21" t="s">
+      <c r="Z5" s="19" t="s">
         <v>326</v>
       </c>
       <c r="AA5" s="8"/>
@@ -2274,8 +2346,8 @@
       </c>
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
-      <c r="AF5" s="23"/>
-      <c r="AH5" s="21" t="s">
+      <c r="AF5" s="21"/>
+      <c r="AH5" s="19" t="s">
         <v>331</v>
       </c>
       <c r="AI5" s="2"/>
@@ -2285,14 +2357,14 @@
       </c>
     </row>
     <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2300,50 +2372,50 @@
       <c r="I6" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="23"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="32" t="s">
+      <c r="R6" s="21"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Z6" s="21"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Z6" s="19"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="30" t="s">
+      <c r="AC6" s="28" t="s">
         <v>36</v>
       </c>
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
-      <c r="AF6" s="23"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="32" t="s">
+      <c r="AF6" s="21"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="29"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="27"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="L7" s="21" t="s">
+      <c r="J7" s="21"/>
+      <c r="L7" s="19" t="s">
         <v>326</v>
       </c>
       <c r="M7" s="8"/>
@@ -2352,8 +2424,8 @@
       </c>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="23"/>
-      <c r="Z7" s="21" t="s">
+      <c r="R7" s="21"/>
+      <c r="Z7" s="19" t="s">
         <v>332</v>
       </c>
       <c r="AA7" s="8"/>
@@ -2363,39 +2435,39 @@
       </c>
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
-      <c r="AF7" s="23"/>
+      <c r="AF7" s="21"/>
     </row>
     <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="23"/>
-      <c r="L8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="30" t="s">
+      <c r="N8" s="28" t="s">
         <v>36</v>
       </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="23"/>
-      <c r="Z8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="Z8" s="19"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
-      <c r="AC8" s="30" t="s">
+      <c r="AC8" s="28" t="s">
         <v>35</v>
       </c>
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
-      <c r="AF8" s="23"/>
+      <c r="AF8" s="21"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -2404,19 +2476,19 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="23"/>
-      <c r="L9" s="21" t="s">
+      <c r="J9" s="21"/>
+      <c r="L9" s="19" t="s">
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="45" t="s">
+      <c r="N9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="46"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="23"/>
-      <c r="Z9" s="21" t="s">
+      <c r="R9" s="21"/>
+      <c r="Z9" s="19" t="s">
         <v>333</v>
       </c>
       <c r="AA9" s="8"/>
@@ -2426,40 +2498,40 @@
       </c>
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
-      <c r="AF9" s="23"/>
+      <c r="AF9" s="21"/>
     </row>
     <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="23"/>
-      <c r="L10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="23"/>
-      <c r="Z10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="Z10" s="19"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="30" t="s">
+      <c r="AC10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
-      <c r="AF10" s="23"/>
+      <c r="AF10" s="21"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
@@ -2470,8 +2542,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="23"/>
-      <c r="L11" s="21" t="s">
+      <c r="J11" s="21"/>
+      <c r="L11" s="19" t="s">
         <v>356</v>
       </c>
       <c r="M11" s="8"/>
@@ -2480,19 +2552,19 @@
       </c>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
-      <c r="R11" s="23"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="45" t="s">
+      <c r="R11" s="21"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="29"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="27"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
@@ -2503,18 +2575,18 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="23"/>
-      <c r="L12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="30" t="s">
+      <c r="N12" s="28" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="23"/>
+      <c r="R12" s="21"/>
     </row>
     <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2523,21 +2595,21 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="23"/>
-      <c r="L13" s="21" t="s">
+      <c r="J13" s="21"/>
+      <c r="L13" s="19" t="s">
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="46"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="8"/>
-      <c r="R13" s="23"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>221</v>
       </c>
@@ -2546,19 +2618,19 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="L14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="23"/>
+      <c r="R14" s="21"/>
     </row>
     <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="8" t="s">
         <v>222</v>
       </c>
@@ -2577,21 +2649,21 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="23"/>
-      <c r="L15" s="21" t="s">
+      <c r="J15" s="21"/>
+      <c r="L15" s="19" t="s">
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="46"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="23"/>
+      <c r="R15" s="21"/>
     </row>
     <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2600,17 +2672,17 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="23"/>
-      <c r="L16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="23"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
@@ -2629,8 +2701,8 @@
         <v>287</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="23"/>
-      <c r="L17" s="21" t="s">
+      <c r="J17" s="21"/>
+      <c r="L17" s="19" t="s">
         <v>322</v>
       </c>
       <c r="M17" s="8"/>
@@ -2639,10 +2711,10 @@
       </c>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="23"/>
+      <c r="R17" s="21"/>
     </row>
     <row r="18" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="8">
         <v>1</v>
       </c>
@@ -2661,20 +2733,20 @@
         <v>31</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="L18" s="21"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="8"/>
       <c r="N18" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
-      <c r="R18" s="23"/>
+      <c r="R18" s="21"/>
     </row>
     <row r="19" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="8">
         <v>2</v>
       </c>
@@ -2693,10 +2765,10 @@
         <v>15</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="19" t="s">
         <v>330</v>
       </c>
       <c r="M19" s="8"/>
@@ -2705,10 +2777,10 @@
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
-      <c r="R19" s="23"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8" t="s">
@@ -2719,18 +2791,18 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="23"/>
-      <c r="L20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="8"/>
       <c r="N20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
-      <c r="R20" s="23"/>
+      <c r="R20" s="21"/>
     </row>
     <row r="21" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
         <v>283</v>
       </c>
@@ -2741,146 +2813,146 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="23"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
+      <c r="J21" s="21"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="29"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
     </row>
     <row r="22" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="U23" s="31" t="s">
+      <c r="U23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="20"/>
-      <c r="AC23" s="31" t="s">
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="18"/>
+      <c r="AC23" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="20"/>
-      <c r="AJ23" s="31" t="s">
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="20"/>
-      <c r="AQ23" s="31" t="s">
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="18"/>
+      <c r="AQ23" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="20"/>
-      <c r="AY23" s="31" t="s">
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
+      <c r="AT23" s="17"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="17"/>
+      <c r="AW23" s="18"/>
+      <c r="AY23" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19"/>
-      <c r="BE23" s="31" t="s">
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="17"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="17"/>
+      <c r="BE23" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="BF23" s="19"/>
-      <c r="BG23" s="20"/>
+      <c r="BF23" s="17"/>
+      <c r="BG23" s="18"/>
     </row>
     <row r="24" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U24" s="21"/>
+      <c r="U24" s="19"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="23"/>
-      <c r="AC24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AC24" s="19"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="19"/>
       <c r="AK24" s="8"/>
       <c r="AL24" s="8"/>
       <c r="AM24" s="8"/>
       <c r="AN24" s="8"/>
-      <c r="AO24" s="23"/>
-      <c r="AQ24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AQ24" s="19"/>
       <c r="AR24" s="8"/>
       <c r="AS24" s="8"/>
       <c r="AT24" s="8"/>
       <c r="AU24" s="8"/>
       <c r="AV24" s="8"/>
-      <c r="AW24" s="23"/>
-      <c r="AY24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AY24" s="19"/>
       <c r="AZ24" s="8"/>
       <c r="BA24" s="8"/>
       <c r="BB24" s="8"/>
       <c r="BC24" s="8"/>
-      <c r="BE24" s="21"/>
+      <c r="BE24" s="19"/>
       <c r="BF24" s="8"/>
-      <c r="BG24" s="23"/>
+      <c r="BG24" s="21"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="36" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="J25" s="19"/>
-      <c r="L25" s="31" t="s">
+      <c r="J25" s="17"/>
+      <c r="L25" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="31" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="20"/>
-      <c r="U25" s="21"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="18"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="8" t="s">
         <v>153</v>
       </c>
@@ -2888,8 +2960,8 @@
       <c r="X25" s="8"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
-      <c r="AA25" s="23"/>
-      <c r="AC25" s="21" t="s">
+      <c r="AA25" s="21"/>
+      <c r="AC25" s="19" t="s">
         <v>351</v>
       </c>
       <c r="AD25" s="8" t="s">
@@ -2903,27 +2975,27 @@
       </c>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="21"/>
+      <c r="AI25" s="21"/>
+      <c r="AJ25" s="19"/>
       <c r="AK25" s="8" t="s">
         <v>165</v>
       </c>
       <c r="AL25" s="8"/>
       <c r="AM25" s="8"/>
       <c r="AN25" s="8"/>
-      <c r="AO25" s="23"/>
-      <c r="AQ25" s="21" t="s">
+      <c r="AO25" s="21"/>
+      <c r="AQ25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AR25" s="24"/>
+      <c r="AR25" s="22"/>
       <c r="AS25" s="8">
         <v>85000</v>
       </c>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="24"/>
-      <c r="AW25" s="23"/>
-      <c r="AY25" s="21"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="21"/>
+      <c r="AY25" s="19"/>
       <c r="AZ25" s="12" t="s">
         <v>233</v>
       </c>
@@ -2934,44 +3006,44 @@
         <v>235</v>
       </c>
       <c r="BC25" s="8"/>
-      <c r="BE25" s="21" t="s">
+      <c r="BE25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="BF25" s="8"/>
-      <c r="BG25" s="23" t="s">
+      <c r="BG25" s="21" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="23"/>
-      <c r="H26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="19"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="L26" s="21"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="8" t="s">
         <v>241</v>
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="23"/>
-      <c r="U26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="8"/>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="23"/>
-      <c r="AC26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AC26" s="19"/>
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
       <c r="AF26" s="8"/>
@@ -2981,16 +3053,16 @@
       <c r="AH26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AI26" s="26">
+      <c r="AI26" s="24">
         <v>0</v>
       </c>
-      <c r="AJ26" s="21"/>
+      <c r="AJ26" s="19"/>
       <c r="AK26" s="8"/>
       <c r="AL26" s="8"/>
       <c r="AM26" s="8"/>
       <c r="AN26" s="8"/>
-      <c r="AO26" s="23"/>
-      <c r="AQ26" s="21" t="s">
+      <c r="AO26" s="21"/>
+      <c r="AQ26" s="19" t="s">
         <v>44</v>
       </c>
       <c r="AR26" s="8" t="s">
@@ -3002,63 +3074,63 @@
       </c>
       <c r="AU26" s="8"/>
       <c r="AV26" s="8"/>
-      <c r="AW26" s="23"/>
-      <c r="AY26" s="21"/>
+      <c r="AW26" s="21"/>
+      <c r="AY26" s="19"/>
       <c r="AZ26" s="8"/>
       <c r="BA26" s="8"/>
       <c r="BB26" s="8"/>
       <c r="BC26" s="8"/>
-      <c r="BE26" s="21" t="s">
+      <c r="BE26" s="19" t="s">
         <v>237</v>
       </c>
       <c r="BF26" s="8"/>
-      <c r="BG26" s="23"/>
+      <c r="BG26" s="21"/>
     </row>
     <row r="27" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="23"/>
-      <c r="H27" s="49" t="s">
+      <c r="F27" s="21"/>
+      <c r="H27" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="L27" s="21" t="s">
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
       <c r="M27" s="8"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="8" t="s">
         <v>242</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
-      <c r="S27" s="23"/>
-      <c r="U27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="23"/>
-      <c r="AC27" s="21"/>
+      <c r="AA27" s="21"/>
+      <c r="AC27" s="19"/>
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="23"/>
-      <c r="AJ27" s="21"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="69"/>
-      <c r="AM27" s="70"/>
-      <c r="AN27" s="71"/>
-      <c r="AO27" s="23"/>
-      <c r="AQ27" s="21">
+      <c r="AL27" s="50"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="21"/>
+      <c r="AQ27" s="19">
         <v>1</v>
       </c>
       <c r="AR27" s="8" t="s">
@@ -3072,8 +3144,8 @@
       <c r="AV27" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AW27" s="23"/>
-      <c r="AY27" s="21"/>
+      <c r="AW27" s="21"/>
+      <c r="AY27" s="19"/>
       <c r="AZ27" s="8" t="s">
         <v>44</v>
       </c>
@@ -3084,14 +3156,14 @@
         <v>51</v>
       </c>
       <c r="BC27" s="8"/>
-      <c r="BE27" s="21" t="s">
+      <c r="BE27" s="19" t="s">
         <v>238</v>
       </c>
       <c r="BF27" s="8"/>
-      <c r="BG27" s="23"/>
+      <c r="BG27" s="21"/>
     </row>
     <row r="28" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="8" t="s">
         <v>321</v>
       </c>
@@ -3100,23 +3172,23 @@
         <v>34</v>
       </c>
       <c r="E28" s="8"/>
-      <c r="F28" s="23"/>
-      <c r="H28" s="51" t="s">
+      <c r="F28" s="21"/>
+      <c r="H28" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="L28" s="21"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28" t="s">
+      <c r="N28" s="21"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="29"/>
-      <c r="U28" s="21"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="27"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="8" t="s">
         <v>156</v>
       </c>
@@ -3124,21 +3196,21 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="23"/>
-      <c r="AC28" s="21"/>
+      <c r="AA28" s="21"/>
+      <c r="AC28" s="19"/>
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="21"/>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="72"/>
-      <c r="AM28" s="64"/>
-      <c r="AN28" s="73"/>
-      <c r="AO28" s="23"/>
-      <c r="AQ28" s="21">
+      <c r="AL28" s="53"/>
+      <c r="AM28" s="54"/>
+      <c r="AN28" s="55"/>
+      <c r="AO28" s="21"/>
+      <c r="AQ28" s="19">
         <v>2</v>
       </c>
       <c r="AR28" s="8" t="s">
@@ -3152,72 +3224,72 @@
       <c r="AV28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AW28" s="23"/>
-      <c r="AY28" s="27"/>
-      <c r="AZ28" s="28">
+      <c r="AW28" s="21"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="26">
         <v>1</v>
       </c>
-      <c r="BA28" s="28" t="s">
+      <c r="BA28" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="BB28" s="28"/>
-      <c r="BC28" s="28"/>
-      <c r="BE28" s="21"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BE28" s="19"/>
       <c r="BF28" s="8"/>
-      <c r="BG28" s="23"/>
+      <c r="BG28" s="21"/>
     </row>
     <row r="29" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="28" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="23"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="L29" s="21" t="s">
+      <c r="F29" s="21"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
       <c r="M29" s="8"/>
-      <c r="N29" s="23"/>
-      <c r="U29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
-      <c r="AA29" s="23"/>
-      <c r="AC29" s="21"/>
+      <c r="AA29" s="21"/>
+      <c r="AC29" s="19"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="23"/>
-      <c r="AJ29" s="21"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="74"/>
-      <c r="AM29" s="75"/>
-      <c r="AN29" s="76"/>
-      <c r="AO29" s="23"/>
-      <c r="AQ29" s="21"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="58"/>
+      <c r="AO29" s="21"/>
+      <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
       <c r="AU29" s="8"/>
       <c r="AV29" s="8"/>
-      <c r="AW29" s="23"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="38" t="s">
+      <c r="AW29" s="21"/>
+      <c r="BE29" s="19"/>
+      <c r="BF29" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="BG29" s="15"/>
+      <c r="BG29" s="13"/>
     </row>
     <row r="30" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="8" t="s">
         <v>323</v>
       </c>
@@ -3226,40 +3298,40 @@
         <v>34</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="23"/>
-      <c r="L30" s="21" t="s">
+      <c r="F30" s="21"/>
+      <c r="L30" s="19" t="s">
         <v>231</v>
       </c>
       <c r="M30" s="8"/>
-      <c r="N30" s="23"/>
+      <c r="N30" s="21"/>
       <c r="Q30" s="12" t="s">
         <v>92</v>
       </c>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="68" t="s">
+      <c r="U30" s="19"/>
+      <c r="V30" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="68"/>
+      <c r="W30" s="49"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="23"/>
-      <c r="AC30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AC30" s="19"/>
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="23"/>
-      <c r="AJ30" s="21"/>
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="19"/>
       <c r="AK30" s="8"/>
       <c r="AL30" s="8"/>
       <c r="AM30" s="8"/>
       <c r="AN30" s="8"/>
-      <c r="AO30" s="23"/>
-      <c r="AQ30" s="21"/>
+      <c r="AO30" s="21"/>
+      <c r="AQ30" s="19"/>
       <c r="AR30" s="8" t="s">
         <v>44</v>
       </c>
@@ -3275,56 +3347,56 @@
       <c r="AV30" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="AW30" s="43" t="s">
+      <c r="AW30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="38"/>
-      <c r="BG30" s="15"/>
+      <c r="BE30" s="19"/>
+      <c r="BF30" s="36"/>
+      <c r="BG30" s="13"/>
     </row>
     <row r="31" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="8"/>
-      <c r="F31" s="23"/>
-      <c r="L31" s="27" t="s">
+      <c r="F31" s="21"/>
+      <c r="L31" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="U31" s="21"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-      <c r="AA31" s="23"/>
-      <c r="AC31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AC31" s="19"/>
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="68" t="s">
+      <c r="AE31" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="68"/>
+      <c r="AF31" s="49"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="23"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="37" t="s">
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="29"/>
-      <c r="AQ31" s="21"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="27"/>
+      <c r="AQ31" s="19"/>
       <c r="AR31" s="8">
         <v>1</v>
       </c>
@@ -3337,44 +3409,44 @@
       <c r="AU31">
         <v>1500</v>
       </c>
-      <c r="AV31" s="42">
+      <c r="AV31" s="40">
         <v>43821</v>
       </c>
-      <c r="AW31" s="42">
+      <c r="AW31" s="40">
         <v>44187</v>
       </c>
-      <c r="BE31" s="27"/>
-      <c r="BF31" s="39"/>
-      <c r="BG31" s="16"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="37"/>
+      <c r="BG31" s="14"/>
     </row>
     <row r="32" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="23"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="67" t="s">
+      <c r="F32" s="21"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="67"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="29"/>
-      <c r="AC32" s="21"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="27"/>
+      <c r="AC32" s="19"/>
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AI32" s="23"/>
-      <c r="AQ32" s="27"/>
-      <c r="AR32" s="28">
+      <c r="AI32" s="21"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="26">
         <v>2</v>
       </c>
-      <c r="AS32" s="28">
+      <c r="AS32" s="26">
         <v>1500</v>
       </c>
       <c r="AT32">
@@ -3383,26 +3455,26 @@
       <c r="AU32">
         <v>500</v>
       </c>
-      <c r="AV32" s="44">
+      <c r="AV32" s="42">
         <v>43861</v>
       </c>
-      <c r="AW32" s="44">
+      <c r="AW32" s="42">
         <v>44227</v>
       </c>
     </row>
     <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="23"/>
-      <c r="O33" s="31" t="s">
+      <c r="F33" s="21"/>
+      <c r="O33" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="20"/>
-      <c r="AC33" s="21"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="18"/>
+      <c r="AC33" s="19"/>
       <c r="AD33" s="8"/>
       <c r="AE33" s="12" t="s">
         <v>160</v>
@@ -3410,7 +3482,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="23"/>
+      <c r="AI33" s="21"/>
       <c r="AQ33" s="8"/>
       <c r="AR33" s="8"/>
       <c r="AS33" s="8"/>
@@ -3419,53 +3491,53 @@
       <c r="AV33" s="8"/>
     </row>
     <row r="34" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="23"/>
+      <c r="F34" s="21"/>
       <c r="K34" s="10"/>
-      <c r="O34" s="27" t="s">
+      <c r="O34" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="AC34" s="21"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="AC34" s="19"/>
       <c r="AD34" s="8"/>
       <c r="AE34" s="8"/>
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="23"/>
+      <c r="AI34" s="21"/>
     </row>
     <row r="35" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="23"/>
-      <c r="AC35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="AC35" s="19"/>
       <c r="AD35" s="8"/>
       <c r="AE35" s="8"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-      <c r="AI35" s="23"/>
+      <c r="AI35" s="21"/>
     </row>
     <row r="36" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="23"/>
-      <c r="AC36" s="21" t="s">
+      <c r="F36" s="21"/>
+      <c r="AC36" s="19" t="s">
         <v>161</v>
       </c>
       <c r="AD36" s="8" t="s">
@@ -3475,18 +3547,18 @@
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
       <c r="AH36" s="8"/>
-      <c r="AI36" s="23"/>
+      <c r="AI36" s="21"/>
     </row>
     <row r="37" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="35" t="s">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="AC37" s="21"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="AC37" s="19"/>
       <c r="AD37" s="8" t="s">
         <v>163</v>
       </c>
@@ -3494,10 +3566,10 @@
       <c r="AF37" s="8"/>
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
-      <c r="AI37" s="23"/>
+      <c r="AI37" s="21"/>
     </row>
     <row r="38" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="AC38" s="21"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="8" t="s">
         <v>164</v>
       </c>
@@ -3505,37 +3577,37 @@
       <c r="AF38" s="8"/>
       <c r="AG38" s="8"/>
       <c r="AH38" s="8"/>
-      <c r="AI38" s="23"/>
+      <c r="AI38" s="21"/>
     </row>
     <row r="39" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28"/>
-      <c r="AH39" s="28"/>
-      <c r="AI39" s="29"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="27"/>
     </row>
     <row r="45" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="20"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="18"/>
     </row>
     <row r="47" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="40" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="38" t="s">
         <v>57</v>
       </c>
       <c r="C47" s="8"/>
@@ -3546,15 +3618,15 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="23"/>
-      <c r="M47" s="41" t="s">
+      <c r="K47" s="21"/>
+      <c r="M47" s="39" t="s">
         <v>244</v>
       </c>
       <c r="N47" s="8"/>
-      <c r="O47" s="23"/>
+      <c r="O47" s="21"/>
     </row>
     <row r="48" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -3568,92 +3640,92 @@
       <c r="J48" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="K48" s="23"/>
-      <c r="M48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="M48" s="19"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="23"/>
+      <c r="O48" s="21"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="60" t="s">
+      <c r="C49" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="62"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="M49" s="21" t="s">
+      <c r="K49" s="21"/>
+      <c r="M49" s="19" t="s">
         <v>245</v>
       </c>
       <c r="N49" s="8"/>
-      <c r="O49" s="23"/>
+      <c r="O49" s="21"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="65"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="69"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="K50" s="23"/>
-      <c r="M50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="M50" s="19"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="23"/>
+      <c r="O50" s="21"/>
     </row>
     <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="65"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
-      <c r="K51" s="23"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="29"/>
+      <c r="K51" s="21"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27"/>
     </row>
     <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="66"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="23"/>
+      <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="29"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="27"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
@@ -3662,150 +3734,102 @@
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="46"/>
-      <c r="G57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M57" s="2" t="s">
+      <c r="C57" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="47"/>
+      <c r="F57" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>73</v>
+      <c r="M57" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P58" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="46"/>
+      <c r="C59" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="47"/>
       <c r="F59" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" t="s">
         <v>65</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="H59" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="I59" t="s">
         <v>271</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="U59" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N60" t="s">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>372</v>
+      </c>
+      <c r="H60">
+        <v>8000</v>
+      </c>
+      <c r="I60" t="s">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s">
+        <v>373</v>
+      </c>
+      <c r="K60" t="s">
+        <v>374</v>
+      </c>
+      <c r="M60" t="s">
         <v>334</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="O60" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="47"/>
+      <c r="O61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P61" s="4"/>
+      <c r="V61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M62" t="s">
+        <v>335</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="F61" t="s">
-        <v>44</v>
-      </c>
-      <c r="G61" t="s">
-        <v>276</v>
-      </c>
-      <c r="H61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I61" t="s">
-        <v>66</v>
-      </c>
-      <c r="J61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q61" s="4"/>
-      <c r="V61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>277</v>
-      </c>
-      <c r="H62" t="s">
-        <v>68</v>
-      </c>
-      <c r="I62">
-        <v>30000</v>
-      </c>
-      <c r="J62" t="s">
-        <v>69</v>
-      </c>
-      <c r="K62" t="s">
-        <v>90</v>
-      </c>
-      <c r="L62" t="s">
-        <v>91</v>
-      </c>
-      <c r="N62" t="s">
-        <v>335</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="D63" s="46"/>
-      <c r="F63">
-        <v>2</v>
-      </c>
-      <c r="G63" t="s">
-        <v>277</v>
-      </c>
-      <c r="H63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63">
-        <v>20000</v>
-      </c>
-      <c r="J63" t="s">
-        <v>71</v>
-      </c>
-      <c r="K63" t="s">
-        <v>90</v>
-      </c>
-      <c r="L63" t="s">
-        <v>91</v>
-      </c>
-      <c r="P63" s="5" t="s">
+      <c r="D63" s="47"/>
+      <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
       <c r="V63" s="2" t="s">
@@ -3816,645 +3840,707 @@
       </c>
     </row>
     <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N64" t="s">
+      <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="P64" s="45" t="s">
+      <c r="O64" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="Q64" s="46"/>
-      <c r="R64" t="s">
+      <c r="P64" s="47"/>
+      <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="45" t="s">
+    <row r="65" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" s="47"/>
+      <c r="Q65" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O66" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="46"/>
-      <c r="R65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N66" t="s">
-        <v>337</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="R66" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="45" t="s">
+      <c r="D67" s="47"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="18"/>
+    </row>
+    <row r="68" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="19"/>
+      <c r="G68" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="D67" s="46"/>
-      <c r="P67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G68" t="s">
-        <v>72</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P69" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N70" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G71" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="D69" s="47"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="21"/>
+      <c r="R69" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L70" s="8"/>
+      <c r="M70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="W70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="19"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="21"/>
       <c r="P71" t="s">
         <v>334</v>
       </c>
       <c r="R71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="U71" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F72" t="s">
+    </row>
+    <row r="72" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H72" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H72" t="s">
-        <v>25</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="N72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R72" s="4"/>
+      <c r="I72" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="21"/>
+      <c r="R72" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="S72" s="4"/>
-    </row>
-    <row r="73" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="19">
+        <v>1</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M73" s="21"/>
       <c r="P73" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V73" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74" t="s">
-        <v>65</v>
-      </c>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-      <c r="J74" t="s">
-        <v>84</v>
-      </c>
-      <c r="K74" t="s">
-        <v>95</v>
-      </c>
+    </row>
+    <row r="74" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="19">
+        <v>2</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74" s="8">
+        <v>20000</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M74" s="21"/>
       <c r="R74" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>85</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J75" t="s">
-        <v>87</v>
-      </c>
-      <c r="K75" s="6">
-        <v>43821</v>
-      </c>
-      <c r="M75" t="s">
-        <v>90</v>
-      </c>
-      <c r="N75" t="s">
-        <v>91</v>
-      </c>
+      <c r="X74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z74" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="19"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="21"/>
       <c r="P75" t="s">
-        <v>339</v>
-      </c>
-      <c r="R75" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="R75" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="46"/>
-      <c r="W75" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S75" s="47"/>
+      <c r="T75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="27"/>
+    </row>
+    <row r="77" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P77" t="s">
-        <v>340</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S77" t="s">
-        <v>264</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y77" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="78" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q79" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R77" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" s="47"/>
+      <c r="T77" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P79" t="s">
+        <v>337</v>
+      </c>
+      <c r="R79" s="2"/>
+      <c r="T79" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="R80" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="81" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R82" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="81" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K82" s="2" t="s">
+    <row r="83" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P83" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N84" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P83" t="s">
+    <row r="85" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P85" t="s">
         <v>334</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="V83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F84" t="s">
-        <v>44</v>
-      </c>
-      <c r="G84" t="s">
-        <v>65</v>
-      </c>
-      <c r="H84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I84" t="s">
-        <v>95</v>
-      </c>
-      <c r="J84" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" t="s">
-        <v>285</v>
-      </c>
-      <c r="L84" t="s">
-        <v>286</v>
-      </c>
-      <c r="R84" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S84" s="4"/>
-    </row>
-    <row r="85" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>214</v>
-      </c>
-      <c r="H85">
-        <v>1000</v>
-      </c>
-      <c r="I85" s="6">
-        <v>43821</v>
-      </c>
-      <c r="J85" s="6">
-        <v>43730</v>
-      </c>
-      <c r="M85" t="s">
-        <v>96</v>
-      </c>
-      <c r="N85" t="s">
-        <v>91</v>
-      </c>
-      <c r="P85" t="s">
-        <v>335</v>
       </c>
       <c r="R85" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="W85" t="s">
-        <v>99</v>
+      <c r="U85" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G86" t="s">
-        <v>215</v>
-      </c>
-      <c r="H86">
-        <v>5000</v>
-      </c>
-      <c r="R86" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="F86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R86" s="4"/>
+      <c r="S86" s="4"/>
     </row>
     <row r="87" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G87" t="s">
-        <v>216</v>
-      </c>
-      <c r="H87">
-        <v>5000</v>
-      </c>
       <c r="P87" t="s">
-        <v>341</v>
-      </c>
-      <c r="R87" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="R87" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T87" t="s">
-        <v>98</v>
-      </c>
-      <c r="W87" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y87" s="2" t="s">
-        <v>82</v>
+      <c r="V87" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88" t="s">
+        <v>65</v>
+      </c>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>84</v>
+      </c>
+      <c r="K88" t="s">
+        <v>95</v>
+      </c>
       <c r="R88" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="89" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>85</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J89" t="s">
+        <v>87</v>
+      </c>
+      <c r="K89" s="6">
+        <v>43821</v>
+      </c>
+      <c r="M89" t="s">
+        <v>90</v>
+      </c>
+      <c r="N89" t="s">
+        <v>91</v>
+      </c>
       <c r="P89" t="s">
-        <v>342</v>
-      </c>
-      <c r="R89" s="9" t="s">
-        <v>34</v>
+        <v>339</v>
+      </c>
+      <c r="R89" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S89" s="44"/>
+      <c r="W89" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P91" t="s">
+        <v>340</v>
+      </c>
       <c r="R91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S91" t="s">
+        <v>264</v>
+      </c>
+      <c r="W91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y91" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G92" s="1" t="s">
+    <row r="95" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K96" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P97" t="s">
+        <v>334</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V97" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>44</v>
+      </c>
+      <c r="G98" t="s">
+        <v>65</v>
+      </c>
+      <c r="H98" t="s">
+        <v>53</v>
+      </c>
+      <c r="I98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J98" t="s">
+        <v>51</v>
+      </c>
+      <c r="K98" t="s">
+        <v>285</v>
+      </c>
+      <c r="L98" t="s">
+        <v>286</v>
+      </c>
+      <c r="R98" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="S98" s="4"/>
+    </row>
+    <row r="99" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>214</v>
+      </c>
+      <c r="H99">
+        <v>1000</v>
+      </c>
+      <c r="I99" s="6">
+        <v>43821</v>
+      </c>
+      <c r="J99" s="6">
+        <v>43730</v>
+      </c>
+      <c r="M99" t="s">
+        <v>96</v>
+      </c>
+      <c r="N99" t="s">
+        <v>91</v>
+      </c>
+      <c r="P99" t="s">
+        <v>335</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>215</v>
+      </c>
+      <c r="H100">
+        <v>5000</v>
+      </c>
+      <c r="R100" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>216</v>
+      </c>
+      <c r="H101">
+        <v>5000</v>
+      </c>
+      <c r="P101" t="s">
+        <v>341</v>
+      </c>
+      <c r="R101" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T101" t="s">
+        <v>98</v>
+      </c>
+      <c r="W101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y101" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R102" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P103" t="s">
+        <v>342</v>
+      </c>
+      <c r="R103" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R105" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="K106" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="N106" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I93" s="2" t="s">
+    <row r="107" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I107" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F94" t="s">
+    <row r="108" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
         <v>44</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G108" t="s">
         <v>65</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K108" t="s">
         <v>324</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L108" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O108" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="6:25" x14ac:dyDescent="0.25">
-      <c r="H95" t="s">
+    <row r="109" spans="6:25" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
         <v>90</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I109" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="L109" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P96" t="s">
+    <row r="110" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P110" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L97" s="2" t="s">
+    <row r="111" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L111" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="98" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G98" t="s">
+    <row r="112" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
         <v>246</v>
       </c>
-      <c r="P98" s="2" t="s">
+      <c r="P112" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R98" s="2" t="s">
+      <c r="R112" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G102" s="1" t="s">
+    <row r="116" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N102" s="1" t="s">
+      <c r="N116" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="103" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K103" s="2" t="s">
+    <row r="117" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K117" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N103" s="47" t="s">
+      <c r="N117" s="45" t="s">
         <v>318</v>
       </c>
-      <c r="O103" s="47"/>
-      <c r="P103" s="47"/>
-    </row>
-    <row r="104" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N104" s="47"/>
-      <c r="O104" s="47"/>
-      <c r="P104" s="47"/>
-    </row>
-    <row r="105" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G105" t="s">
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
+    </row>
+    <row r="118" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N118" s="45"/>
+      <c r="O118" s="45"/>
+      <c r="P118" s="45"/>
+    </row>
+    <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
         <v>343</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K119" t="s">
         <v>102</v>
       </c>
-      <c r="N105" s="47"/>
-      <c r="O105" s="47"/>
-      <c r="P105" s="47"/>
-    </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="N106" s="47"/>
-      <c r="O106" s="47"/>
-      <c r="P106" s="47"/>
-    </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+      <c r="N119" s="45"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="45"/>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="N120" s="45"/>
+      <c r="O120" s="45"/>
+      <c r="P120" s="45"/>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G108" s="8"/>
-    </row>
-    <row r="109" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D110" s="46"/>
-      <c r="F110" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="N124" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="R110" s="1" t="s">
+      <c r="R124" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="X110" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="111" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" s="46"/>
-      <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I112" t="s">
-        <v>109</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="M112" t="s">
-        <v>110</v>
-      </c>
-      <c r="N112" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="R112" t="s">
-        <v>334</v>
-      </c>
-      <c r="T112" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N114" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R114" t="s">
-        <v>344</v>
-      </c>
-      <c r="T114" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U114" s="14"/>
-      <c r="Z114" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="115" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F115" t="s">
-        <v>44</v>
-      </c>
-      <c r="G115" t="s">
-        <v>65</v>
-      </c>
-      <c r="H115" t="s">
-        <v>109</v>
-      </c>
-      <c r="J115" t="s">
-        <v>29</v>
-      </c>
-      <c r="K115" t="s">
-        <v>111</v>
-      </c>
-      <c r="L115" t="s">
-        <v>51</v>
-      </c>
-      <c r="N115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116" t="s">
-        <v>112</v>
-      </c>
-      <c r="H116" t="s">
-        <v>113</v>
-      </c>
-      <c r="J116" t="s">
-        <v>114</v>
-      </c>
-      <c r="K116" t="s">
-        <v>115</v>
-      </c>
-      <c r="L116" s="6">
-        <v>44187</v>
-      </c>
-      <c r="N116" s="6">
-        <v>43821</v>
-      </c>
-      <c r="P116" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>91</v>
-      </c>
-      <c r="R116" t="s">
-        <v>345</v>
-      </c>
-      <c r="T116" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U116" s="14"/>
-      <c r="Z116" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB116" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R118" t="s">
-        <v>346</v>
-      </c>
-      <c r="T118" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="X118" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R120" t="s">
-        <v>347</v>
-      </c>
-      <c r="T120" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="V120" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T122" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="123" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F124" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O124" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="R124" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="X124" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="D126" s="47"/>
       <c r="F126" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H126" t="s">
-        <v>25</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K126" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="L126" s="2" t="s">
-        <v>248</v>
+      <c r="I126" t="s">
+        <v>109</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="M126" t="s">
-        <v>121</v>
-      </c>
-      <c r="O126" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="R126" t="s">
         <v>334</v>
@@ -4466,19 +4552,24 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O128" s="2" t="s">
+    <row r="127" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D128" s="47"/>
+      <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
       <c r="R128" t="s">
-        <v>348</v>
-      </c>
-      <c r="T128" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="T128" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U128" s="44"/>
       <c r="Z128" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="129" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4486,18 +4577,21 @@
         <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="H129" t="s">
-        <v>25</v>
-      </c>
-      <c r="I129" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="J129" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="K129" t="s">
+        <v>111</v>
+      </c>
+      <c r="L129" t="s">
+        <v>51</v>
+      </c>
+      <c r="N129" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4506,33 +4600,36 @@
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>85</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I130" t="s">
-        <v>249</v>
+        <v>112</v>
+      </c>
+      <c r="H130" t="s">
+        <v>113</v>
       </c>
       <c r="J130" t="s">
-        <v>125</v>
-      </c>
-      <c r="K130" s="6">
+        <v>114</v>
+      </c>
+      <c r="K130" t="s">
+        <v>115</v>
+      </c>
+      <c r="L130" s="6">
+        <v>44187</v>
+      </c>
+      <c r="N130" s="6">
         <v>43821</v>
       </c>
-      <c r="M130" t="s">
+      <c r="P130" t="s">
         <v>90</v>
       </c>
-      <c r="N130" t="s">
+      <c r="Q130" t="s">
         <v>91</v>
       </c>
       <c r="R130" t="s">
-        <v>349</v>
-      </c>
-      <c r="T130" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="T130" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="U130" s="14"/>
+      <c r="U130" s="44"/>
       <c r="Z130" s="2" t="s">
         <v>81</v>
       </c>
@@ -4543,56 +4640,444 @@
     <row r="131" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="132" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R132" t="s">
-        <v>350</v>
-      </c>
-      <c r="T132" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="U132" s="14"/>
+        <v>346</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="X132" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="133" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I134" t="s">
-        <v>246</v>
-      </c>
       <c r="R134" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="T134" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U134" t="s">
+      <c r="V134" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="135" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="136" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T136" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="138" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>65</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H140" t="s">
+        <v>25</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="M140" t="s">
+        <v>121</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="R140" t="s">
+        <v>334</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y140" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="141" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="142" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O142" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R142" t="s">
+        <v>348</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z142" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>44</v>
+      </c>
+      <c r="G143" t="s">
+        <v>122</v>
+      </c>
+      <c r="H143" t="s">
+        <v>25</v>
+      </c>
+      <c r="I143" t="s">
+        <v>84</v>
+      </c>
+      <c r="J143" t="s">
+        <v>123</v>
+      </c>
+      <c r="K143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>85</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I144" t="s">
+        <v>249</v>
+      </c>
+      <c r="J144" t="s">
+        <v>125</v>
+      </c>
+      <c r="K144" s="6">
+        <v>43821</v>
+      </c>
+      <c r="M144" t="s">
+        <v>90</v>
+      </c>
+      <c r="N144" t="s">
+        <v>91</v>
+      </c>
+      <c r="R144" t="s">
+        <v>349</v>
+      </c>
+      <c r="T144" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U144" s="44"/>
+      <c r="Z144" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB144" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="145" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R146" t="s">
+        <v>350</v>
+      </c>
+      <c r="T146" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U146" s="44"/>
+    </row>
+    <row r="147" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>246</v>
+      </c>
+      <c r="R148" t="s">
+        <v>340</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U148" t="s">
         <v>264</v>
       </c>
     </row>
+    <row r="153" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E154" s="15"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="18"/>
+    </row>
+    <row r="155" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E155" s="19"/>
+      <c r="F155" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="21"/>
+    </row>
+    <row r="156" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E156" s="19"/>
+      <c r="F156" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="I156" s="8"/>
+      <c r="J156" s="8"/>
+      <c r="K156" s="21"/>
+    </row>
+    <row r="157" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E157" s="19"/>
+      <c r="F157" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="21"/>
+    </row>
+    <row r="158" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E158" s="19"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="21"/>
+    </row>
+    <row r="159" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E159" s="19"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="H159" s="8"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="21"/>
+    </row>
+    <row r="160" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E160" s="19"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="I160" s="60"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="21"/>
+    </row>
+    <row r="161" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E161" s="19"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="62"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="21"/>
+    </row>
+    <row r="162" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E162" s="19"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="62"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="21"/>
+    </row>
+    <row r="163" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E163" s="19"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="62"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="21"/>
+    </row>
+    <row r="164" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E164" s="19"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="64"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="21"/>
+    </row>
+    <row r="165" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E165" s="19"/>
+      <c r="F165" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" s="8"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="21"/>
+    </row>
+    <row r="166" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E166" s="19"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+      <c r="J166" s="8"/>
+      <c r="K166" s="21"/>
+    </row>
+    <row r="167" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E167" s="19"/>
+      <c r="F167" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="G167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="I167" s="8"/>
+      <c r="J167" s="8"/>
+      <c r="K167" s="21"/>
+    </row>
+    <row r="168" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E168" s="19"/>
+      <c r="F168" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="21"/>
+    </row>
+    <row r="169" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E169" s="19"/>
+      <c r="F169" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+      <c r="J169" s="8"/>
+      <c r="K169" s="21"/>
+    </row>
+    <row r="170" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E170" s="19"/>
+      <c r="F170" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="8"/>
+      <c r="K170" s="21"/>
+    </row>
+    <row r="171" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E171" s="19"/>
+      <c r="F171" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="I171" s="8"/>
+      <c r="J171" s="8"/>
+      <c r="K171" s="21"/>
+    </row>
+    <row r="172" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E172" s="19"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="I172" s="8"/>
+      <c r="J172" s="8"/>
+      <c r="K172" s="21"/>
+    </row>
+    <row r="173" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E173" s="19"/>
+      <c r="F173" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="21"/>
+    </row>
+    <row r="174" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E174" s="19"/>
+      <c r="F174" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="21"/>
+    </row>
+    <row r="175" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="25"/>
+      <c r="F175" s="26"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="26"/>
+      <c r="I175" s="26"/>
+      <c r="J175" s="26"/>
+      <c r="K175" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="AA11:AB11"/>
+  <mergeCells count="28">
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="H160:I164"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N15:P15"/>
     <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:C8"/>
     <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
     <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C65:D65"/>
     <mergeCell ref="C49:H52"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="N103:P106"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="702"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="702" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="401">
   <si>
     <t>NO.</t>
   </si>
@@ -1337,11 +1337,29 @@
   <si>
     <t>điểm này có thể mua nhiều khuyến mãi từ nhà hàng</t>
   </si>
+  <si>
+    <t>Customer change pass</t>
+  </si>
+  <si>
+    <t>api/customer/change-pass</t>
+  </si>
+  <si>
+    <t>Staff change pass</t>
+  </si>
+  <si>
+    <t>api/staff/change-pass</t>
+  </si>
+  <si>
+    <t>{
+ "old_password": "123456"
+ ,"new_password": "654321"
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1757,39 +1775,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,6 +1793,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1818,6 +1806,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1841,7 +1832,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2150,28 +2168,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+    <sheetView topLeftCell="A153" workbookViewId="0">
       <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.5703125" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.54296875" customWidth="1"/>
+    <col min="36" max="36" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="13" customWidth="1"/>
-    <col min="51" max="51" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
         <v>41</v>
@@ -2216,7 +2234,7 @@
       <c r="AJ2" s="17"/>
       <c r="AK2" s="18"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
         <v>212</v>
@@ -2257,7 +2275,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="21"/>
     </row>
-    <row r="4" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2298,17 +2316,17 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="21"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2356,15 +2374,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2402,13 +2420,13 @@
       <c r="AJ6" s="26"/>
       <c r="AK6" s="27"/>
     </row>
-    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2437,13 +2455,13 @@
       <c r="AE7" s="8"/>
       <c r="AF7" s="21"/>
     </row>
-    <row r="8" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2466,7 +2484,7 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="21"/>
     </row>
-    <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2484,7 +2502,7 @@
       <c r="N9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="76"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="47"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
@@ -2500,7 +2518,7 @@
       <c r="AE9" s="8"/>
       <c r="AF9" s="21"/>
     </row>
-    <row r="10" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="46" t="s">
         <v>22</v>
@@ -2530,7 +2548,7 @@
       <c r="AE10" s="8"/>
       <c r="AF10" s="21"/>
     </row>
-    <row r="11" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
@@ -2563,7 +2581,7 @@
       <c r="AE11" s="26"/>
       <c r="AF11" s="27"/>
     </row>
-    <row r="12" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="8" t="s">
         <v>43</v>
@@ -2585,7 +2603,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="21"/>
     </row>
-    <row r="13" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2603,12 +2621,12 @@
       <c r="N13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="76"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="47"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
         <v>221</v>
@@ -2629,7 +2647,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="21"/>
     </row>
-    <row r="15" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
       <c r="B15" s="8" t="s">
         <v>222</v>
@@ -2657,12 +2675,12 @@
       <c r="N15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="76"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="47"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
-    <row r="16" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2681,7 +2699,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
       <c r="B17" s="8" t="s">
         <v>44</v>
@@ -2713,7 +2731,7 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="21"/>
     </row>
-    <row r="18" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="8">
         <v>1</v>
@@ -2745,7 +2763,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="21"/>
     </row>
-    <row r="19" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
       <c r="B19" s="8">
         <v>2</v>
@@ -2779,7 +2797,7 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="21"/>
     </row>
-    <row r="20" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2801,7 +2819,7 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="21"/>
     </row>
-    <row r="21" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19"/>
       <c r="B21" s="8" t="s">
         <v>283</v>
@@ -2824,7 +2842,7 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="27"/>
     </row>
-    <row r="22" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>284</v>
@@ -2838,7 +2856,7 @@
       <c r="I22" s="26"/>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.35">
       <c r="U23" s="29" t="s">
         <v>22</v>
       </c>
@@ -2887,7 +2905,7 @@
       <c r="BF23" s="17"/>
       <c r="BG23" s="18"/>
     </row>
-    <row r="24" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="U24" s="19"/>
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
@@ -2924,7 +2942,7 @@
       <c r="BF24" s="8"/>
       <c r="BG24" s="21"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A25" s="29" t="s">
         <v>13</v>
       </c>
@@ -3014,7 +3032,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8" t="s">
@@ -3086,18 +3104,18 @@
       <c r="BF26" s="8"/>
       <c r="BG26" s="21"/>
     </row>
-    <row r="27" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3126,9 +3144,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="50"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="52"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="70"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3162,7 +3180,7 @@
       <c r="BF27" s="8"/>
       <c r="BG27" s="21"/>
     </row>
-    <row r="28" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
       <c r="B28" s="8" t="s">
         <v>321</v>
@@ -3173,11 +3191,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3206,9 +3224,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="53"/>
-      <c r="AM28" s="54"/>
-      <c r="AN28" s="55"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="72"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3238,7 +3256,7 @@
       <c r="BF28" s="8"/>
       <c r="BG28" s="21"/>
     </row>
-    <row r="29" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3247,9 +3265,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3271,9 +3289,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="58"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="75"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3288,7 +3306,7 @@
       </c>
       <c r="BG29" s="13"/>
     </row>
-    <row r="30" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="8" t="s">
         <v>323</v>
@@ -3310,10 +3328,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="49" t="s">
+      <c r="V30" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="49"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3354,7 +3372,7 @@
       <c r="BF30" s="36"/>
       <c r="BG30" s="13"/>
     </row>
-    <row r="31" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3381,10 +3399,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="49" t="s">
+      <c r="AE31" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="49"/>
+      <c r="AF31" s="67"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3419,7 +3437,7 @@
       <c r="BF31" s="37"/>
       <c r="BG31" s="14"/>
     </row>
-    <row r="32" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3427,10 +3445,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="48" t="s">
+      <c r="V32" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="48"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3462,7 +3480,7 @@
         <v>44227</v>
       </c>
     </row>
-    <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3490,7 +3508,7 @@
       <c r="AU33" s="8"/>
       <c r="AV33" s="8"/>
     </row>
-    <row r="34" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="19"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2" t="s">
@@ -3513,7 +3531,7 @@
       <c r="AH34" s="8"/>
       <c r="AI34" s="21"/>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35" s="19"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3528,7 +3546,7 @@
       <c r="AH35" s="8"/>
       <c r="AI35" s="21"/>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="8"/>
       <c r="C36" s="32" t="s">
@@ -3549,7 +3567,7 @@
       <c r="AH36" s="8"/>
       <c r="AI36" s="21"/>
     </row>
-    <row r="37" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="33" t="s">
@@ -3568,7 +3586,7 @@
       <c r="AH37" s="8"/>
       <c r="AI37" s="21"/>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
       <c r="AC38" s="19"/>
       <c r="AD38" s="8" t="s">
         <v>164</v>
@@ -3579,7 +3597,7 @@
       <c r="AH38" s="8"/>
       <c r="AI38" s="21"/>
     </row>
-    <row r="39" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="AC39" s="25"/>
       <c r="AD39" s="26"/>
       <c r="AE39" s="26"/>
@@ -3588,8 +3606,8 @@
       <c r="AH39" s="26"/>
       <c r="AI39" s="27"/>
     </row>
-    <row r="45" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A46" s="15"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -3605,7 +3623,7 @@
       <c r="N46" s="17"/>
       <c r="O46" s="18"/>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A47" s="19"/>
       <c r="B47" s="38" t="s">
         <v>57</v>
@@ -3625,7 +3643,7 @@
       <c r="N47" s="8"/>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="19"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3645,17 +3663,17 @@
       <c r="N48" s="8"/>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="67"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3667,15 +3685,15 @@
       <c r="N49" s="8"/>
       <c r="O49" s="21"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="69"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3685,15 +3703,15 @@
       <c r="N50" s="8"/>
       <c r="O50" s="21"/>
     </row>
-    <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="69"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3701,20 +3719,20 @@
       <c r="N51" s="26"/>
       <c r="O51" s="27"/>
     </row>
-    <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
@@ -3727,13 +3745,13 @@
       <c r="J53" s="26"/>
       <c r="K53" s="27"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C57" s="46" t="s">
         <v>375</v>
       </c>
@@ -3751,12 +3769,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q58" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C59" s="46" t="s">
         <v>60</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F60">
         <v>1</v>
       </c>
@@ -3803,7 +3821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C61" s="46" t="s">
         <v>61</v>
       </c>
@@ -3816,7 +3834,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M62" t="s">
         <v>335</v>
       </c>
@@ -3824,7 +3842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C63" s="46" t="s">
         <v>62</v>
       </c>
@@ -3839,7 +3857,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M64" t="s">
         <v>336</v>
       </c>
@@ -3851,7 +3869,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C65" s="46" t="s">
         <v>296</v>
       </c>
@@ -3860,12 +3878,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C67" s="46" t="s">
         <v>63</v>
       </c>
@@ -3879,7 +3897,7 @@
       <c r="L67" s="17"/>
       <c r="M67" s="18"/>
     </row>
-    <row r="68" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F68" s="19"/>
       <c r="G68" s="38" t="s">
         <v>64</v>
@@ -3899,7 +3917,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C69" s="46" t="s">
         <v>312</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F70" s="19" t="s">
         <v>65</v>
       </c>
@@ -3943,7 +3961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F71" s="19"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -3959,7 +3977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F72" s="19" t="s">
         <v>44</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F73" s="19">
         <v>1</v>
       </c>
@@ -4016,7 +4034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F74" s="19">
         <v>2</v>
       </c>
@@ -4049,7 +4067,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F75" s="19"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -4069,7 +4087,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F76" s="25"/>
       <c r="G76" s="26"/>
       <c r="H76" s="26"/>
@@ -4081,7 +4099,7 @@
       <c r="L76" s="26"/>
       <c r="M76" s="27"/>
     </row>
-    <row r="77" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P77" t="s">
         <v>336</v>
       </c>
@@ -4093,8 +4111,8 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P79" t="s">
         <v>337</v>
       </c>
@@ -4103,28 +4121,28 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:26" x14ac:dyDescent="0.35">
       <c r="R80" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="81" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R82" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P83" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N84" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G85" s="1" t="s">
         <v>83</v>
       </c>
@@ -4138,7 +4156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F86" t="s">
         <v>65</v>
       </c>
@@ -4163,7 +4181,7 @@
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P87" t="s">
         <v>338</v>
       </c>
@@ -4174,7 +4192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F88" t="s">
         <v>44</v>
       </c>
@@ -4194,7 +4212,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F89">
         <v>1</v>
       </c>
@@ -4227,8 +4245,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="91" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P91" t="s">
         <v>340</v>
       </c>
@@ -4245,13 +4263,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="93" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="Q93" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G95" s="1" t="s">
         <v>94</v>
       </c>
@@ -4262,12 +4280,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K96" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P97" t="s">
         <v>334</v>
       </c>
@@ -4278,7 +4296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F98" t="s">
         <v>44</v>
       </c>
@@ -4305,7 +4323,7 @@
       </c>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F99">
         <v>1</v>
       </c>
@@ -4337,7 +4355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G100" t="s">
         <v>215</v>
       </c>
@@ -4348,7 +4366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G101" t="s">
         <v>216</v>
       </c>
@@ -4371,12 +4389,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R102" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P103" t="s">
         <v>342</v>
       </c>
@@ -4384,13 +4402,13 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="105" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R105" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G106" s="1" t="s">
         <v>297</v>
       </c>
@@ -4401,12 +4419,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I107" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F108" t="s">
         <v>44</v>
       </c>
@@ -4423,7 +4441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="6:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:25" x14ac:dyDescent="0.35">
       <c r="H109" t="s">
         <v>90</v>
       </c>
@@ -4434,17 +4452,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P110" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="111" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="L111" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="6:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G112" t="s">
         <v>246</v>
       </c>
@@ -4455,7 +4473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G116" s="1" t="s">
         <v>100</v>
       </c>
@@ -4463,7 +4481,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="117" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K117" s="2" t="s">
         <v>92</v>
       </c>
@@ -4473,12 +4491,12 @@
       <c r="O117" s="45"/>
       <c r="P117" s="45"/>
     </row>
-    <row r="118" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="N118" s="45"/>
       <c r="O118" s="45"/>
       <c r="P118" s="45"/>
     </row>
-    <row r="119" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G119" t="s">
         <v>343</v>
       </c>
@@ -4492,16 +4510,16 @@
       <c r="O119" s="45"/>
       <c r="P119" s="45"/>
     </row>
-    <row r="120" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:26" x14ac:dyDescent="0.35">
       <c r="N120" s="45"/>
       <c r="O120" s="45"/>
       <c r="P120" s="45"/>
     </row>
-    <row r="122" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:26" x14ac:dyDescent="0.35">
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="124" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B124" s="1" t="s">
         <v>103</v>
       </c>
@@ -4518,8 +4536,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C126" s="46" t="s">
         <v>104</v>
       </c>
@@ -4552,8 +4570,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="128" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C128" s="46" t="s">
         <v>105</v>
       </c>
@@ -4572,7 +4590,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F129" t="s">
         <v>44</v>
       </c>
@@ -4595,7 +4613,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="130" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F130">
         <v>1</v>
       </c>
@@ -4637,8 +4655,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="131" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="132" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R132" t="s">
         <v>346</v>
       </c>
@@ -4649,8 +4667,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="134" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R134" t="s">
         <v>347</v>
       </c>
@@ -4661,14 +4679,14 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="136" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="136" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="T136" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="137" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="138" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="138" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F138" s="1" t="s">
         <v>119</v>
       </c>
@@ -4682,8 +4700,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="139" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="140" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="140" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F140" t="s">
         <v>65</v>
       </c>
@@ -4718,8 +4736,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="142" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="O142" s="2" t="s">
         <v>108</v>
       </c>
@@ -4733,7 +4751,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F143" t="s">
         <v>44</v>
       </c>
@@ -4753,7 +4771,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F144">
         <v>1</v>
       </c>
@@ -4792,8 +4810,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="146" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="146" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="R146" t="s">
         <v>350</v>
       </c>
@@ -4802,8 +4820,8 @@
       </c>
       <c r="U146" s="44"/>
     </row>
-    <row r="147" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="148" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I148" t="s">
         <v>246</v>
       </c>
@@ -4817,12 +4835,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="153" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F153" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="154" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E154" s="15"/>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
@@ -4831,7 +4849,7 @@
       <c r="J154" s="17"/>
       <c r="K154" s="18"/>
     </row>
-    <row r="155" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E155" s="19"/>
       <c r="F155" s="8" t="s">
         <v>382</v>
@@ -4844,7 +4862,7 @@
       <c r="J155" s="8"/>
       <c r="K155" s="21"/>
     </row>
-    <row r="156" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E156" s="19"/>
       <c r="F156" s="8" t="s">
         <v>392</v>
@@ -4855,7 +4873,7 @@
       <c r="J156" s="8"/>
       <c r="K156" s="21"/>
     </row>
-    <row r="157" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E157" s="19"/>
       <c r="F157" s="8" t="s">
         <v>393</v>
@@ -4866,7 +4884,7 @@
       <c r="J157" s="8"/>
       <c r="K157" s="21"/>
     </row>
-    <row r="158" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E158" s="19"/>
       <c r="F158" s="8"/>
       <c r="G158" s="8"/>
@@ -4875,7 +4893,7 @@
       <c r="J158" s="8"/>
       <c r="K158" s="21"/>
     </row>
-    <row r="159" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E159" s="19"/>
       <c r="F159" s="8"/>
       <c r="G159" s="8" t="s">
@@ -4886,54 +4904,54 @@
       <c r="J159" s="8"/>
       <c r="K159" s="21"/>
     </row>
-    <row r="160" spans="5:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="59" t="s">
+      <c r="H160" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="60"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
-    <row r="161" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="62"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="51"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
-    <row r="162" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="62"/>
+      <c r="H162" s="50"/>
+      <c r="I162" s="51"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
-    <row r="163" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="61"/>
-      <c r="I163" s="62"/>
+      <c r="H163" s="50"/>
+      <c r="I163" s="51"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
-    <row r="164" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="63"/>
-      <c r="I164" s="64"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="53"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
-    <row r="165" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E165" s="19"/>
       <c r="F165" s="8" t="s">
         <v>385</v>
@@ -4944,7 +4962,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="21"/>
     </row>
-    <row r="166" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E166" s="19"/>
       <c r="F166" s="8"/>
       <c r="G166" s="8"/>
@@ -4953,7 +4971,7 @@
       <c r="J166" s="8"/>
       <c r="K166" s="21"/>
     </row>
-    <row r="167" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E167" s="19"/>
       <c r="F167" s="8" t="s">
         <v>386</v>
@@ -4964,7 +4982,7 @@
       <c r="J167" s="8"/>
       <c r="K167" s="21"/>
     </row>
-    <row r="168" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E168" s="19"/>
       <c r="F168" s="8" t="s">
         <v>387</v>
@@ -4975,7 +4993,7 @@
       <c r="J168" s="8"/>
       <c r="K168" s="21"/>
     </row>
-    <row r="169" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E169" s="19"/>
       <c r="F169" s="8" t="s">
         <v>391</v>
@@ -4986,7 +5004,7 @@
       <c r="J169" s="8"/>
       <c r="K169" s="21"/>
     </row>
-    <row r="170" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E170" s="19"/>
       <c r="F170" s="8" t="s">
         <v>388</v>
@@ -4997,7 +5015,7 @@
       <c r="J170" s="8"/>
       <c r="K170" s="21"/>
     </row>
-    <row r="171" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E171" s="19"/>
       <c r="F171" s="8" t="s">
         <v>389</v>
@@ -5008,7 +5026,7 @@
       <c r="J171" s="8"/>
       <c r="K171" s="21"/>
     </row>
-    <row r="172" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E172" s="19"/>
       <c r="F172" s="8"/>
       <c r="G172" s="8"/>
@@ -5017,7 +5035,7 @@
       <c r="J172" s="8"/>
       <c r="K172" s="21"/>
     </row>
-    <row r="173" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E173" s="19"/>
       <c r="F173" s="8" t="s">
         <v>394</v>
@@ -5028,7 +5046,7 @@
       <c r="J173" s="8"/>
       <c r="K173" s="21"/>
     </row>
-    <row r="174" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E174" s="19"/>
       <c r="F174" s="8" t="s">
         <v>395</v>
@@ -5039,7 +5057,7 @@
       <c r="J174" s="8"/>
       <c r="K174" s="21"/>
     </row>
-    <row r="175" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E175" s="25"/>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
@@ -5050,6 +5068,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5061,23 +5096,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5086,21 +5104,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5146,7 +5164,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5169,7 +5187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5192,7 +5210,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5215,7 +5233,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5238,7 +5256,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5261,54 +5279,100 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>396</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>397</v>
       </c>
       <c r="F9" t="s">
         <v>136</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
         <v>136</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="4" t="s">
         <v>366</v>
       </c>
     </row>
@@ -5325,17 +5389,17 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5378,7 +5442,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5401,7 +5465,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5419,7 +5483,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5439,7 +5503,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5459,7 +5523,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5476,7 +5540,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5493,7 +5557,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5513,7 +5577,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5546,18 +5610,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5580,7 +5644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5600,7 +5664,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5620,7 +5684,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5643,7 +5707,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5666,7 +5730,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5687,7 +5751,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5710,7 +5774,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5733,7 +5797,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5756,7 +5820,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5776,7 +5840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5797,7 +5861,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5817,7 +5881,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5837,7 +5901,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5860,7 +5924,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5883,7 +5947,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5904,7 +5968,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5924,7 +5988,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5947,7 +6011,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5967,7 +6031,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5987,7 +6051,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6010,7 +6074,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6033,7 +6097,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6066,18 +6130,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +6164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6123,7 +6187,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6143,7 +6207,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6166,7 +6230,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6189,7 +6253,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6210,7 +6274,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6233,7 +6297,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6253,7 +6317,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6276,7 +6340,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6299,7 +6363,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6333,13 +6397,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>357</v>
       </c>
@@ -6350,7 +6414,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>360</v>
       </c>
@@ -6361,7 +6425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>361</v>
       </c>
@@ -6372,7 +6436,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>362</v>
       </c>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="702" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="702" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -1769,10 +1769,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1793,9 +1826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1806,9 +1836,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,34 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2318,15 +2318,15 @@
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2422,11 +2422,11 @@
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2457,11 +2457,11 @@
     </row>
     <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2499,11 +2499,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
       <c r="Z9" s="19" t="s">
@@ -2520,10 +2520,10 @@
     </row>
     <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2572,10 +2572,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="21"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="46" t="s">
+      <c r="AA11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="47"/>
+      <c r="AB11" s="57"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -2618,11 +2618,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="46" t="s">
+      <c r="N13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="47"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
@@ -2672,11 +2672,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="54"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="57"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
@@ -3111,11 +3111,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3144,9 +3144,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="70"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="49"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3191,11 +3191,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3224,9 +3224,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="72"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3265,9 +3265,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3289,9 +3289,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="75"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="55"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3328,10 +3328,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="67" t="s">
+      <c r="V30" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="67"/>
+      <c r="W30" s="46"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3399,10 +3399,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="67" t="s">
+      <c r="AE31" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="67"/>
+      <c r="AF31" s="46"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3445,10 +3445,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="76" t="s">
+      <c r="V32" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="76"/>
+      <c r="W32" s="58"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3666,14 +3666,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3688,12 +3688,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="60"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="69"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3706,12 +3706,12 @@
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3722,12 +3722,12 @@
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="57"/>
       <c r="F57" s="1" t="s">
         <v>376</v>
       </c>
@@ -3775,10 +3775,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="47"/>
+      <c r="D59" s="57"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
@@ -3822,10 +3822,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="57"/>
       <c r="O61" s="4" t="s">
         <v>74</v>
       </c>
@@ -3843,10 +3843,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="47"/>
+      <c r="D63" s="57"/>
       <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
@@ -3861,19 +3861,19 @@
       <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="O64" s="46" t="s">
+      <c r="O64" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="47"/>
+      <c r="P64" s="57"/>
       <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="47"/>
+      <c r="D65" s="57"/>
       <c r="Q65" t="s">
         <v>77</v>
       </c>
@@ -3884,10 +3884,10 @@
       </c>
     </row>
     <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="47"/>
+      <c r="D67" s="57"/>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3918,10 +3918,10 @@
       </c>
     </row>
     <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="57"/>
       <c r="F69" s="19"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4079,10 +4079,10 @@
       <c r="P75" t="s">
         <v>379</v>
       </c>
-      <c r="R75" s="46" t="s">
+      <c r="R75" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="47"/>
+      <c r="S75" s="57"/>
       <c r="T75" t="s">
         <v>380</v>
       </c>
@@ -4103,10 +4103,10 @@
       <c r="P77" t="s">
         <v>336</v>
       </c>
-      <c r="R77" s="46" t="s">
+      <c r="R77" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="47"/>
+      <c r="S77" s="57"/>
       <c r="T77" t="s">
         <v>381</v>
       </c>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="46" t="s">
+      <c r="C126" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="47"/>
+      <c r="D126" s="57"/>
       <c r="F126" t="s">
         <v>28</v>
       </c>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="46" t="s">
+      <c r="C128" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="47"/>
+      <c r="D128" s="57"/>
       <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
@@ -4908,10 +4908,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="48" t="s">
+      <c r="H160" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="49"/>
+      <c r="I160" s="60"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
@@ -4919,8 +4919,8 @@
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="51"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="62"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
@@ -4928,8 +4928,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="51"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="62"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
@@ -4937,8 +4937,8 @@
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="50"/>
-      <c r="I163" s="51"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="62"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
@@ -4946,8 +4946,8 @@
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="53"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="64"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
@@ -5068,23 +5068,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5096,6 +5079,23 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5106,7 +5106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -6393,8 +6393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -1326,9 +1326,6 @@
     <t>3. Quét QR code phía trên</t>
   </si>
   <si>
-    <t xml:space="preserve">Ứng dụng đặt món tại bàn và gửi yêu cầu tới nhân viên nhà hàng </t>
-  </si>
-  <si>
     <t>thông qua website: cusres.vn</t>
   </si>
   <si>
@@ -1354,6 +1351,9 @@
  "old_password": "123456"
  ,"new_password": "654321"
 }</t>
+  </si>
+  <si>
+    <t>Ứng dụng đặt món tại bàn trực tuyến</t>
   </si>
 </sst>
 </file>
@@ -1769,43 +1769,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1826,6 +1793,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,6 +1806,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1832,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG175"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2318,15 +2318,15 @@
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2422,11 +2422,11 @@
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2457,11 +2457,11 @@
     </row>
     <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2499,11 +2499,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="76"/>
-      <c r="P9" s="57"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
       <c r="Z9" s="19" t="s">
@@ -2520,10 +2520,10 @@
     </row>
     <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2572,10 +2572,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="21"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="56" t="s">
+      <c r="AA11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="57"/>
+      <c r="AB11" s="47"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -2618,11 +2618,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="76"/>
-      <c r="P13" s="57"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
@@ -2672,11 +2672,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="57"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
@@ -3111,11 +3111,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3144,9 +3144,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="49"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="70"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3191,11 +3191,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3224,9 +3224,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="52"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="72"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3265,9 +3265,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3289,9 +3289,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="55"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="75"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3328,10 +3328,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="46" t="s">
+      <c r="V30" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="46"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3399,10 +3399,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="46" t="s">
+      <c r="AE31" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="46"/>
+      <c r="AF31" s="67"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3445,10 +3445,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="58" t="s">
+      <c r="V32" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="58"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3666,14 +3666,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="67"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3688,12 +3688,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="69"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3706,12 +3706,12 @@
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="69"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3722,12 +3722,12 @@
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="57"/>
+      <c r="D57" s="47"/>
       <c r="F57" s="1" t="s">
         <v>376</v>
       </c>
@@ -3775,10 +3775,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="57"/>
+      <c r="D59" s="47"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
@@ -3822,10 +3822,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="57"/>
+      <c r="D61" s="47"/>
       <c r="O61" s="4" t="s">
         <v>74</v>
       </c>
@@ -3843,10 +3843,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="57"/>
+      <c r="D63" s="47"/>
       <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
@@ -3861,19 +3861,19 @@
       <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="O64" s="56" t="s">
+      <c r="O64" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="57"/>
+      <c r="P64" s="47"/>
       <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="57"/>
+      <c r="D65" s="47"/>
       <c r="Q65" t="s">
         <v>77</v>
       </c>
@@ -3884,10 +3884,10 @@
       </c>
     </row>
     <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="57"/>
+      <c r="D67" s="47"/>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3918,10 +3918,10 @@
       </c>
     </row>
     <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="57"/>
+      <c r="D69" s="47"/>
       <c r="F69" s="19"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4079,10 +4079,10 @@
       <c r="P75" t="s">
         <v>379</v>
       </c>
-      <c r="R75" s="56" t="s">
+      <c r="R75" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="57"/>
+      <c r="S75" s="47"/>
       <c r="T75" t="s">
         <v>380</v>
       </c>
@@ -4103,10 +4103,10 @@
       <c r="P77" t="s">
         <v>336</v>
       </c>
-      <c r="R77" s="56" t="s">
+      <c r="R77" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="57"/>
+      <c r="S77" s="47"/>
       <c r="T77" t="s">
         <v>381</v>
       </c>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="56" t="s">
+      <c r="C126" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="57"/>
+      <c r="D126" s="47"/>
       <c r="F126" t="s">
         <v>28</v>
       </c>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="47"/>
       <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
@@ -4865,7 +4865,7 @@
     <row r="156" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E156" s="19"/>
       <c r="F156" s="8" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
@@ -4876,7 +4876,7 @@
     <row r="157" spans="5:21" x14ac:dyDescent="0.35">
       <c r="E157" s="19"/>
       <c r="F157" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
@@ -4908,10 +4908,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="59" t="s">
+      <c r="H160" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="60"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
@@ -4919,8 +4919,8 @@
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="62"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="51"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
@@ -4928,8 +4928,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="62"/>
+      <c r="H162" s="50"/>
+      <c r="I162" s="51"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
@@ -4937,8 +4937,8 @@
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="61"/>
-      <c r="I163" s="62"/>
+      <c r="H163" s="50"/>
+      <c r="I163" s="51"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
@@ -4946,8 +4946,8 @@
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="63"/>
-      <c r="I164" s="64"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="53"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
@@ -5038,7 +5038,7 @@
     <row r="173" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E173" s="19"/>
       <c r="F173" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
@@ -5049,7 +5049,7 @@
     <row r="174" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E174" s="19"/>
       <c r="F174" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
@@ -5068,6 +5068,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5079,23 +5096,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5284,22 +5284,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F9" t="s">
         <v>136</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5353,22 +5353,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F12" t="s">
         <v>136</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -6394,7 +6394,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="702" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="702"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="401">
   <si>
     <t>NO.</t>
   </si>
@@ -1769,10 +1769,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1793,9 +1826,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1806,9 +1836,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1832,34 +1859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG175"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2318,15 +2318,15 @@
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2422,11 +2422,11 @@
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2457,11 +2457,11 @@
     </row>
     <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2499,11 +2499,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
       <c r="Z9" s="19" t="s">
@@ -2520,10 +2520,10 @@
     </row>
     <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2572,10 +2572,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="21"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="46" t="s">
+      <c r="AA11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="47"/>
+      <c r="AB11" s="57"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -2618,11 +2618,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="46" t="s">
+      <c r="N13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="47"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
@@ -2672,11 +2672,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="54"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="57"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
@@ -3111,11 +3111,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3144,9 +3144,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="70"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="49"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3191,11 +3191,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3224,9 +3224,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="72"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3265,9 +3265,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3289,9 +3289,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="75"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="55"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3328,10 +3328,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="67" t="s">
+      <c r="V30" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="67"/>
+      <c r="W30" s="46"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3399,10 +3399,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="67" t="s">
+      <c r="AE31" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="67"/>
+      <c r="AF31" s="46"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3445,10 +3445,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="76" t="s">
+      <c r="V32" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="76"/>
+      <c r="W32" s="58"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3666,14 +3666,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3688,12 +3688,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="60"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="69"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3706,12 +3706,12 @@
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3722,12 +3722,12 @@
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
@@ -3752,10 +3752,10 @@
     </row>
     <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="57"/>
       <c r="F57" s="1" t="s">
         <v>376</v>
       </c>
@@ -3775,10 +3775,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="47"/>
+      <c r="D59" s="57"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
@@ -3822,10 +3822,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="57"/>
       <c r="O61" s="4" t="s">
         <v>74</v>
       </c>
@@ -3843,10 +3843,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="47"/>
+      <c r="D63" s="57"/>
       <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
@@ -3861,19 +3861,19 @@
       <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="O64" s="46" t="s">
+      <c r="O64" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="47"/>
+      <c r="P64" s="57"/>
       <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="47"/>
+      <c r="D65" s="57"/>
       <c r="Q65" t="s">
         <v>77</v>
       </c>
@@ -3884,10 +3884,10 @@
       </c>
     </row>
     <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="47"/>
+      <c r="D67" s="57"/>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3918,10 +3918,10 @@
       </c>
     </row>
     <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="57"/>
       <c r="F69" s="19"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4079,10 +4079,10 @@
       <c r="P75" t="s">
         <v>379</v>
       </c>
-      <c r="R75" s="46" t="s">
+      <c r="R75" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="47"/>
+      <c r="S75" s="57"/>
       <c r="T75" t="s">
         <v>380</v>
       </c>
@@ -4103,10 +4103,10 @@
       <c r="P77" t="s">
         <v>336</v>
       </c>
-      <c r="R77" s="46" t="s">
+      <c r="R77" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="47"/>
+      <c r="S77" s="57"/>
       <c r="T77" t="s">
         <v>381</v>
       </c>
@@ -4395,6 +4395,9 @@
       </c>
     </row>
     <row r="103" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G103" t="s">
+        <v>246</v>
+      </c>
       <c r="P103" t="s">
         <v>342</v>
       </c>
@@ -4463,9 +4466,6 @@
       </c>
     </row>
     <row r="112" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G112" t="s">
-        <v>246</v>
-      </c>
       <c r="P112" s="2" t="s">
         <v>81</v>
       </c>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="46" t="s">
+      <c r="C126" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="47"/>
+      <c r="D126" s="57"/>
       <c r="F126" t="s">
         <v>28</v>
       </c>
@@ -4572,10 +4572,10 @@
     </row>
     <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="46" t="s">
+      <c r="C128" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="47"/>
+      <c r="D128" s="57"/>
       <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
@@ -4657,6 +4657,9 @@
     </row>
     <row r="131" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="132" spans="6:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H132" t="s">
+        <v>246</v>
+      </c>
       <c r="R132" t="s">
         <v>346</v>
       </c>
@@ -4908,10 +4911,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="48" t="s">
+      <c r="H160" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="49"/>
+      <c r="I160" s="60"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
@@ -4919,8 +4922,8 @@
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="51"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="62"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
@@ -4928,8 +4931,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="51"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="62"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
@@ -4937,8 +4940,8 @@
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="50"/>
-      <c r="I163" s="51"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="62"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
@@ -4946,8 +4949,8 @@
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="53"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="64"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
@@ -5068,23 +5071,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5096,6 +5082,23 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6393,7 +6396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="702"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="customer api" sheetId="4" r:id="rId3"/>
     <sheet name="staff admin api" sheetId="5" r:id="rId4"/>
     <sheet name="supper admin api" sheetId="6" r:id="rId5"/>
-    <sheet name="User - Role" sheetId="7" r:id="rId6"/>
+    <sheet name="Common api" sheetId="8" r:id="rId6"/>
+    <sheet name="User - Role" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="406">
   <si>
     <t>NO.</t>
   </si>
@@ -1354,6 +1355,21 @@
   </si>
   <si>
     <t>Ứng dụng đặt món tại bàn trực tuyến</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Load danh sách tỉnh/thành phố</t>
+  </si>
+  <si>
+    <t>api/master/city</t>
+  </si>
+  <si>
+    <t>Load danh sách quận/ huyện theo thành phố</t>
+  </si>
+  <si>
+    <t>api/master/city/&lt;int:id&gt;/district</t>
   </si>
 </sst>
 </file>
@@ -1769,43 +1785,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1826,6 +1809,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,6 +1822,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1859,7 +1848,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2168,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="J97" workbookViewId="0">
       <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
@@ -2318,15 +2334,15 @@
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2376,13 +2392,13 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2422,11 +2438,11 @@
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2457,11 +2473,11 @@
     </row>
     <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2499,11 +2515,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="76"/>
-      <c r="P9" s="57"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
       <c r="Z9" s="19" t="s">
@@ -2520,10 +2536,10 @@
     </row>
     <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2572,10 +2588,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="21"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="56" t="s">
+      <c r="AA11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="57"/>
+      <c r="AB11" s="47"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -2618,11 +2634,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="76"/>
-      <c r="P13" s="57"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
@@ -2672,11 +2688,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="57"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
@@ -3111,11 +3127,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3144,9 +3160,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="49"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="70"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3191,11 +3207,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3224,9 +3240,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="52"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="72"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3265,9 +3281,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3289,9 +3305,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="55"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="75"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3328,10 +3344,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="46" t="s">
+      <c r="V30" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="46"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3399,10 +3415,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="46" t="s">
+      <c r="AE31" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="46"/>
+      <c r="AF31" s="67"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3445,10 +3461,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="58" t="s">
+      <c r="V32" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="58"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3666,14 +3682,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="67"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3688,12 +3704,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="69"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3706,12 +3722,12 @@
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="69"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3722,12 +3738,12 @@
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
@@ -3752,10 +3768,10 @@
     </row>
     <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="57"/>
+      <c r="D57" s="47"/>
       <c r="F57" s="1" t="s">
         <v>376</v>
       </c>
@@ -3775,10 +3791,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="57"/>
+      <c r="D59" s="47"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
@@ -3822,10 +3838,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="57"/>
+      <c r="D61" s="47"/>
       <c r="O61" s="4" t="s">
         <v>74</v>
       </c>
@@ -3843,10 +3859,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="57"/>
+      <c r="D63" s="47"/>
       <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
@@ -3861,19 +3877,19 @@
       <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="O64" s="56" t="s">
+      <c r="O64" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="57"/>
+      <c r="P64" s="47"/>
       <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="57"/>
+      <c r="D65" s="47"/>
       <c r="Q65" t="s">
         <v>77</v>
       </c>
@@ -3884,10 +3900,10 @@
       </c>
     </row>
     <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="57"/>
+      <c r="D67" s="47"/>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3918,10 +3934,10 @@
       </c>
     </row>
     <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="57"/>
+      <c r="D69" s="47"/>
       <c r="F69" s="19"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4079,10 +4095,10 @@
       <c r="P75" t="s">
         <v>379</v>
       </c>
-      <c r="R75" s="56" t="s">
+      <c r="R75" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="57"/>
+      <c r="S75" s="47"/>
       <c r="T75" t="s">
         <v>380</v>
       </c>
@@ -4103,10 +4119,10 @@
       <c r="P77" t="s">
         <v>336</v>
       </c>
-      <c r="R77" s="56" t="s">
+      <c r="R77" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="57"/>
+      <c r="S77" s="47"/>
       <c r="T77" t="s">
         <v>381</v>
       </c>
@@ -4538,10 +4554,10 @@
     </row>
     <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="56" t="s">
+      <c r="C126" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="57"/>
+      <c r="D126" s="47"/>
       <c r="F126" t="s">
         <v>28</v>
       </c>
@@ -4572,10 +4588,10 @@
     </row>
     <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="47"/>
       <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
@@ -4911,10 +4927,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="59" t="s">
+      <c r="H160" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="60"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
@@ -4922,8 +4938,8 @@
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="62"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="51"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
@@ -4931,8 +4947,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="62"/>
+      <c r="H162" s="50"/>
+      <c r="I162" s="51"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
@@ -4940,8 +4956,8 @@
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="61"/>
-      <c r="I163" s="62"/>
+      <c r="H163" s="50"/>
+      <c r="I163" s="51"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
@@ -4949,8 +4965,8 @@
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="63"/>
-      <c r="I164" s="64"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="53"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
@@ -5071,6 +5087,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5082,23 +5115,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5109,7 +5125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -5609,8 +5625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6130,7 +6146,7 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6394,10 +6410,145 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="413">
   <si>
     <t>NO.</t>
   </si>
@@ -1370,6 +1370,27 @@
   </si>
   <si>
     <t>api/master/city/&lt;int:id&gt;/district</t>
+  </si>
+  <si>
+    <t>Promotion</t>
+  </si>
+  <si>
+    <t>Get danh sách khuyến mãi khả dụng</t>
+  </si>
+  <si>
+    <t>api/customer/pmt/owned</t>
+  </si>
+  <si>
+    <t>Get danh sách khuyến mãi đã dùng</t>
+  </si>
+  <si>
+    <t>api/customer/pmt/used</t>
+  </si>
+  <si>
+    <t>Get danh sách khuyến mãi đã hết hạn</t>
+  </si>
+  <si>
+    <t>api/customer/pmt/expired</t>
   </si>
 </sst>
 </file>
@@ -5402,10 +5423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5613,6 +5634,66 @@
         <v>370</v>
       </c>
       <c r="F11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>412</v>
+      </c>
+      <c r="F14" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6412,7 +6493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6548,7 +6629,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -2205,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG175"/>
   <sheetViews>
-    <sheetView topLeftCell="J97" workbookViewId="0">
+    <sheetView topLeftCell="L82" workbookViewId="0">
       <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
@@ -5425,7 +5425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5707,7 +5707,7 @@
   <dimension ref="A2:G24"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6628,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="416">
   <si>
     <t>NO.</t>
   </si>
@@ -1391,6 +1391,15 @@
   </si>
   <si>
     <t>api/customer/pmt/expired</t>
+  </si>
+  <si>
+    <t>Admin store</t>
+  </si>
+  <si>
+    <t>Get list store</t>
+  </si>
+  <si>
+    <t>api/store/list</t>
   </si>
 </sst>
 </file>
@@ -1806,10 +1815,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1830,9 +1872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1843,9 +1882,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1869,34 +1905,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2355,15 +2364,15 @@
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2413,13 +2422,13 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2459,11 +2468,11 @@
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2494,11 +2503,11 @@
     </row>
     <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2536,11 +2545,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
       <c r="Z9" s="19" t="s">
@@ -2557,10 +2566,10 @@
     </row>
     <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2609,10 +2618,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="21"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="46" t="s">
+      <c r="AA11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="47"/>
+      <c r="AB11" s="57"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -2655,11 +2664,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="46" t="s">
+      <c r="N13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="47"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
@@ -2709,11 +2718,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="54"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="57"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
@@ -3148,11 +3157,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3181,9 +3190,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="70"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="49"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3228,11 +3237,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3261,9 +3270,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="72"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3302,9 +3311,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3326,9 +3335,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="75"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="55"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3365,10 +3374,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="67" t="s">
+      <c r="V30" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="67"/>
+      <c r="W30" s="46"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3436,10 +3445,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="67" t="s">
+      <c r="AE31" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="67"/>
+      <c r="AF31" s="46"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3482,10 +3491,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="76" t="s">
+      <c r="V32" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="76"/>
+      <c r="W32" s="58"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3703,14 +3712,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3725,12 +3734,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="60"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="69"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3743,12 +3752,12 @@
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3759,12 +3768,12 @@
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
@@ -3789,10 +3798,10 @@
     </row>
     <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="57"/>
       <c r="F57" s="1" t="s">
         <v>376</v>
       </c>
@@ -3812,10 +3821,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="47"/>
+      <c r="D59" s="57"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
@@ -3859,10 +3868,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="57"/>
       <c r="O61" s="4" t="s">
         <v>74</v>
       </c>
@@ -3880,10 +3889,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="47"/>
+      <c r="D63" s="57"/>
       <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
@@ -3898,19 +3907,19 @@
       <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="O64" s="46" t="s">
+      <c r="O64" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="47"/>
+      <c r="P64" s="57"/>
       <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="47"/>
+      <c r="D65" s="57"/>
       <c r="Q65" t="s">
         <v>77</v>
       </c>
@@ -3921,10 +3930,10 @@
       </c>
     </row>
     <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="47"/>
+      <c r="D67" s="57"/>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3955,10 +3964,10 @@
       </c>
     </row>
     <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="57"/>
       <c r="F69" s="19"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4116,10 +4125,10 @@
       <c r="P75" t="s">
         <v>379</v>
       </c>
-      <c r="R75" s="46" t="s">
+      <c r="R75" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="47"/>
+      <c r="S75" s="57"/>
       <c r="T75" t="s">
         <v>380</v>
       </c>
@@ -4140,10 +4149,10 @@
       <c r="P77" t="s">
         <v>336</v>
       </c>
-      <c r="R77" s="46" t="s">
+      <c r="R77" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="47"/>
+      <c r="S77" s="57"/>
       <c r="T77" t="s">
         <v>381</v>
       </c>
@@ -4575,10 +4584,10 @@
     </row>
     <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="46" t="s">
+      <c r="C126" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="47"/>
+      <c r="D126" s="57"/>
       <c r="F126" t="s">
         <v>28</v>
       </c>
@@ -4609,10 +4618,10 @@
     </row>
     <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="46" t="s">
+      <c r="C128" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="47"/>
+      <c r="D128" s="57"/>
       <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
@@ -4948,10 +4957,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="48" t="s">
+      <c r="H160" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="49"/>
+      <c r="I160" s="60"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
@@ -4959,8 +4968,8 @@
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="51"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="62"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
@@ -4968,8 +4977,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="51"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="62"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
@@ -4977,8 +4986,8 @@
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="50"/>
-      <c r="I163" s="51"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="62"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
@@ -4986,8 +4995,8 @@
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="53"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="64"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
@@ -5108,23 +5117,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5136,6 +5128,23 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6224,10 +6233,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G12"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6483,6 +6492,26 @@
         <v>136</v>
       </c>
       <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>415</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6628,7 +6657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="screens" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="419">
   <si>
     <t>NO.</t>
   </si>
@@ -1400,6 +1400,22 @@
   </si>
   <si>
     <t>api/store/list</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>api/customer/update-info</t>
+  </si>
+  <si>
+    <t>{
+"name": "test update",
+"phone_number": "0976111444",
+"gender": 1,
+"birthday": "1992-12-23",
+"city_id": 1, 
+"district_id": 2
+}</t>
   </si>
 </sst>
 </file>
@@ -1815,43 +1831,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1872,6 +1855,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1882,6 +1868,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1905,7 +1894,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2214,7 +2230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG175"/>
   <sheetViews>
-    <sheetView topLeftCell="L82" workbookViewId="0">
+    <sheetView topLeftCell="J25" workbookViewId="0">
       <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
@@ -2364,15 +2380,15 @@
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2422,13 +2438,13 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2468,11 +2484,11 @@
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2503,11 +2519,11 @@
     </row>
     <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2545,11 +2561,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="56" t="s">
+      <c r="N9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="76"/>
-      <c r="P9" s="57"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="47"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
       <c r="Z9" s="19" t="s">
@@ -2566,10 +2582,10 @@
     </row>
     <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2618,10 +2634,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="21"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="56" t="s">
+      <c r="AA11" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="57"/>
+      <c r="AB11" s="47"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -2664,11 +2680,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="56" t="s">
+      <c r="N13" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="76"/>
-      <c r="P13" s="57"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="47"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
@@ -2718,11 +2734,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="56" t="s">
+      <c r="N15" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="76"/>
-      <c r="P15" s="57"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="47"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
@@ -3157,11 +3173,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="73" t="s">
+      <c r="H27" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3190,9 +3206,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="48"/>
-      <c r="AN27" s="49"/>
+      <c r="AL27" s="68"/>
+      <c r="AM27" s="69"/>
+      <c r="AN27" s="70"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3237,11 +3253,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="70" t="s">
+      <c r="H28" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3270,9 +3286,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="50"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="52"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="72"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3311,9 +3327,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3335,9 +3351,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="53"/>
-      <c r="AM29" s="54"/>
-      <c r="AN29" s="55"/>
+      <c r="AL29" s="73"/>
+      <c r="AM29" s="74"/>
+      <c r="AN29" s="75"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3374,10 +3390,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="46" t="s">
+      <c r="V30" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="46"/>
+      <c r="W30" s="67"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3445,10 +3461,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="46" t="s">
+      <c r="AE31" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="46"/>
+      <c r="AF31" s="67"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3491,10 +3507,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="58" t="s">
+      <c r="V32" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="58"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3712,14 +3728,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="65" t="s">
+      <c r="C49" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="67"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3734,12 +3750,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="69"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3752,12 +3768,12 @@
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="69"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3768,12 +3784,12 @@
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="72"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
@@ -3798,10 +3814,10 @@
     </row>
     <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="57"/>
+      <c r="D57" s="47"/>
       <c r="F57" s="1" t="s">
         <v>376</v>
       </c>
@@ -3821,10 +3837,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="57"/>
+      <c r="D59" s="47"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
@@ -3868,10 +3884,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="57"/>
+      <c r="D61" s="47"/>
       <c r="O61" s="4" t="s">
         <v>74</v>
       </c>
@@ -3889,10 +3905,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="56" t="s">
+      <c r="C63" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="57"/>
+      <c r="D63" s="47"/>
       <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
@@ -3907,19 +3923,19 @@
       <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="O64" s="56" t="s">
+      <c r="O64" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="57"/>
+      <c r="P64" s="47"/>
       <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="57"/>
+      <c r="D65" s="47"/>
       <c r="Q65" t="s">
         <v>77</v>
       </c>
@@ -3930,10 +3946,10 @@
       </c>
     </row>
     <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="57"/>
+      <c r="D67" s="47"/>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3964,10 +3980,10 @@
       </c>
     </row>
     <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="57"/>
+      <c r="D69" s="47"/>
       <c r="F69" s="19"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4125,10 +4141,10 @@
       <c r="P75" t="s">
         <v>379</v>
       </c>
-      <c r="R75" s="56" t="s">
+      <c r="R75" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="57"/>
+      <c r="S75" s="47"/>
       <c r="T75" t="s">
         <v>380</v>
       </c>
@@ -4149,10 +4165,10 @@
       <c r="P77" t="s">
         <v>336</v>
       </c>
-      <c r="R77" s="56" t="s">
+      <c r="R77" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="57"/>
+      <c r="S77" s="47"/>
       <c r="T77" t="s">
         <v>381</v>
       </c>
@@ -4584,10 +4600,10 @@
     </row>
     <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="56" t="s">
+      <c r="C126" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="57"/>
+      <c r="D126" s="47"/>
       <c r="F126" t="s">
         <v>28</v>
       </c>
@@ -4618,10 +4634,10 @@
     </row>
     <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="56" t="s">
+      <c r="C128" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="57"/>
+      <c r="D128" s="47"/>
       <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
@@ -4957,10 +4973,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="59" t="s">
+      <c r="H160" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="60"/>
+      <c r="I160" s="49"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
@@ -4968,8 +4984,8 @@
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="61"/>
-      <c r="I161" s="62"/>
+      <c r="H161" s="50"/>
+      <c r="I161" s="51"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
@@ -4977,8 +4993,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="61"/>
-      <c r="I162" s="62"/>
+      <c r="H162" s="50"/>
+      <c r="I162" s="51"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
@@ -4986,8 +5002,8 @@
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="61"/>
-      <c r="I163" s="62"/>
+      <c r="H163" s="50"/>
+      <c r="I163" s="51"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
@@ -4995,8 +5011,8 @@
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="63"/>
-      <c r="I164" s="64"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="53"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
@@ -5117,6 +5133,23 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5128,23 +5161,6 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5432,16 +5448,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G14"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.1796875" bestFit="1" customWidth="1"/>
@@ -5704,6 +5720,29 @@
       </c>
       <c r="F14" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>417</v>
+      </c>
+      <c r="F15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +6274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>

--- a/api_function_list.xlsx
+++ b/api_function_list.xlsx
@@ -1410,7 +1410,7 @@
   <si>
     <t>{
 "name": "test update",
-"phone_number": "0976111444",
+"phone": "0976111444",
 "gender": 1,
 "birthday": "1992-12-23",
 "city_id": 1, 
@@ -1831,10 +1831,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1855,9 +1888,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1868,9 +1898,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1894,34 +1921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2380,15 +2380,15 @@
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="49"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8" t="s">
         <v>218</v>
       </c>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="8" t="s">
         <v>219</v>
       </c>
@@ -2484,11 +2484,11 @@
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
@@ -2519,11 +2519,11 @@
     </row>
     <row r="8" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -2561,11 +2561,11 @@
         <v>327</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="47"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="21"/>
       <c r="Z9" s="19" t="s">
@@ -2582,10 +2582,10 @@
     </row>
     <row r="10" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2634,10 +2634,10 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="21"/>
       <c r="Z11" s="25"/>
-      <c r="AA11" s="46" t="s">
+      <c r="AA11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="47"/>
+      <c r="AB11" s="57"/>
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
       <c r="AE11" s="26"/>
@@ -2680,11 +2680,11 @@
         <v>328</v>
       </c>
       <c r="M13" s="8"/>
-      <c r="N13" s="46" t="s">
+      <c r="N13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="47"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="57"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="21"/>
     </row>
@@ -2734,11 +2734,11 @@
         <v>329</v>
       </c>
       <c r="M15" s="8"/>
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="54"/>
-      <c r="P15" s="47"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="57"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="21"/>
     </row>
@@ -3173,11 +3173,11 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="21"/>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
       <c r="L27" s="19" t="s">
         <v>229</v>
       </c>
@@ -3206,9 +3206,9 @@
       <c r="AI27" s="21"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="8"/>
-      <c r="AL27" s="68"/>
-      <c r="AM27" s="69"/>
-      <c r="AN27" s="70"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="48"/>
+      <c r="AN27" s="49"/>
       <c r="AO27" s="21"/>
       <c r="AQ27" s="19">
         <v>1</v>
@@ -3253,11 +3253,11 @@
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="21"/>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
       <c r="L28" s="19"/>
       <c r="M28" s="8"/>
       <c r="N28" s="21"/>
@@ -3286,9 +3286,9 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="19"/>
       <c r="AK28" s="8"/>
-      <c r="AL28" s="71"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="72"/>
+      <c r="AL28" s="50"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="52"/>
       <c r="AO28" s="21"/>
       <c r="AQ28" s="19">
         <v>2</v>
@@ -3327,9 +3327,9 @@
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="21"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
       <c r="L29" s="19" t="s">
         <v>230</v>
       </c>
@@ -3351,9 +3351,9 @@
       <c r="AI29" s="21"/>
       <c r="AJ29" s="19"/>
       <c r="AK29" s="8"/>
-      <c r="AL29" s="73"/>
-      <c r="AM29" s="74"/>
-      <c r="AN29" s="75"/>
+      <c r="AL29" s="53"/>
+      <c r="AM29" s="54"/>
+      <c r="AN29" s="55"/>
       <c r="AO29" s="21"/>
       <c r="AQ29" s="19"/>
       <c r="AR29" s="8"/>
@@ -3390,10 +3390,10 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
       <c r="U30" s="19"/>
-      <c r="V30" s="67" t="s">
+      <c r="V30" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="W30" s="67"/>
+      <c r="W30" s="46"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
@@ -3461,10 +3461,10 @@
       <c r="AD31" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="AE31" s="67" t="s">
+      <c r="AE31" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="AF31" s="67"/>
+      <c r="AF31" s="46"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
       <c r="AI31" s="21"/>
@@ -3507,10 +3507,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="21"/>
       <c r="U32" s="25"/>
-      <c r="V32" s="76" t="s">
+      <c r="V32" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="W32" s="76"/>
+      <c r="W32" s="58"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
@@ -3728,14 +3728,14 @@
     <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="19"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="57"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="67"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
         <v>132</v>
@@ -3750,12 +3750,12 @@
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="19"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="60"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="69"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
         <v>133</v>
@@ -3768,12 +3768,12 @@
     <row r="51" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="21"/>
@@ -3784,12 +3784,12 @@
     <row r="52" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="63"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="21"/>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="56" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="56" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="47"/>
+      <c r="D57" s="57"/>
       <c r="F57" s="1" t="s">
         <v>376</v>
       </c>
@@ -3837,10 +3837,10 @@
       </c>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="47"/>
+      <c r="D59" s="57"/>
       <c r="F59" t="s">
         <v>44</v>
       </c>
@@ -3884,10 +3884,10 @@
       </c>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="47"/>
+      <c r="D61" s="57"/>
       <c r="O61" s="4" t="s">
         <v>74</v>
       </c>
@@ -3905,10 +3905,10 @@
       </c>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="D63" s="47"/>
+      <c r="D63" s="57"/>
       <c r="O63" s="5" t="s">
         <v>75</v>
       </c>
@@ -3923,19 +3923,19 @@
       <c r="M64" t="s">
         <v>336</v>
       </c>
-      <c r="O64" s="46" t="s">
+      <c r="O64" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="47"/>
+      <c r="P64" s="57"/>
       <c r="Q64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="46" t="s">
+      <c r="C65" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="D65" s="47"/>
+      <c r="D65" s="57"/>
       <c r="Q65" t="s">
         <v>77</v>
       </c>
@@ -3946,10 +3946,10 @@
       </c>
     </row>
     <row r="67" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C67" s="46" t="s">
+      <c r="C67" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D67" s="47"/>
+      <c r="D67" s="57"/>
       <c r="F67" s="15"/>
       <c r="G67" s="17"/>
       <c r="H67" s="17"/>
@@ -3980,10 +3980,10 @@
       </c>
     </row>
     <row r="69" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C69" s="46" t="s">
+      <c r="C69" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="D69" s="47"/>
+      <c r="D69" s="57"/>
       <c r="F69" s="19"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -4141,10 +4141,10 @@
       <c r="P75" t="s">
         <v>379</v>
       </c>
-      <c r="R75" s="46" t="s">
+      <c r="R75" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="47"/>
+      <c r="S75" s="57"/>
       <c r="T75" t="s">
         <v>380</v>
       </c>
@@ -4165,10 +4165,10 @@
       <c r="P77" t="s">
         <v>336</v>
       </c>
-      <c r="R77" s="46" t="s">
+      <c r="R77" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="47"/>
+      <c r="S77" s="57"/>
       <c r="T77" t="s">
         <v>381</v>
       </c>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="125" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="126" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C126" s="46" t="s">
+      <c r="C126" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D126" s="47"/>
+      <c r="D126" s="57"/>
       <c r="F126" t="s">
         <v>28</v>
       </c>
@@ -4634,10 +4634,10 @@
     </row>
     <row r="127" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="128" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C128" s="46" t="s">
+      <c r="C128" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D128" s="47"/>
+      <c r="D128" s="57"/>
       <c r="N128" s="2" t="s">
         <v>108</v>
       </c>
@@ -4973,10 +4973,10 @@
       <c r="E160" s="19"/>
       <c r="F160" s="8"/>
       <c r="G160" s="8"/>
-      <c r="H160" s="48" t="s">
+      <c r="H160" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="I160" s="49"/>
+      <c r="I160" s="60"/>
       <c r="J160" s="8"/>
       <c r="K160" s="21"/>
     </row>
@@ -4984,8 +4984,8 @@
       <c r="E161" s="19"/>
       <c r="F161" s="8"/>
       <c r="G161" s="8"/>
-      <c r="H161" s="50"/>
-      <c r="I161" s="51"/>
+      <c r="H161" s="61"/>
+      <c r="I161" s="62"/>
       <c r="J161" s="8"/>
       <c r="K161" s="21"/>
     </row>
@@ -4993,8 +4993,8 @@
       <c r="E162" s="19"/>
       <c r="F162" s="8"/>
       <c r="G162" s="8"/>
-      <c r="H162" s="50"/>
-      <c r="I162" s="51"/>
+      <c r="H162" s="61"/>
+      <c r="I162" s="62"/>
       <c r="J162" s="8"/>
       <c r="K162" s="21"/>
     </row>
@@ -5002,8 +5002,8 @@
       <c r="E163" s="19"/>
       <c r="F163" s="8"/>
       <c r="G163" s="8"/>
-      <c r="H163" s="50"/>
-      <c r="I163" s="51"/>
+      <c r="H163" s="61"/>
+      <c r="I163" s="62"/>
       <c r="J163" s="8"/>
       <c r="K163" s="21"/>
     </row>
@@ -5011,8 +5011,8 @@
       <c r="E164" s="19"/>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
-      <c r="H164" s="52"/>
-      <c r="I164" s="53"/>
+      <c r="H164" s="63"/>
+      <c r="I164" s="64"/>
       <c r="J164" s="8"/>
       <c r="K164" s="21"/>
     </row>
@@ -5133,23 +5133,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AL27:AN29"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="V32:W32"/>
-    <mergeCell ref="B5:C8"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C49:H52"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
     <mergeCell ref="R75:S75"/>
     <mergeCell ref="R77:S77"/>
     <mergeCell ref="H160:I164"/>
@@ -5161,6 +5144,23 @@
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B5:C8"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C49:H52"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AL27:AN29"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V32:W32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5451,7 +5451,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
